--- a/Excel/镇魂街/wBoss.世界BOSS.xlsx
+++ b/Excel/镇魂街/wBoss.世界BOSS.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
-    <sheet name="世界BOSS" sheetId="33" r:id="rId2"/>
+    <sheet name="世界BOSS章节" sheetId="34" r:id="rId2"/>
+    <sheet name="世界BOSS" sheetId="33" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="463">
   <si>
     <t>sheet名</t>
   </si>
@@ -52,6 +53,42 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>BossNum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级限制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:15#15:15#18:15#19:15#20:15#21:15#22:15#23:15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelLimit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefreshTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:a&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>int:&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -60,63 +97,1639 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>NeedLv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefreshTimePoints</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>需要等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新时间点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BossNum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:a&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>drop_id:&lt;&gt;</t>
+    <t>Cha</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cha</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters[1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters[2]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters[3]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_id:e&gt;|@0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_id:e&gt;|@0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物[1].寄灵人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物[2].寄灵人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物[3].寄灵人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[1].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[2].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[3].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[1].desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落展示1ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落展示1描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落展示2ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落展示2描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落展示3ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落展示3描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[2].desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[3].desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狗星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地劣星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地奴星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地损星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地贼星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地短星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地囚星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地微星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地退星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地猖星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地僻星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地空星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地恶星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地走星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地伏星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地孤星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地刑星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地妖星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地角星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地兽星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地异星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地暗星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地隧星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地戚星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地默星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地文星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地巧星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地健星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地壮星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地飞星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地阴星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地幽星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地羁星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地魂星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地魔星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地猛星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地俊星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地勇星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地全星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地正星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地魁星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地杰星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地雄星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地英星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地威星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天巧星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天暴星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天牢星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天慧星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天哭星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天败星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罪星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天剑星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天平星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天损星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天寿星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天究星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天杀星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天微星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天退星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天异星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天暗星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天佑星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天速星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天捷星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天伤星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天满星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天孤星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天立星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天富星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天勇星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天魁星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天机星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天雄星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>七杀星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>破军星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>太白星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>荧惑星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChaName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞二</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞三</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞四</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞五</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞六</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞七</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞八</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞九</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡二</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡三</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡四</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡五</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡六</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>星耀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kn-1-1-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-1-1-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-1-1-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-1-2-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-1-2-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-1-2-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-1-3-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-1-3-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-1-3-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-1-5-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-1-5-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-1-5-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-1-6-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-1-6-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-1-6-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-1-8-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-1-8-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-1-8-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-1-9-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-1-9-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-1-9-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-2-1-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-2-1-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-2-1-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-2-2-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-2-2-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-2-2-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-2-3-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-2-3-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-2-3-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-2-4-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-2-4-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-2-4-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-2-5-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-2-5-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-2-5-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-2-6-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-2-6-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-2-6-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-2-7-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-2-7-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-2-7-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-2-8-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-2-8-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-2-8-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-2-9-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-2-9-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-2-9-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-3-1-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-3-1-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-3-1-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-3-2-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-3-2-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-3-2-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-3-3-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-3-3-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-3-3-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-3-4-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-3-4-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-3-4-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-3-5-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-3-5-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-3-5-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-3-6-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-3-6-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-3-6-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-3-7-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-3-7-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-3-7-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-3-8-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-3-8-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-3-8-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-3-9-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-3-9-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-3-9-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-3-10-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-3-10-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-3-10-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-3-11-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-3-11-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-3-11-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-3-12-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-3-12-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-3-12-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-3-13-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-3-13-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-3-13-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-3-14-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-3-14-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-3-14-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-3-15-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-3-15-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-3-15-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-4-1-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-4-1-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-4-1-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-4-2-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-4-2-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-4-2-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-4-3-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-4-3-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-4-3-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-4-4-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-4-4-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-4-4-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-4-5-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-4-5-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-4-5-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-4-6-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-4-6-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-4-6-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-4-7-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-4-7-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-4-7-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-4-8-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-4-8-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-4-8-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-4-9-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-4-9-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-4-9-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-4-10-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-4-10-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-4-10-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-4-11-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-4-11-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-4-11-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-4-12-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-4-12-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-4-12-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-4-13-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-4-13-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-4-13-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-4-14-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-4-14-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-4-14-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-4-15-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-4-15-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-4-15-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-5-1-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-5-1-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-5-1-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-5-2-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-5-2-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-5-2-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-5-3-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-5-3-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-5-3-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-5-4-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-5-4-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-5-4-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-5-5-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-5-5-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-5-5-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-5-6-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-5-6-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-5-6-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-5-7-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-5-7-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-5-7-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-5-8-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-5-8-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-5-8-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-5-9-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-5-9-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-5-9-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-5-10-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-5-10-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-5-10-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-5-11-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-5-11-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-5-11-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-5-12-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-5-12-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-5-12-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-5-13-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-5-13-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-5-13-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-5-14-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-5-14-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-5-14-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-5-15-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-5-15-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-5-15-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-6-1-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-6-1-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-6-1-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-6-2-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-6-2-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-6-2-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-6-3-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-6-3-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-6-3-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-6-4-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-6-4-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-6-4-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-6-5-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-6-5-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-6-5-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-6-6-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-6-6-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-6-6-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-6-7-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-6-7-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-6-7-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-6-8-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-6-8-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-6-8-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-6-9-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-6-9-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-6-9-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-6-10-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-6-10-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-6-10-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-6-11-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-6-11-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-6-11-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-6-12-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-6-12-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-6-12-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-6-13-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-6-13-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-6-13-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-6-14-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-6-14-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-6-14-jlr-loc3</t>
+  </si>
+  <si>
+    <t>kn-6-15-jlr-loc1</t>
+  </si>
+  <si>
+    <t>kn-6-15-jlr-loc2</t>
+  </si>
+  <si>
+    <t>kn-6-15-jlr-loc3</t>
+  </si>
+  <si>
+    <r>
+      <t>1~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级专属强化石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级专属强化石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级专属强化石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[4].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[4].desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落展示4ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落展示4描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>Drop[1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drop[2]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_id:&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_id:&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞一:神器掉落</t>
+  </si>
+  <si>
+    <t>地煞一:通用掉落</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞二:神器掉落</t>
+  </si>
+  <si>
+    <t>地煞二:通用掉落</t>
+  </si>
+  <si>
+    <t>地煞三:神器掉落</t>
+  </si>
+  <si>
+    <t>地煞三:通用掉落</t>
+  </si>
+  <si>
+    <t>地煞四:神器掉落</t>
+  </si>
+  <si>
+    <t>地煞四:通用掉落</t>
+  </si>
+  <si>
+    <t>地煞五:神器掉落</t>
+  </si>
+  <si>
+    <t>地煞五:通用掉落</t>
+  </si>
+  <si>
+    <t>地煞六:神器掉落</t>
+  </si>
+  <si>
+    <t>地煞六:通用掉落</t>
+  </si>
+  <si>
+    <t>地煞七:神器掉落</t>
+  </si>
+  <si>
+    <t>地煞七:通用掉落</t>
+  </si>
+  <si>
+    <t>地煞八:神器掉落</t>
+  </si>
+  <si>
+    <t>地煞八:通用掉落</t>
+  </si>
+  <si>
+    <t>地煞九:神器掉落</t>
+  </si>
+  <si>
+    <t>地煞九:通用掉落</t>
+  </si>
+  <si>
+    <t>天罡一:神器掉落</t>
+  </si>
+  <si>
+    <t>天罡一:通用掉落</t>
+  </si>
+  <si>
+    <t>天罡二:神器掉落</t>
+  </si>
+  <si>
+    <t>天罡二:通用掉落</t>
+  </si>
+  <si>
+    <t>天罡三:神器掉落</t>
+  </si>
+  <si>
+    <t>天罡三:通用掉落</t>
+  </si>
+  <si>
+    <t>天罡四:神器掉落</t>
+  </si>
+  <si>
+    <t>天罡四:通用掉落</t>
+  </si>
+  <si>
+    <t>天罡五:神器掉落</t>
+  </si>
+  <si>
+    <t>天罡五:通用掉落</t>
+  </si>
+  <si>
+    <t>天罡六:神器掉落</t>
+  </si>
+  <si>
+    <t>天罡六:通用掉落</t>
+  </si>
+  <si>
+    <t>星耀:神器掉落</t>
+  </si>
+  <si>
+    <t>星耀:通用掉落</t>
+  </si>
+  <si>
+    <t>Drop[3]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS专属武器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS章节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wBoss.lua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cha</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelpCol</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助列</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bosses</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cha,HelpCol,Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wBoss_cha.txt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wBoss_mon.txt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS的章节</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS的怪</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级神器1配件1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级神器2配件1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级神器1配件1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级神器2配件1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器1配件1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器1配件1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器2配件1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器3配件1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级神器1配件1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级神器2配件1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>低级专属强化石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e&lt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +2240,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -668,43 +2281,79 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>432</v>
+      </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="F2" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>432</v>
+      </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>439</v>
+      </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>430</v>
+      </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>448</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>431</v>
+      </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>448</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -776,475 +2425,3750 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:N1131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="15.375" customWidth="1"/>
-    <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="60.875" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="21.25" customWidth="1"/>
+    <col min="9" max="9" width="19.125" customWidth="1"/>
+    <col min="10" max="10" width="19.75" customWidth="1"/>
+    <col min="11" max="11" width="19.875" customWidth="1"/>
+    <col min="12" max="12" width="19.75" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="14" max="14" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>462</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>462</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>462</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3000</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="J5" s="2">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3750</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="J6" s="2">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="L6" s="2">
+        <v>4800</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>60</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="J7" s="2">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="L7" s="2">
+        <v>6000</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>70</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="J8" s="2">
+        <v>20</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="N8" s="2">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>80</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="J9" s="2">
+        <v>20</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="L9" s="2">
+        <v>5</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="N9" s="2">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>80</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="J10" s="2">
+        <v>20</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="N10" s="2">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>80</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="J11" s="2">
+        <v>20</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="L11" s="2">
+        <v>5</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="N11" s="2">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>90</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="J12" s="2">
+        <v>20</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="L12" s="2">
+        <v>7</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="N12" s="2">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>100</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="J13" s="2">
+        <v>20</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="L13" s="2">
+        <v>10</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="N13" s="2">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>100</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="J14" s="2">
+        <v>20</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="L14" s="2">
+        <v>10</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="N14" s="2">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>100</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="J15" s="2">
+        <v>20</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="L15" s="2">
+        <v>10</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="N15" s="2">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>110</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="L16" s="2">
+        <v>3</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="N16" s="2">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>120</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J17" s="2">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="L17" s="2">
+        <v>5</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="N17" s="2">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>130</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J18" s="2">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="L18" s="2">
+        <v>7</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="N18" s="2">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2">
+        <v>140</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J19" s="2">
+        <v>5</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="L19" s="2">
+        <v>10</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="N19" s="2">
+        <v>26250</v>
+      </c>
+    </row>
+    <row r="1131" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F1131">
+        <v>20</v>
+      </c>
+      <c r="H1131">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>393</v>
+      </c>
+      <c r="J2" t="s">
+        <v>394</v>
+      </c>
+      <c r="K2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>101</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>102</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>103</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>104</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>105</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>201</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>202</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>203</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>204</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>205</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>301</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>302</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>303</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>304</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>305</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>401</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D22" s="3">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>21</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>22</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+      <c r="B25" s="2">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>23</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+      <c r="B26" s="2">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>24</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>25</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+      <c r="B28" s="2">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>26</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+      <c r="B29" s="2">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>27</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>602</v>
+      </c>
+      <c r="B30" s="2">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>28</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+      <c r="B31" s="2">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>29</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+      <c r="B32" s="2">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>30</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+      <c r="B33" s="2">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D33" s="3">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>31</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>701</v>
+      </c>
+      <c r="B34" s="2">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>32</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>702</v>
+      </c>
+      <c r="B35" s="2">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>33</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>703</v>
+      </c>
+      <c r="B36" s="2">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>34</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>704</v>
+      </c>
+      <c r="B37" s="2">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D37" s="3">
+        <v>4</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>35</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+        <v>705</v>
+      </c>
+      <c r="B38" s="2">
+        <v>7</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D38" s="3">
+        <v>5</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>801</v>
+      </c>
+      <c r="B39" s="2">
+        <v>8</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>802</v>
+      </c>
+      <c r="B40" s="2">
+        <v>8</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>803</v>
+      </c>
+      <c r="B41" s="2">
+        <v>8</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D41" s="3">
+        <v>3</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>804</v>
+      </c>
+      <c r="B42" s="2">
+        <v>8</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D42" s="3">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>805</v>
+      </c>
+      <c r="B43" s="2">
+        <v>8</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D43" s="3">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>901</v>
+      </c>
+      <c r="B44" s="2">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>902</v>
+      </c>
+      <c r="B45" s="2">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>903</v>
+      </c>
+      <c r="B46" s="2">
+        <v>9</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D46" s="3">
+        <v>3</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>904</v>
+      </c>
+      <c r="B47" s="2">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D47" s="3">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>905</v>
+      </c>
+      <c r="B48" s="2">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D48" s="3">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B49" s="2">
+        <v>10</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B50" s="2">
+        <v>10</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B51" s="2">
+        <v>10</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D51" s="3">
+        <v>3</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B52" s="2">
+        <v>10</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D52" s="3">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B53" s="2">
+        <v>10</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D53" s="3">
+        <v>5</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>1101</v>
+      </c>
+      <c r="B54" s="2">
+        <v>11</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>1102</v>
+      </c>
+      <c r="B55" s="2">
+        <v>11</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>1103</v>
+      </c>
+      <c r="B56" s="2">
+        <v>11</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D56" s="3">
+        <v>3</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>1104</v>
+      </c>
+      <c r="B57" s="2">
+        <v>11</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D57" s="3">
+        <v>4</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>1105</v>
+      </c>
+      <c r="B58" s="2">
+        <v>11</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D58" s="3">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>1201</v>
+      </c>
+      <c r="B59" s="2">
+        <v>12</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>1202</v>
+      </c>
+      <c r="B60" s="2">
+        <v>12</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>1203</v>
+      </c>
+      <c r="B61" s="2">
+        <v>12</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D61" s="3">
+        <v>3</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B62" s="2">
+        <v>12</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D62" s="3">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>1205</v>
+      </c>
+      <c r="B63" s="2">
+        <v>12</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D63" s="3">
+        <v>5</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>1301</v>
+      </c>
+      <c r="B64" s="2">
+        <v>13</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>1302</v>
+      </c>
+      <c r="B65" s="2">
+        <v>13</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D65" s="3">
+        <v>2</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>1303</v>
+      </c>
+      <c r="B66" s="2">
+        <v>13</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D66" s="3">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>1304</v>
+      </c>
+      <c r="B67" s="2">
+        <v>13</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D67" s="3">
+        <v>4</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>1305</v>
+      </c>
+      <c r="B68" s="2">
+        <v>13</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D68" s="3">
+        <v>5</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>1401</v>
+      </c>
+      <c r="B69" s="2">
+        <v>14</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>1402</v>
+      </c>
+      <c r="B70" s="2">
+        <v>14</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>1403</v>
+      </c>
+      <c r="B71" s="2">
+        <v>14</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D71" s="3">
+        <v>3</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>1404</v>
+      </c>
+      <c r="B72" s="2">
+        <v>14</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D72" s="3">
+        <v>4</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>1405</v>
+      </c>
+      <c r="B73" s="2">
+        <v>14</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D73" s="3">
+        <v>5</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>1501</v>
+      </c>
+      <c r="B74" s="2">
+        <v>15</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>1502</v>
+      </c>
+      <c r="B75" s="2">
+        <v>15</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D75" s="3">
+        <v>2</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>1503</v>
+      </c>
+      <c r="B76" s="2">
+        <v>15</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D76" s="3">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>1504</v>
+      </c>
+      <c r="B77" s="2">
+        <v>15</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D77" s="3">
+        <v>4</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>1505</v>
+      </c>
+      <c r="B78" s="2">
+        <v>15</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D78" s="3">
+        <v>5</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>1601</v>
+      </c>
+      <c r="B79" s="2">
+        <v>16</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D79" s="3">
+        <v>1</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>1602</v>
+      </c>
+      <c r="B80" s="2">
+        <v>16</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D80" s="3">
+        <v>2</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>1603</v>
+      </c>
+      <c r="B81" s="2">
+        <v>16</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D81" s="3">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>1604</v>
+      </c>
+      <c r="B82" s="2">
+        <v>16</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D82" s="3">
+        <v>4</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>429</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/镇魂街/wBoss.世界BOSS.xlsx
+++ b/Excel/镇魂街/wBoss.世界BOSS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="251">
   <si>
     <t>sheet名</t>
   </si>
@@ -599,690 +599,6 @@
   <si>
     <t>星耀</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>kn-1-1-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-1-1-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-1-1-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-1-2-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-1-2-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-1-2-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-1-3-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-1-3-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-1-3-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-1-5-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-1-5-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-1-5-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-1-6-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-1-6-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-1-6-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-1-8-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-1-8-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-1-8-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-1-9-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-1-9-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-1-9-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-2-1-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-2-1-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-2-1-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-2-2-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-2-2-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-2-2-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-2-3-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-2-3-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-2-3-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-2-4-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-2-4-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-2-4-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-2-5-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-2-5-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-2-5-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-2-6-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-2-6-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-2-6-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-2-7-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-2-7-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-2-7-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-2-8-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-2-8-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-2-8-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-2-9-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-2-9-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-2-9-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-3-1-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-3-1-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-3-1-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-3-2-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-3-2-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-3-2-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-3-3-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-3-3-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-3-3-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-3-4-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-3-4-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-3-4-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-3-5-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-3-5-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-3-5-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-3-6-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-3-6-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-3-6-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-3-7-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-3-7-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-3-7-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-3-8-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-3-8-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-3-8-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-3-9-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-3-9-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-3-9-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-3-10-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-3-10-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-3-10-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-3-11-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-3-11-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-3-11-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-3-12-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-3-12-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-3-12-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-3-13-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-3-13-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-3-13-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-3-14-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-3-14-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-3-14-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-3-15-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-3-15-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-3-15-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-4-1-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-4-1-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-4-1-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-4-2-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-4-2-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-4-2-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-4-3-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-4-3-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-4-3-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-4-4-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-4-4-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-4-4-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-4-5-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-4-5-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-4-5-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-4-6-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-4-6-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-4-6-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-4-7-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-4-7-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-4-7-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-4-8-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-4-8-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-4-8-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-4-9-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-4-9-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-4-9-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-4-10-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-4-10-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-4-10-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-4-11-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-4-11-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-4-11-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-4-12-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-4-12-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-4-12-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-4-13-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-4-13-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-4-13-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-4-14-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-4-14-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-4-14-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-4-15-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-4-15-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-4-15-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-5-1-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-5-1-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-5-1-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-5-2-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-5-2-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-5-2-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-5-3-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-5-3-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-5-3-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-5-4-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-5-4-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-5-4-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-5-5-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-5-5-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-5-5-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-5-6-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-5-6-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-5-6-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-5-7-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-5-7-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-5-7-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-5-8-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-5-8-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-5-8-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-5-9-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-5-9-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-5-9-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-5-10-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-5-10-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-5-10-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-5-11-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-5-11-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-5-11-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-5-12-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-5-12-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-5-12-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-5-13-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-5-13-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-5-13-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-5-14-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-5-14-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-5-14-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-5-15-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-5-15-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-5-15-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-6-1-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-6-1-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-6-1-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-6-2-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-6-2-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-6-2-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-6-3-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-6-3-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-6-3-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-6-4-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-6-4-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-6-4-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-6-5-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-6-5-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-6-5-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-6-6-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-6-6-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-6-6-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-6-7-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-6-7-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-6-7-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-6-8-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-6-8-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-6-8-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-6-9-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-6-9-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-6-9-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-6-10-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-6-10-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-6-10-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-6-11-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-6-11-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-6-11-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-6-12-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-6-12-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-6-12-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-6-13-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-6-13-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-6-13-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-6-14-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-6-14-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-6-14-jlr-loc3</t>
-  </si>
-  <si>
-    <t>kn-6-15-jlr-loc1</t>
-  </si>
-  <si>
-    <t>kn-6-15-jlr-loc2</t>
-  </si>
-  <si>
-    <t>kn-6-15-jlr-loc3</t>
   </si>
   <si>
     <r>
@@ -1731,6 +1047,54 @@
   <si>
     <t>string:e&lt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ds1-loc1-jlr</t>
+  </si>
+  <si>
+    <t>ds2-loc1-jlr</t>
+  </si>
+  <si>
+    <t>ds3-loc1-jlr</t>
+  </si>
+  <si>
+    <t>ds4-loc1-jlr</t>
+  </si>
+  <si>
+    <t>ds5-loc1-jlr</t>
+  </si>
+  <si>
+    <t>ds6-loc1-jlr</t>
+  </si>
+  <si>
+    <t>ds7-loc1-jlr</t>
+  </si>
+  <si>
+    <t>ds8-loc1-jlr</t>
+  </si>
+  <si>
+    <t>ds9-loc1-jlr</t>
+  </si>
+  <si>
+    <t>tg1-loc1-jlr</t>
+  </si>
+  <si>
+    <t>tg2-loc1-jlr</t>
+  </si>
+  <si>
+    <t>tg3-loc1-jlr</t>
+  </si>
+  <si>
+    <t>tg4-loc1-jlr</t>
+  </si>
+  <si>
+    <t>tg5-loc1-jlr</t>
+  </si>
+  <si>
+    <t>tg6-loc1-jlr</t>
+  </si>
+  <si>
+    <t>xy-loc1-jlr</t>
   </si>
 </sst>
 </file>
@@ -2282,18 +1646,18 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>430</v>
+        <v>202</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>432</v>
+        <v>204</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>434</v>
+        <v>206</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>449</v>
+        <v>221</v>
       </c>
       <c r="G2" s="2" t="b">
         <v>1</v>
@@ -2302,18 +1666,18 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>431</v>
+        <v>203</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>432</v>
+        <v>204</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>439</v>
+        <v>211</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
-        <v>450</v>
+        <v>222</v>
       </c>
       <c r="G3" s="2" t="b">
         <v>1</v>
@@ -2322,14 +1686,14 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>430</v>
+        <v>202</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>445</v>
+        <v>217</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>448</v>
+        <v>220</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2"/>
@@ -2340,14 +1704,14 @@
     </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>431</v>
+        <v>203</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>446</v>
+        <v>218</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>448</v>
+        <v>220</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2427,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2449,7 +1813,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>447</v>
+        <v>219</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>20</v>
@@ -2485,18 +1849,18 @@
         <v>47</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>384</v>
+        <v>156</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>385</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>433</v>
+        <v>205</v>
       </c>
       <c r="B2" t="s">
-        <v>443</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -2514,25 +1878,25 @@
         <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>462</v>
+        <v>234</v>
       </c>
       <c r="I2" t="s">
         <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>462</v>
+        <v>234</v>
       </c>
       <c r="K2" t="s">
         <v>39</v>
       </c>
       <c r="L2" t="s">
-        <v>462</v>
+        <v>234</v>
       </c>
       <c r="M2" t="s">
         <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>462</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
@@ -2573,10 +1937,10 @@
         <v>45</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>386</v>
+        <v>158</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>387</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -2593,25 +1957,25 @@
         <v>5</v>
       </c>
       <c r="E4" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>451</v>
+        <v>223</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="J4" s="2">
         <v>5</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>388</v>
+        <v>160</v>
       </c>
       <c r="L4" s="2">
         <v>3000</v>
@@ -2633,25 +1997,25 @@
         <v>5</v>
       </c>
       <c r="E5" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>452</v>
+        <v>224</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="J5" s="2">
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>388</v>
+        <v>160</v>
       </c>
       <c r="L5" s="2">
         <v>3750</v>
@@ -2673,25 +2037,25 @@
         <v>5</v>
       </c>
       <c r="E6" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>453</v>
+        <v>225</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="J6" s="2">
         <v>15</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>388</v>
+        <v>160</v>
       </c>
       <c r="L6" s="2">
         <v>4800</v>
@@ -2713,25 +2077,25 @@
         <v>5</v>
       </c>
       <c r="E7" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>454</v>
+        <v>226</v>
       </c>
       <c r="H7" s="2">
         <v>2</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="J7" s="2">
         <v>20</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>388</v>
+        <v>160</v>
       </c>
       <c r="L7" s="2">
         <v>6000</v>
@@ -2753,31 +2117,31 @@
         <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>455</v>
+        <v>227</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="J8" s="2">
         <v>20</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>382</v>
+        <v>154</v>
       </c>
       <c r="L8" s="2">
         <v>3</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>388</v>
+        <v>160</v>
       </c>
       <c r="N8" s="2">
         <v>7500</v>
@@ -2797,31 +2161,31 @@
         <v>5</v>
       </c>
       <c r="E9" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>456</v>
+        <v>228</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>373</v>
+        <v>145</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="J9" s="2">
         <v>20</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>382</v>
+        <v>154</v>
       </c>
       <c r="L9" s="2">
         <v>5</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>388</v>
+        <v>160</v>
       </c>
       <c r="N9" s="2">
         <v>9000</v>
@@ -2841,31 +2205,31 @@
         <v>5</v>
       </c>
       <c r="E10" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>457</v>
+        <v>229</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>373</v>
+        <v>145</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="J10" s="2">
         <v>20</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>382</v>
+        <v>154</v>
       </c>
       <c r="L10" s="2">
         <v>5</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>388</v>
+        <v>160</v>
       </c>
       <c r="N10" s="2">
         <v>9000</v>
@@ -2885,31 +2249,31 @@
         <v>5</v>
       </c>
       <c r="E11" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>458</v>
+        <v>230</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>373</v>
+        <v>145</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="J11" s="2">
         <v>20</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>382</v>
+        <v>154</v>
       </c>
       <c r="L11" s="2">
         <v>5</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>388</v>
+        <v>160</v>
       </c>
       <c r="N11" s="2">
         <v>9000</v>
@@ -2929,31 +2293,31 @@
         <v>5</v>
       </c>
       <c r="E12" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>455</v>
+        <v>227</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>374</v>
+        <v>146</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="J12" s="2">
         <v>20</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>382</v>
+        <v>154</v>
       </c>
       <c r="L12" s="2">
         <v>7</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>388</v>
+        <v>160</v>
       </c>
       <c r="N12" s="2">
         <v>10800</v>
@@ -2979,25 +2343,25 @@
         <v>13</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>459</v>
+        <v>231</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>375</v>
+        <v>147</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="J13" s="2">
         <v>20</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>382</v>
+        <v>154</v>
       </c>
       <c r="L13" s="2">
         <v>10</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>388</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2">
         <v>13500</v>
@@ -3023,25 +2387,25 @@
         <v>13</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>460</v>
+        <v>232</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>375</v>
+        <v>147</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="J14" s="2">
         <v>20</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>382</v>
+        <v>154</v>
       </c>
       <c r="L14" s="2">
         <v>10</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>388</v>
+        <v>160</v>
       </c>
       <c r="N14" s="2">
         <v>13500</v>
@@ -3067,25 +2431,25 @@
         <v>13</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>456</v>
+        <v>228</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>376</v>
+        <v>148</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="J15" s="2">
         <v>20</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>382</v>
+        <v>154</v>
       </c>
       <c r="L15" s="2">
         <v>10</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>388</v>
+        <v>160</v>
       </c>
       <c r="N15" s="2">
         <v>13500</v>
@@ -3111,25 +2475,25 @@
         <v>13</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>457</v>
+        <v>229</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>377</v>
+        <v>149</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>381</v>
+        <v>153</v>
       </c>
       <c r="J16" s="2">
         <v>5</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>383</v>
+        <v>155</v>
       </c>
       <c r="L16" s="2">
         <v>3</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>388</v>
+        <v>160</v>
       </c>
       <c r="N16" s="2">
         <v>16500</v>
@@ -3155,25 +2519,25 @@
         <v>13</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>458</v>
+        <v>230</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>378</v>
+        <v>150</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>381</v>
+        <v>153</v>
       </c>
       <c r="J17" s="2">
         <v>5</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>383</v>
+        <v>155</v>
       </c>
       <c r="L17" s="2">
         <v>5</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>388</v>
+        <v>160</v>
       </c>
       <c r="N17" s="2">
         <v>19500</v>
@@ -3199,25 +2563,25 @@
         <v>13</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>458</v>
+        <v>230</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>379</v>
+        <v>151</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>381</v>
+        <v>153</v>
       </c>
       <c r="J18" s="2">
         <v>5</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>383</v>
+        <v>155</v>
       </c>
       <c r="L18" s="2">
         <v>7</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>388</v>
+        <v>160</v>
       </c>
       <c r="N18" s="2">
         <v>22500</v>
@@ -3243,25 +2607,25 @@
         <v>13</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>458</v>
+        <v>230</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>380</v>
+        <v>152</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>381</v>
+        <v>153</v>
       </c>
       <c r="J19" s="2">
         <v>5</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>383</v>
+        <v>155</v>
       </c>
       <c r="L19" s="2">
         <v>10</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>388</v>
+        <v>160</v>
       </c>
       <c r="N19" s="2">
         <v>26250</v>
@@ -3286,8 +2650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3308,10 +2672,10 @@
         <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>435</v>
+        <v>207</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>440</v>
+        <v>212</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>22</v>
@@ -3326,27 +2690,27 @@
         <v>25</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>389</v>
+        <v>161</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>390</v>
+        <v>162</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>427</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>444</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
-        <v>436</v>
+        <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>441</v>
+        <v>213</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
@@ -3361,13 +2725,13 @@
         <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>393</v>
+        <v>165</v>
       </c>
       <c r="J2" t="s">
-        <v>394</v>
+        <v>166</v>
       </c>
       <c r="K2" t="s">
-        <v>394</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -3378,10 +2742,10 @@
         <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>437</v>
+        <v>209</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>442</v>
+        <v>214</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>36</v>
@@ -3396,13 +2760,13 @@
         <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>391</v>
+        <v>163</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>392</v>
+        <v>164</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>428</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3413,7 +2777,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -3422,22 +2786,22 @@
         <v>48</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>145</v>
+        <v>235</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>146</v>
+        <v>235</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>147</v>
+        <v>235</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>395</v>
+        <v>167</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>396</v>
+        <v>168</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3448,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
@@ -3457,22 +2821,22 @@
         <v>49</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>148</v>
+        <v>235</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>149</v>
+        <v>235</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>395</v>
+        <v>167</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>396</v>
+        <v>168</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3483,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
@@ -3492,22 +2856,22 @@
         <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>152</v>
+        <v>235</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>395</v>
+        <v>167</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>396</v>
+        <v>168</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3518,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D7" s="3">
         <v>4</v>
@@ -3527,22 +2891,22 @@
         <v>51</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>154</v>
+        <v>235</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>156</v>
+        <v>235</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>395</v>
+        <v>167</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>396</v>
+        <v>168</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3553,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D8" s="3">
         <v>5</v>
@@ -3562,22 +2926,22 @@
         <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>158</v>
+        <v>235</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>395</v>
+        <v>167</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>396</v>
+        <v>168</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3588,7 +2952,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -3597,22 +2961,22 @@
         <v>53</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>397</v>
+        <v>169</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>398</v>
+        <v>170</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3623,7 +2987,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D10" s="3">
         <v>2</v>
@@ -3632,22 +2996,22 @@
         <v>54</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>397</v>
+        <v>169</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>398</v>
+        <v>170</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3658,7 +3022,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D11" s="3">
         <v>3</v>
@@ -3667,22 +3031,22 @@
         <v>55</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>166</v>
+        <v>236</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>397</v>
+        <v>169</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>398</v>
+        <v>170</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3693,7 +3057,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
@@ -3702,22 +3066,22 @@
         <v>56</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="J12" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="K12" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3728,7 +3092,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D13" s="3">
         <v>5</v>
@@ -3737,22 +3101,22 @@
         <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>397</v>
+        <v>169</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>398</v>
+        <v>170</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3763,7 +3127,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -3772,22 +3136,22 @@
         <v>58</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>176</v>
+        <v>237</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>399</v>
+        <v>171</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3798,7 +3162,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -3807,22 +3171,22 @@
         <v>59</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>399</v>
+        <v>171</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3833,7 +3197,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
@@ -3842,22 +3206,22 @@
         <v>60</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>181</v>
+        <v>237</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>399</v>
+        <v>171</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3868,7 +3232,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
@@ -3877,22 +3241,22 @@
         <v>61</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>399</v>
+        <v>171</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3903,7 +3267,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
@@ -3912,22 +3276,22 @@
         <v>62</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>399</v>
+        <v>171</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3938,7 +3302,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -3947,22 +3311,22 @@
         <v>63</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>401</v>
+        <v>173</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3973,7 +3337,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D20" s="3">
         <v>2</v>
@@ -3982,22 +3346,22 @@
         <v>64</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>401</v>
+        <v>173</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4008,7 +3372,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D21" s="3">
         <v>3</v>
@@ -4017,22 +3381,22 @@
         <v>65</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>401</v>
+        <v>173</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4043,7 +3407,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D22" s="3">
         <v>4</v>
@@ -4052,22 +3416,22 @@
         <v>66</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>401</v>
+        <v>173</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4078,7 +3442,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D23" s="3">
         <v>5</v>
@@ -4087,22 +3451,22 @@
         <v>67</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>401</v>
+        <v>173</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4113,7 +3477,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -4122,22 +3486,22 @@
         <v>68</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>403</v>
+        <v>175</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>404</v>
+        <v>176</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4148,7 +3512,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
@@ -4157,22 +3521,22 @@
         <v>69</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>403</v>
+        <v>175</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>404</v>
+        <v>176</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4183,7 +3547,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D26" s="3">
         <v>3</v>
@@ -4192,22 +3556,22 @@
         <v>70</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>403</v>
+        <v>175</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>404</v>
+        <v>176</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4218,7 +3582,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D27" s="3">
         <v>4</v>
@@ -4227,22 +3591,22 @@
         <v>71</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>403</v>
+        <v>175</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>404</v>
+        <v>176</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4253,7 +3617,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D28" s="3">
         <v>5</v>
@@ -4262,22 +3626,22 @@
         <v>72</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>403</v>
+        <v>175</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>404</v>
+        <v>176</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4288,7 +3652,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -4297,22 +3661,22 @@
         <v>73</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>405</v>
+        <v>177</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>406</v>
+        <v>178</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4323,7 +3687,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D30" s="3">
         <v>2</v>
@@ -4332,22 +3696,22 @@
         <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>405</v>
+        <v>177</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>406</v>
+        <v>178</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4358,7 +3722,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D31" s="3">
         <v>3</v>
@@ -4367,22 +3731,22 @@
         <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>405</v>
+        <v>177</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>406</v>
+        <v>178</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4393,7 +3757,7 @@
         <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D32" s="3">
         <v>4</v>
@@ -4402,22 +3766,22 @@
         <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>405</v>
+        <v>177</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>406</v>
+        <v>178</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4428,7 +3792,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D33" s="3">
         <v>5</v>
@@ -4437,22 +3801,22 @@
         <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>405</v>
+        <v>177</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>406</v>
+        <v>178</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4463,7 +3827,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -4472,22 +3836,22 @@
         <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>407</v>
+        <v>179</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>408</v>
+        <v>180</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4498,7 +3862,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D35" s="3">
         <v>2</v>
@@ -4507,22 +3871,22 @@
         <v>79</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>407</v>
+        <v>179</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>408</v>
+        <v>180</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4533,7 +3897,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D36" s="3">
         <v>3</v>
@@ -4545,19 +3909,19 @@
         <v>241</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>407</v>
+        <v>179</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>408</v>
+        <v>180</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4568,7 +3932,7 @@
         <v>7</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D37" s="3">
         <v>4</v>
@@ -4577,22 +3941,22 @@
         <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>407</v>
+        <v>179</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>408</v>
+        <v>180</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4603,7 +3967,7 @@
         <v>7</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D38" s="3">
         <v>5</v>
@@ -4612,22 +3976,22 @@
         <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>407</v>
+        <v>179</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>408</v>
+        <v>180</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4638,7 +4002,7 @@
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -4647,22 +4011,22 @@
         <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>409</v>
+        <v>181</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>410</v>
+        <v>182</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4673,7 +4037,7 @@
         <v>8</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D40" s="3">
         <v>2</v>
@@ -4682,22 +4046,22 @@
         <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>409</v>
+        <v>181</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>410</v>
+        <v>182</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4708,7 +4072,7 @@
         <v>8</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D41" s="3">
         <v>3</v>
@@ -4717,22 +4081,22 @@
         <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>409</v>
+        <v>181</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>410</v>
+        <v>182</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4743,7 +4107,7 @@
         <v>8</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D42" s="3">
         <v>4</v>
@@ -4752,22 +4116,22 @@
         <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>409</v>
+        <v>181</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>410</v>
+        <v>182</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4778,7 +4142,7 @@
         <v>8</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D43" s="3">
         <v>5</v>
@@ -4787,22 +4151,22 @@
         <v>87</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>409</v>
+        <v>181</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>410</v>
+        <v>182</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4813,7 +4177,7 @@
         <v>9</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
@@ -4822,22 +4186,22 @@
         <v>88</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>411</v>
+        <v>183</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>412</v>
+        <v>184</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4848,7 +4212,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D45" s="3">
         <v>2</v>
@@ -4857,22 +4221,22 @@
         <v>89</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>411</v>
+        <v>183</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>412</v>
+        <v>184</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4883,7 +4247,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D46" s="3">
         <v>3</v>
@@ -4892,22 +4256,22 @@
         <v>90</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>411</v>
+        <v>183</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>412</v>
+        <v>184</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4918,7 +4282,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D47" s="3">
         <v>4</v>
@@ -4927,22 +4291,22 @@
         <v>91</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>411</v>
+        <v>183</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>412</v>
+        <v>184</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4953,7 +4317,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D48" s="3">
         <v>5</v>
@@ -4962,22 +4326,22 @@
         <v>92</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>411</v>
+        <v>183</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>412</v>
+        <v>184</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4988,7 +4352,7 @@
         <v>10</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
@@ -4997,22 +4361,22 @@
         <v>93</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>413</v>
+        <v>185</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>414</v>
+        <v>186</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5023,7 +4387,7 @@
         <v>10</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D50" s="3">
         <v>2</v>
@@ -5032,22 +4396,22 @@
         <v>94</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>413</v>
+        <v>185</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>414</v>
+        <v>186</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5058,7 +4422,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D51" s="3">
         <v>3</v>
@@ -5067,22 +4431,22 @@
         <v>95</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>413</v>
+        <v>185</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>414</v>
+        <v>186</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5093,7 +4457,7 @@
         <v>10</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D52" s="3">
         <v>4</v>
@@ -5102,22 +4466,22 @@
         <v>96</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>413</v>
+        <v>185</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>414</v>
+        <v>186</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5128,7 +4492,7 @@
         <v>10</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D53" s="3">
         <v>5</v>
@@ -5137,22 +4501,22 @@
         <v>97</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>413</v>
+        <v>185</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>414</v>
+        <v>186</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5163,7 +4527,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D54" s="3">
         <v>1</v>
@@ -5172,22 +4536,22 @@
         <v>98</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>297</v>
+        <v>245</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>415</v>
+        <v>187</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>416</v>
+        <v>188</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5198,7 +4562,7 @@
         <v>11</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D55" s="3">
         <v>2</v>
@@ -5207,22 +4571,22 @@
         <v>99</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>298</v>
+        <v>245</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>415</v>
+        <v>187</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>416</v>
+        <v>188</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5233,7 +4597,7 @@
         <v>11</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D56" s="3">
         <v>3</v>
@@ -5242,22 +4606,22 @@
         <v>100</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>301</v>
+        <v>245</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>415</v>
+        <v>187</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>416</v>
+        <v>188</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5268,7 +4632,7 @@
         <v>11</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D57" s="3">
         <v>4</v>
@@ -5277,22 +4641,22 @@
         <v>101</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>305</v>
+        <v>245</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>306</v>
+        <v>245</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>415</v>
+        <v>187</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>416</v>
+        <v>188</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5303,7 +4667,7 @@
         <v>11</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D58" s="3">
         <v>5</v>
@@ -5312,22 +4676,22 @@
         <v>102</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>307</v>
+        <v>245</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>308</v>
+        <v>245</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>309</v>
+        <v>245</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>415</v>
+        <v>187</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>416</v>
+        <v>188</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5338,7 +4702,7 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D59" s="3">
         <v>1</v>
@@ -5347,22 +4711,22 @@
         <v>103</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>310</v>
+        <v>246</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>311</v>
+        <v>246</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>417</v>
+        <v>189</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>418</v>
+        <v>190</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5373,7 +4737,7 @@
         <v>12</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D60" s="3">
         <v>2</v>
@@ -5382,22 +4746,22 @@
         <v>104</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>313</v>
+        <v>246</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>315</v>
+        <v>246</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>417</v>
+        <v>189</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>418</v>
+        <v>190</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5408,7 +4772,7 @@
         <v>12</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D61" s="3">
         <v>3</v>
@@ -5417,22 +4781,22 @@
         <v>105</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>316</v>
+        <v>246</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>317</v>
+        <v>246</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>417</v>
+        <v>189</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>418</v>
+        <v>190</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5443,7 +4807,7 @@
         <v>12</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D62" s="3">
         <v>4</v>
@@ -5452,22 +4816,22 @@
         <v>106</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>319</v>
+        <v>246</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>320</v>
+        <v>246</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>321</v>
+        <v>246</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>417</v>
+        <v>189</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>418</v>
+        <v>190</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5478,7 +4842,7 @@
         <v>12</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D63" s="3">
         <v>5</v>
@@ -5487,22 +4851,22 @@
         <v>107</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>322</v>
+        <v>246</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>323</v>
+        <v>246</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>324</v>
+        <v>246</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>417</v>
+        <v>189</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>418</v>
+        <v>190</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5513,7 +4877,7 @@
         <v>13</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
@@ -5522,22 +4886,22 @@
         <v>108</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>325</v>
+        <v>247</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>326</v>
+        <v>247</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>327</v>
+        <v>247</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>419</v>
+        <v>191</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>420</v>
+        <v>192</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5548,7 +4912,7 @@
         <v>13</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D65" s="3">
         <v>2</v>
@@ -5557,22 +4921,22 @@
         <v>109</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>328</v>
+        <v>247</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>329</v>
+        <v>247</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>330</v>
+        <v>247</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>419</v>
+        <v>191</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>420</v>
+        <v>192</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5583,7 +4947,7 @@
         <v>13</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D66" s="3">
         <v>3</v>
@@ -5592,22 +4956,22 @@
         <v>110</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>331</v>
+        <v>247</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>332</v>
+        <v>247</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>333</v>
+        <v>247</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>419</v>
+        <v>191</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>420</v>
+        <v>192</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5618,7 +4982,7 @@
         <v>13</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D67" s="3">
         <v>4</v>
@@ -5627,22 +4991,22 @@
         <v>111</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>334</v>
+        <v>247</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>336</v>
+        <v>247</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>419</v>
+        <v>191</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>420</v>
+        <v>192</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5653,7 +5017,7 @@
         <v>13</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D68" s="3">
         <v>5</v>
@@ -5662,22 +5026,22 @@
         <v>112</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>337</v>
+        <v>247</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>338</v>
+        <v>247</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>339</v>
+        <v>247</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>419</v>
+        <v>191</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>420</v>
+        <v>192</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5688,7 +5052,7 @@
         <v>14</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D69" s="3">
         <v>1</v>
@@ -5697,22 +5061,22 @@
         <v>113</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>340</v>
+        <v>248</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>341</v>
+        <v>248</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>342</v>
+        <v>248</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>421</v>
+        <v>193</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>422</v>
+        <v>194</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5723,7 +5087,7 @@
         <v>14</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D70" s="3">
         <v>2</v>
@@ -5732,22 +5096,22 @@
         <v>114</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>343</v>
+        <v>248</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>344</v>
+        <v>248</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>345</v>
+        <v>248</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>421</v>
+        <v>193</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>422</v>
+        <v>194</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5758,7 +5122,7 @@
         <v>14</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D71" s="3">
         <v>3</v>
@@ -5767,22 +5131,22 @@
         <v>115</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>346</v>
+        <v>248</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>421</v>
+        <v>193</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>422</v>
+        <v>194</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5793,7 +5157,7 @@
         <v>14</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D72" s="3">
         <v>4</v>
@@ -5802,22 +5166,22 @@
         <v>116</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>349</v>
+        <v>248</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>350</v>
+        <v>248</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>351</v>
+        <v>248</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>421</v>
+        <v>193</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>422</v>
+        <v>194</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5828,7 +5192,7 @@
         <v>14</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D73" s="3">
         <v>5</v>
@@ -5837,22 +5201,22 @@
         <v>117</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>352</v>
+        <v>248</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>353</v>
+        <v>248</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>354</v>
+        <v>248</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>421</v>
+        <v>193</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>422</v>
+        <v>194</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5863,7 +5227,7 @@
         <v>15</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D74" s="3">
         <v>1</v>
@@ -5872,22 +5236,22 @@
         <v>118</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>355</v>
+        <v>249</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>356</v>
+        <v>249</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>357</v>
+        <v>249</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>423</v>
+        <v>195</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>424</v>
+        <v>196</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5898,7 +5262,7 @@
         <v>15</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D75" s="3">
         <v>2</v>
@@ -5907,22 +5271,22 @@
         <v>119</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>358</v>
+        <v>249</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>359</v>
+        <v>249</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>360</v>
+        <v>249</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>423</v>
+        <v>195</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>424</v>
+        <v>196</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5933,7 +5297,7 @@
         <v>15</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D76" s="3">
         <v>3</v>
@@ -5942,22 +5306,22 @@
         <v>120</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>361</v>
+        <v>249</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>362</v>
+        <v>249</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>363</v>
+        <v>249</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>423</v>
+        <v>195</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>424</v>
+        <v>196</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -5968,7 +5332,7 @@
         <v>15</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D77" s="3">
         <v>4</v>
@@ -5977,22 +5341,22 @@
         <v>121</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>364</v>
+        <v>249</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>365</v>
+        <v>249</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>366</v>
+        <v>249</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>423</v>
+        <v>195</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>424</v>
+        <v>196</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -6003,7 +5367,7 @@
         <v>15</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D78" s="3">
         <v>5</v>
@@ -6012,22 +5376,22 @@
         <v>122</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>367</v>
+        <v>249</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>368</v>
+        <v>249</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>369</v>
+        <v>249</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>423</v>
+        <v>195</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>424</v>
+        <v>196</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -6038,7 +5402,7 @@
         <v>16</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D79" s="3">
         <v>1</v>
@@ -6047,22 +5411,22 @@
         <v>123</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>371</v>
+        <v>250</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>372</v>
+        <v>250</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>425</v>
+        <v>197</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>426</v>
+        <v>198</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -6073,7 +5437,7 @@
         <v>16</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D80" s="3">
         <v>2</v>
@@ -6082,22 +5446,22 @@
         <v>124</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>371</v>
+        <v>250</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>372</v>
+        <v>250</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>425</v>
+        <v>197</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>426</v>
+        <v>198</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -6108,7 +5472,7 @@
         <v>16</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D81" s="3">
         <v>3</v>
@@ -6117,22 +5481,22 @@
         <v>125</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>371</v>
+        <v>250</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>372</v>
+        <v>250</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>425</v>
+        <v>197</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>426</v>
+        <v>198</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -6143,7 +5507,7 @@
         <v>16</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="D82" s="3">
         <v>4</v>
@@ -6152,22 +5516,22 @@
         <v>126</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>371</v>
+        <v>250</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>372</v>
+        <v>250</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>425</v>
+        <v>197</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>426</v>
+        <v>198</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>429</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/wBoss.世界BOSS.xlsx
+++ b/Excel/镇魂街/wBoss.世界BOSS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1791,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2650,7 +2650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/Excel/镇魂街/wBoss.世界BOSS.xlsx
+++ b/Excel/镇魂街/wBoss.世界BOSS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1791,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2650,7 +2650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/Excel/镇魂街/wBoss.世界BOSS.xlsx
+++ b/Excel/镇魂街/wBoss.世界BOSS.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="265">
   <si>
     <t>sheet名</t>
   </si>
@@ -145,22 +145,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DropShow[1].id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropShow[2].id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropShow[3].id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropShow[1].desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>string:&lt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -202,14 +186,6 @@
   </si>
   <si>
     <t>掉落展示3描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropShow[2].desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropShow[3].desc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -741,14 +717,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DropShow[4].id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropShow[4].desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>掉落展示4ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -929,10 +897,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Cha,HelpCol,Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Loc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -942,14 +906,6 @@
   </si>
   <si>
     <t>位置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1095,6 +1051,104 @@
   </si>
   <si>
     <t>xy-loc1-jlr</t>
+  </si>
+  <si>
+    <t>Cha,HelpCol,Loc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[1].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[1].Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[2].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[2].Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[3].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[3].Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[4].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[4].Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项羽技能</t>
+  </si>
+  <si>
+    <t>KeySkill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_id:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardface_lftl_1102021</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>res:&lt;||Art\UI\DynamicTex\#png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_gjj2_1201005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_shx_1102019</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_dw_1102003</t>
+  </si>
+  <si>
+    <t>head_xzz_1201010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1604,7 +1658,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1646,18 +1700,18 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="G2" s="2" t="b">
         <v>1</v>
@@ -1666,18 +1720,18 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G3" s="2" t="b">
         <v>1</v>
@@ -1686,14 +1740,14 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2"/>
@@ -1704,14 +1758,14 @@
     </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1792,7 +1846,7 @@
   <dimension ref="A1:N1131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1813,13 +1867,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>8</v>
@@ -1831,39 +1885,39 @@
         <v>15</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>34</v>
+        <v>242</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>32</v>
+        <v>243</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>46</v>
+        <v>244</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>33</v>
+        <v>245</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>47</v>
+        <v>246</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>156</v>
+        <v>247</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1875,28 +1929,28 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
@@ -1907,7 +1961,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -1919,28 +1973,28 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -1951,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
@@ -1963,19 +2017,19 @@
         <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="J4" s="2">
         <v>5</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="L4" s="2">
         <v>3000</v>
@@ -1991,7 +2045,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
@@ -2003,19 +2057,19 @@
         <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="J5" s="2">
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="L5" s="2">
         <v>3750</v>
@@ -2031,7 +2085,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -2043,19 +2097,19 @@
         <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="J6" s="2">
         <v>15</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="L6" s="2">
         <v>4800</v>
@@ -2071,7 +2125,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
@@ -2083,19 +2137,19 @@
         <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="H7" s="2">
         <v>2</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="J7" s="2">
         <v>20</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="L7" s="2">
         <v>6000</v>
@@ -2111,7 +2165,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
@@ -2123,25 +2177,25 @@
         <v>13</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="J8" s="2">
         <v>20</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L8" s="2">
         <v>3</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N8" s="2">
         <v>7500</v>
@@ -2155,7 +2209,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
@@ -2167,25 +2221,25 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="J9" s="2">
         <v>20</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L9" s="2">
         <v>5</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N9" s="2">
         <v>9000</v>
@@ -2199,7 +2253,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2">
         <v>5</v>
@@ -2211,25 +2265,25 @@
         <v>13</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="J10" s="2">
         <v>20</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L10" s="2">
         <v>5</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N10" s="2">
         <v>9000</v>
@@ -2243,7 +2297,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
@@ -2255,25 +2309,25 @@
         <v>13</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="J11" s="2">
         <v>20</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L11" s="2">
         <v>5</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N11" s="2">
         <v>9000</v>
@@ -2287,7 +2341,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D12" s="2">
         <v>5</v>
@@ -2299,25 +2353,25 @@
         <v>13</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="J12" s="2">
         <v>20</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L12" s="2">
         <v>7</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N12" s="2">
         <v>10800</v>
@@ -2331,7 +2385,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D13" s="2">
         <v>5</v>
@@ -2343,25 +2397,25 @@
         <v>13</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="J13" s="2">
         <v>20</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L13" s="2">
         <v>10</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N13" s="2">
         <v>13500</v>
@@ -2375,7 +2429,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D14" s="2">
         <v>5</v>
@@ -2387,25 +2441,25 @@
         <v>13</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="J14" s="2">
         <v>20</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L14" s="2">
         <v>10</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N14" s="2">
         <v>13500</v>
@@ -2419,7 +2473,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D15" s="2">
         <v>5</v>
@@ -2431,25 +2485,25 @@
         <v>13</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="J15" s="2">
         <v>20</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L15" s="2">
         <v>10</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N15" s="2">
         <v>13500</v>
@@ -2463,7 +2517,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D16" s="2">
         <v>5</v>
@@ -2475,25 +2529,25 @@
         <v>13</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J16" s="2">
         <v>5</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L16" s="2">
         <v>3</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N16" s="2">
         <v>16500</v>
@@ -2507,7 +2561,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D17" s="2">
         <v>5</v>
@@ -2519,25 +2573,25 @@
         <v>13</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J17" s="2">
         <v>5</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L17" s="2">
         <v>5</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N17" s="2">
         <v>19500</v>
@@ -2551,7 +2605,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D18" s="2">
         <v>5</v>
@@ -2563,25 +2617,25 @@
         <v>13</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J18" s="2">
         <v>5</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L18" s="2">
         <v>7</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N18" s="2">
         <v>22500</v>
@@ -2595,7 +2649,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D19" s="2">
         <v>4</v>
@@ -2607,25 +2661,25 @@
         <v>13</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J19" s="2">
         <v>5</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L19" s="2">
         <v>10</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N19" s="2">
         <v>26250</v>
@@ -2648,23 +2702,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="7" width="16.625" customWidth="1"/>
-    <col min="8" max="8" width="15.875" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="18.125" customWidth="1"/>
+    <col min="2" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="10" width="16.625" customWidth="1"/>
+    <col min="11" max="11" width="15.875" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -2672,104 +2730,131 @@
         <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M2" t="s">
+        <v>158</v>
+      </c>
+      <c r="N2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J2" t="s">
-        <v>166</v>
-      </c>
-      <c r="K2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>257</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>101</v>
       </c>
@@ -2777,34 +2862,44 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>235</v>
+        <v>258</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f>F4&amp;"的那些小故事"</f>
+        <v>地狗星的那些小故事</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>102</v>
       </c>
@@ -2812,34 +2907,44 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>235</v>
+        <v>260</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" ref="G5:G68" si="0">F5&amp;"的那些小故事"</f>
+        <v>地劣星的那些小故事</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>103</v>
       </c>
@@ -2847,34 +2952,44 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>235</v>
+        <v>261</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地奴星的那些小故事</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>104</v>
       </c>
@@ -2882,34 +2997,44 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D7" s="3">
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>235</v>
+        <v>262</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地损星的那些小故事</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>105</v>
       </c>
@@ -2917,34 +3042,44 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D8" s="3">
         <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>235</v>
+        <v>263</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地贼星的那些小故事</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>201</v>
       </c>
@@ -2952,34 +3087,44 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地短星的那些小故事</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>202</v>
       </c>
@@ -2987,34 +3132,44 @@
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D10" s="3">
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地囚星的那些小故事</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>203</v>
       </c>
@@ -3022,34 +3177,44 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D11" s="3">
         <v>3</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地微星的那些小故事</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>204</v>
       </c>
@@ -3057,34 +3222,44 @@
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地退星的那些小故事</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>205</v>
       </c>
@@ -3092,34 +3267,44 @@
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D13" s="3">
         <v>5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地猖星的那些小故事</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>301</v>
       </c>
@@ -3127,34 +3312,44 @@
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地僻星的那些小故事</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>302</v>
       </c>
@@ -3162,34 +3357,44 @@
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地空星的那些小故事</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>303</v>
       </c>
@@ -3197,34 +3402,44 @@
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地恶星的那些小故事</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>304</v>
       </c>
@@ -3232,34 +3447,44 @@
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地走星的那些小故事</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>305</v>
       </c>
@@ -3267,34 +3492,44 @@
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地伏星的那些小故事</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>401</v>
       </c>
@@ -3302,34 +3537,44 @@
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地孤星的那些小故事</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>402</v>
       </c>
@@ -3337,34 +3582,44 @@
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D20" s="3">
         <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地刑星的那些小故事</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>403</v>
       </c>
@@ -3372,34 +3627,44 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D21" s="3">
         <v>3</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地妖星的那些小故事</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>404</v>
       </c>
@@ -3407,34 +3672,44 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D22" s="3">
         <v>4</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地角星的那些小故事</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>405</v>
       </c>
@@ -3442,34 +3717,44 @@
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D23" s="3">
         <v>5</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地兽星的那些小故事</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>501</v>
       </c>
@@ -3477,34 +3762,44 @@
         <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地异星的那些小故事</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>502</v>
       </c>
@@ -3512,34 +3807,44 @@
         <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地暗星的那些小故事</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>503</v>
       </c>
@@ -3547,34 +3852,44 @@
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D26" s="3">
         <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地隧星的那些小故事</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>504</v>
       </c>
@@ -3582,34 +3897,44 @@
         <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D27" s="3">
         <v>4</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地戚星的那些小故事</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>505</v>
       </c>
@@ -3617,34 +3942,44 @@
         <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D28" s="3">
         <v>5</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地默星的那些小故事</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>601</v>
       </c>
@@ -3652,34 +3987,44 @@
         <v>6</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地文星的那些小故事</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>602</v>
       </c>
@@ -3687,34 +4032,44 @@
         <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D30" s="3">
         <v>2</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地巧星的那些小故事</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>603</v>
       </c>
@@ -3722,34 +4077,44 @@
         <v>6</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D31" s="3">
         <v>3</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地健星的那些小故事</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>604</v>
       </c>
@@ -3757,34 +4122,44 @@
         <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D32" s="3">
         <v>4</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地壮星的那些小故事</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>605</v>
       </c>
@@ -3792,34 +4167,44 @@
         <v>6</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D33" s="3">
         <v>5</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地飞星的那些小故事</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>701</v>
       </c>
@@ -3827,34 +4212,44 @@
         <v>7</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地阴星的那些小故事</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>702</v>
       </c>
@@ -3862,34 +4257,44 @@
         <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D35" s="3">
         <v>2</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地幽星的那些小故事</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>703</v>
       </c>
@@ -3897,34 +4302,44 @@
         <v>7</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D36" s="3">
         <v>3</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地羁星的那些小故事</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>704</v>
       </c>
@@ -3932,34 +4347,44 @@
         <v>7</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D37" s="3">
         <v>4</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地魂星的那些小故事</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>705</v>
       </c>
@@ -3967,34 +4392,44 @@
         <v>7</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D38" s="3">
         <v>5</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地魔星的那些小故事</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>801</v>
       </c>
@@ -4002,34 +4437,44 @@
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地猛星的那些小故事</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>802</v>
       </c>
@@ -4037,34 +4482,44 @@
         <v>8</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D40" s="3">
         <v>2</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地俊星的那些小故事</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>803</v>
       </c>
@@ -4072,34 +4527,44 @@
         <v>8</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D41" s="3">
         <v>3</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地勇星的那些小故事</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>804</v>
       </c>
@@ -4107,34 +4572,44 @@
         <v>8</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D42" s="3">
         <v>4</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地全星的那些小故事</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>805</v>
       </c>
@@ -4142,34 +4617,44 @@
         <v>8</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D43" s="3">
         <v>5</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地正星的那些小故事</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>901</v>
       </c>
@@ -4177,34 +4662,44 @@
         <v>9</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地魁星的那些小故事</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>902</v>
       </c>
@@ -4212,34 +4707,44 @@
         <v>9</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D45" s="3">
         <v>2</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地杰星的那些小故事</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>903</v>
       </c>
@@ -4247,34 +4752,44 @@
         <v>9</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D46" s="3">
         <v>3</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地雄星的那些小故事</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>904</v>
       </c>
@@ -4282,34 +4797,44 @@
         <v>9</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D47" s="3">
         <v>4</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地英星的那些小故事</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>905</v>
       </c>
@@ -4317,34 +4842,44 @@
         <v>9</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D48" s="3">
         <v>5</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>地威星的那些小故事</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>1001</v>
       </c>
@@ -4352,34 +4887,44 @@
         <v>10</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>天巧星的那些小故事</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>1002</v>
       </c>
@@ -4387,34 +4932,44 @@
         <v>10</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D50" s="3">
         <v>2</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>天暴星的那些小故事</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>1003</v>
       </c>
@@ -4422,34 +4977,44 @@
         <v>10</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D51" s="3">
         <v>3</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>天牢星的那些小故事</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>1004</v>
       </c>
@@ -4457,34 +5022,44 @@
         <v>10</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D52" s="3">
         <v>4</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>天慧星的那些小故事</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>1005</v>
       </c>
@@ -4492,34 +5067,44 @@
         <v>10</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D53" s="3">
         <v>5</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>天哭星的那些小故事</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>1101</v>
       </c>
@@ -4527,34 +5112,44 @@
         <v>11</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D54" s="3">
         <v>1</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>天败星的那些小故事</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>1102</v>
       </c>
@@ -4562,34 +5157,44 @@
         <v>11</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D55" s="3">
         <v>2</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>天罪星的那些小故事</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>1103</v>
       </c>
@@ -4597,34 +5202,44 @@
         <v>11</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D56" s="3">
         <v>3</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G56" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>天剑星的那些小故事</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>1104</v>
       </c>
@@ -4632,34 +5247,44 @@
         <v>11</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D57" s="3">
         <v>4</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G57" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>天平星的那些小故事</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>1105</v>
       </c>
@@ -4667,34 +5292,44 @@
         <v>11</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D58" s="3">
         <v>5</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>天损星的那些小故事</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>1201</v>
       </c>
@@ -4702,34 +5337,44 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D59" s="3">
         <v>1</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G59" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>天寿星的那些小故事</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>1202</v>
       </c>
@@ -4737,34 +5382,44 @@
         <v>12</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D60" s="3">
         <v>2</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G60" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>天究星的那些小故事</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>1203</v>
       </c>
@@ -4772,34 +5427,44 @@
         <v>12</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D61" s="3">
         <v>3</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>天杀星的那些小故事</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>1204</v>
       </c>
@@ -4807,34 +5472,44 @@
         <v>12</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D62" s="3">
         <v>4</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>天微星的那些小故事</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>1205</v>
       </c>
@@ -4842,34 +5517,44 @@
         <v>12</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D63" s="3">
         <v>5</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G63" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>天退星的那些小故事</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>1301</v>
       </c>
@@ -4877,34 +5562,44 @@
         <v>13</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G64" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>天异星的那些小故事</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>1302</v>
       </c>
@@ -4912,34 +5607,44 @@
         <v>13</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D65" s="3">
         <v>2</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G65" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>天空星的那些小故事</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>1303</v>
       </c>
@@ -4947,34 +5652,44 @@
         <v>13</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D66" s="3">
         <v>3</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G66" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>天暗星的那些小故事</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>1304</v>
       </c>
@@ -4982,34 +5697,44 @@
         <v>13</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D67" s="3">
         <v>4</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G67" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>天佑星的那些小故事</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>1305</v>
       </c>
@@ -5017,34 +5742,44 @@
         <v>13</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D68" s="3">
         <v>5</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G68" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>天速星的那些小故事</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>1401</v>
       </c>
@@ -5052,34 +5787,44 @@
         <v>14</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D69" s="3">
         <v>1</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f t="shared" ref="G69:G82" si="1">F69&amp;"的那些小故事"</f>
+        <v>天捷星的那些小故事</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>1402</v>
       </c>
@@ -5087,34 +5832,44 @@
         <v>14</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D70" s="3">
         <v>2</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>天伤星的那些小故事</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>1403</v>
       </c>
@@ -5122,34 +5877,44 @@
         <v>14</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D71" s="3">
         <v>3</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G71" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>天满星的那些小故事</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>1404</v>
       </c>
@@ -5157,34 +5922,44 @@
         <v>14</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D72" s="3">
         <v>4</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G72" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>天孤星的那些小故事</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>1405</v>
       </c>
@@ -5192,34 +5967,44 @@
         <v>14</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D73" s="3">
         <v>5</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G73" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>天立星的那些小故事</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>1501</v>
       </c>
@@ -5227,34 +6012,44 @@
         <v>15</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D74" s="3">
         <v>1</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G74" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>天富星的那些小故事</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>1502</v>
       </c>
@@ -5262,34 +6057,44 @@
         <v>15</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D75" s="3">
         <v>2</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G75" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>天勇星的那些小故事</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>1503</v>
       </c>
@@ -5297,34 +6102,44 @@
         <v>15</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D76" s="3">
         <v>3</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G76" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>天魁星的那些小故事</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>1504</v>
       </c>
@@ -5332,34 +6147,44 @@
         <v>15</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D77" s="3">
         <v>4</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G77" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>天机星的那些小故事</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>1505</v>
       </c>
@@ -5367,34 +6192,44 @@
         <v>15</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D78" s="3">
         <v>5</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>天雄星的那些小故事</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>1601</v>
       </c>
@@ -5402,34 +6237,44 @@
         <v>16</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D79" s="3">
         <v>1</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G79" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>七杀星的那些小故事</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>1602</v>
       </c>
@@ -5437,34 +6282,44 @@
         <v>16</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D80" s="3">
         <v>2</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G80" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>破军星的那些小故事</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>1603</v>
       </c>
@@ -5472,34 +6327,44 @@
         <v>16</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D81" s="3">
         <v>3</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G81" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>太白星的那些小故事</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>1604</v>
       </c>
@@ -5507,31 +6372,41 @@
         <v>16</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D82" s="3">
         <v>4</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>201</v>
+        <v>263</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G82" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>荧惑星的那些小故事</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N82" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/wBoss.世界BOSS.xlsx
+++ b/Excel/镇魂街/wBoss.世界BOSS.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="314">
   <si>
     <t>sheet名</t>
   </si>
@@ -1005,150 +1005,303 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Cha,HelpCol,Loc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[1].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[1].Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[2].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[2].Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[3].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[3].Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[4].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[4].Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项羽技能</t>
+  </si>
+  <si>
+    <t>KeySkill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_id:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardface_lftl_1102021</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>res:&lt;||Art\UI\DynamicTex\#png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_gjj2_1201005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_shx_1102019</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_dw_1102003</t>
+  </si>
+  <si>
+    <t>head_xzz_1201010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BgPic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Background_101</t>
+  </si>
+  <si>
+    <t>ui_dtex_Background_102</t>
+  </si>
+  <si>
+    <t>ui_dtex_Background_103</t>
+  </si>
+  <si>
+    <t>ui_dtex_Background_104</t>
+  </si>
+  <si>
+    <t>ui_dtex_Background_105</t>
+  </si>
+  <si>
+    <t>ui_dtex_Background_106</t>
+  </si>
+  <si>
+    <t>ui_dtex_Background_107</t>
+  </si>
+  <si>
+    <t>ui_dtex_Background_108</t>
+  </si>
+  <si>
+    <t>ui_dtex_Background_109</t>
+  </si>
+  <si>
+    <t>Scene</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_chilianjie_4-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_chilianjie_4-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_chilianjie_4-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+  </si>
+  <si>
+    <t>场景名</t>
+  </si>
+  <si>
+    <t>string:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>ds1-loc1-jlr</t>
   </si>
   <si>
+    <t>ds1-loc2-jlr</t>
+  </si>
+  <si>
+    <t>ds1-loc3-jlr</t>
+  </si>
+  <si>
     <t>ds2-loc1-jlr</t>
   </si>
   <si>
+    <t>ds2-loc2-jlr</t>
+  </si>
+  <si>
+    <t>ds2-loc3-jlr</t>
+  </si>
+  <si>
     <t>ds3-loc1-jlr</t>
   </si>
   <si>
+    <t>ds3-loc2-jlr</t>
+  </si>
+  <si>
+    <t>ds3-loc3-jlr</t>
+  </si>
+  <si>
     <t>ds4-loc1-jlr</t>
   </si>
   <si>
+    <t>ds4-loc2-jlr</t>
+  </si>
+  <si>
+    <t>ds4-loc3-jlr</t>
+  </si>
+  <si>
     <t>ds5-loc1-jlr</t>
   </si>
   <si>
+    <t>ds5-loc2-jlr</t>
+  </si>
+  <si>
+    <t>ds5-loc3-jlr</t>
+  </si>
+  <si>
     <t>ds6-loc1-jlr</t>
   </si>
   <si>
+    <t>ds6-loc2-jlr</t>
+  </si>
+  <si>
+    <t>ds6-loc3-jlr</t>
+  </si>
+  <si>
     <t>ds7-loc1-jlr</t>
   </si>
   <si>
+    <t>ds7-loc2-jlr</t>
+  </si>
+  <si>
+    <t>ds7-loc3-jlr</t>
+  </si>
+  <si>
     <t>ds8-loc1-jlr</t>
   </si>
   <si>
+    <t>ds8-loc2-jlr</t>
+  </si>
+  <si>
+    <t>ds8-loc3-jlr</t>
+  </si>
+  <si>
     <t>ds9-loc1-jlr</t>
   </si>
   <si>
+    <t>ds9-loc2-jlr</t>
+  </si>
+  <si>
+    <t>ds9-loc3-jlr</t>
+  </si>
+  <si>
     <t>tg1-loc1-jlr</t>
   </si>
   <si>
+    <t>tg1-loc2-jlr</t>
+  </si>
+  <si>
+    <t>tg1-loc3-jlr</t>
+  </si>
+  <si>
     <t>tg2-loc1-jlr</t>
   </si>
   <si>
+    <t>tg2-loc2-jlr</t>
+  </si>
+  <si>
+    <t>tg2-loc3-jlr</t>
+  </si>
+  <si>
     <t>tg3-loc1-jlr</t>
   </si>
   <si>
+    <t>tg3-loc2-jlr</t>
+  </si>
+  <si>
+    <t>tg3-loc3-jlr</t>
+  </si>
+  <si>
     <t>tg4-loc1-jlr</t>
   </si>
   <si>
+    <t>tg4-loc2-jlr</t>
+  </si>
+  <si>
+    <t>tg4-loc3-jlr</t>
+  </si>
+  <si>
     <t>tg5-loc1-jlr</t>
   </si>
   <si>
+    <t>tg5-loc2-jlr</t>
+  </si>
+  <si>
+    <t>tg5-loc3-jlr</t>
+  </si>
+  <si>
     <t>tg6-loc1-jlr</t>
   </si>
   <si>
+    <t>tg6-loc2-jlr</t>
+  </si>
+  <si>
+    <t>tg6-loc3-jlr</t>
+  </si>
+  <si>
     <t>xy-loc1-jlr</t>
   </si>
   <si>
-    <t>Cha,HelpCol,Loc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropShow[1].Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropShow[1].Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropShow[2].Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropShow[2].Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropShow[3].Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropShow[3].Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropShow[4].Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropShow[4].Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项羽技能</t>
-  </si>
-  <si>
-    <t>KeySkill</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_id:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心技能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>故事</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cardface_lftl_1102021</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>res:&lt;||Art\UI\DynamicTex\#png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_gjj2_1201005</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_shx_1102019</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_dw_1102003</t>
-  </si>
-  <si>
-    <t>head_xzz_1201010</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>xy-loc2-jlr</t>
+  </si>
+  <si>
+    <t>xy-loc3-jlr</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1880,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
@@ -1843,10 +1996,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1131"/>
+  <dimension ref="A1:P1131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1854,18 +2007,20 @@
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="60.875" customWidth="1"/>
-    <col min="7" max="7" width="17.375" customWidth="1"/>
-    <col min="8" max="8" width="21.25" customWidth="1"/>
-    <col min="9" max="9" width="19.125" customWidth="1"/>
-    <col min="10" max="10" width="19.75" customWidth="1"/>
-    <col min="11" max="11" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="60.875" customWidth="1"/>
+    <col min="9" max="9" width="17.375" customWidth="1"/>
+    <col min="10" max="10" width="21.25" customWidth="1"/>
+    <col min="11" max="11" width="19.125" customWidth="1"/>
     <col min="12" max="12" width="19.75" customWidth="1"/>
-    <col min="13" max="13" width="18.125" customWidth="1"/>
-    <col min="14" max="14" width="21.375" customWidth="1"/>
+    <col min="13" max="13" width="19.875" customWidth="1"/>
+    <col min="14" max="14" width="19.75" customWidth="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1"/>
+    <col min="16" max="16" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>208</v>
       </c>
@@ -1882,39 +2037,45 @@
         <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>242</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -1926,13 +2087,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>223</v>
       </c>
       <c r="I2" t="s">
         <v>35</v>
@@ -1952,8 +2113,14 @@
       <c r="N2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1970,34 +2137,38 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2013,31 +2184,37 @@
       <c r="E4" s="2">
         <v>35</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="J4" s="2">
+      <c r="L4" s="2">
         <v>5</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="L4" s="2">
+      <c r="N4" s="2">
         <v>3000</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2053,31 +2230,37 @@
       <c r="E5" s="2">
         <v>40</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="J5" s="2">
+      <c r="L5" s="2">
         <v>10</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="L5" s="2">
+      <c r="N5" s="2">
         <v>3750</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2093,31 +2276,37 @@
       <c r="E6" s="2">
         <v>45</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="H6" s="2">
+      <c r="J6" s="2">
         <v>2</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="J6" s="2">
+      <c r="L6" s="2">
         <v>15</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="L6" s="2">
+      <c r="N6" s="2">
         <v>4800</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2133,31 +2322,37 @@
       <c r="E7" s="2">
         <v>50</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>2</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>20</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>6000</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2173,35 +2368,41 @@
       <c r="E8" s="2">
         <v>60</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H8" s="2">
+      <c r="J8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="J8" s="2">
+      <c r="L8" s="2">
         <v>20</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L8" s="2">
+      <c r="N8" s="2">
         <v>3</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N8" s="2">
+      <c r="P8" s="2">
         <v>7500</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2217,35 +2418,41 @@
       <c r="E9" s="2">
         <v>70</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="J9" s="2">
+      <c r="L9" s="2">
         <v>20</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L9" s="2">
+      <c r="N9" s="2">
         <v>5</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N9" s="2">
+      <c r="P9" s="2">
         <v>9000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2261,35 +2468,41 @@
       <c r="E10" s="2">
         <v>70</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="J10" s="2">
+      <c r="L10" s="2">
         <v>20</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L10" s="2">
+      <c r="N10" s="2">
         <v>5</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N10" s="2">
+      <c r="P10" s="2">
         <v>9000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2305,35 +2518,41 @@
       <c r="E11" s="2">
         <v>70</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="J11" s="2">
+      <c r="L11" s="2">
         <v>20</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L11" s="2">
+      <c r="N11" s="2">
         <v>5</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N11" s="2">
+      <c r="P11" s="2">
         <v>9000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2349,35 +2568,41 @@
       <c r="E12" s="2">
         <v>80</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="J12" s="2">
+      <c r="L12" s="2">
         <v>20</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L12" s="2">
+      <c r="N12" s="2">
         <v>7</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N12" s="2">
+      <c r="P12" s="2">
         <v>10800</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2393,35 +2618,41 @@
       <c r="E13" s="2">
         <v>100</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="J13" s="2">
+      <c r="L13" s="2">
         <v>20</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L13" s="2">
+      <c r="N13" s="2">
         <v>10</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N13" s="2">
+      <c r="P13" s="2">
         <v>13500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2437,35 +2668,41 @@
       <c r="E14" s="2">
         <v>100</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="J14" s="2">
+      <c r="L14" s="2">
         <v>20</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L14" s="2">
+      <c r="N14" s="2">
         <v>10</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N14" s="2">
+      <c r="P14" s="2">
         <v>13500</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2481,35 +2718,41 @@
       <c r="E15" s="2">
         <v>100</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="J15" s="2">
+      <c r="L15" s="2">
         <v>20</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L15" s="2">
+      <c r="N15" s="2">
         <v>10</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N15" s="2">
+      <c r="P15" s="2">
         <v>13500</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2525,35 +2768,41 @@
       <c r="E16" s="2">
         <v>110</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J16" s="2">
+      <c r="L16" s="2">
         <v>5</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L16" s="2">
+      <c r="N16" s="2">
         <v>3</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N16" s="2">
+      <c r="P16" s="2">
         <v>16500</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2569,35 +2818,41 @@
       <c r="E17" s="2">
         <v>120</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="J17" s="2">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="L17" s="2">
         <v>5</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="N17" s="2">
+        <v>5</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N17" s="2">
+      <c r="P17" s="2">
         <v>19500</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2613,35 +2868,41 @@
       <c r="E18" s="2">
         <v>130</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J18" s="2">
+      <c r="L18" s="2">
         <v>5</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L18" s="2">
+      <c r="N18" s="2">
         <v>7</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N18" s="2">
+      <c r="P18" s="2">
         <v>22500</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2657,39 +2918,45 @@
       <c r="E19" s="2">
         <v>140</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J19" s="2">
+      <c r="L19" s="2">
         <v>5</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L19" s="2">
+      <c r="N19" s="2">
         <v>10</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N19" s="2">
+      <c r="P19" s="2">
         <v>26250</v>
       </c>
     </row>
-    <row r="1131" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F1131">
+    <row r="1131" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H1131">
         <v>20</v>
       </c>
-      <c r="H1131">
+      <c r="J1131">
         <v>10000</v>
       </c>
     </row>
@@ -2702,10 +2969,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N82"/>
+  <dimension ref="A1:U82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2722,7 +2989,7 @@
     <col min="14" max="14" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -2736,16 +3003,16 @@
         <v>203</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>23</v>
@@ -2766,9 +3033,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
         <v>197</v>
@@ -2780,7 +3047,7 @@
         <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -2789,7 +3056,7 @@
         <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="I2" t="s">
         <v>26</v>
@@ -2810,7 +3077,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -2824,16 +3091,16 @@
         <v>205</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>28</v>
@@ -2854,7 +3121,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>101</v>
       </c>
@@ -2868,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>42</v>
@@ -2878,16 +3145,19 @@
         <v>地狗星的那些小故事</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>224</v>
+        <v>235</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f>INDEX(S$4:S$19,$B4)</f>
+        <v>ds1-loc1-jlr</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f t="shared" ref="J4:K4" si="0">INDEX(T$4:T$19,$B4)</f>
+        <v>ds1-loc2-jlr</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ds1-loc3-jlr</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>159</v>
@@ -2898,8 +3168,17 @@
       <c r="N4" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S4" t="s">
+        <v>266</v>
+      </c>
+      <c r="T4" t="s">
+        <v>267</v>
+      </c>
+      <c r="U4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>102</v>
       </c>
@@ -2913,26 +3192,29 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G5" s="3" t="str">
-        <f t="shared" ref="G5:G68" si="0">F5&amp;"的那些小故事"</f>
+        <f t="shared" ref="G5:G68" si="1">F5&amp;"的那些小故事"</f>
         <v>地劣星的那些小故事</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>224</v>
+        <v>235</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" ref="I5:I68" si="2">INDEX(S$4:S$19,$B5)</f>
+        <v>ds1-loc1-jlr</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f t="shared" ref="J5:J68" si="3">INDEX(T$4:T$19,$B5)</f>
+        <v>ds1-loc2-jlr</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f t="shared" ref="K5:K68" si="4">INDEX(U$4:U$19,$B5)</f>
+        <v>ds1-loc3-jlr</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>159</v>
@@ -2943,8 +3225,17 @@
       <c r="N5" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S5" t="s">
+        <v>269</v>
+      </c>
+      <c r="T5" t="s">
+        <v>270</v>
+      </c>
+      <c r="U5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>103</v>
       </c>
@@ -2958,26 +3249,29 @@
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地奴星的那些小故事</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>224</v>
+        <v>235</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds1-loc1-jlr</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds1-loc2-jlr</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds1-loc3-jlr</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>159</v>
@@ -2988,8 +3282,17 @@
       <c r="N6" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S6" t="s">
+        <v>272</v>
+      </c>
+      <c r="T6" t="s">
+        <v>273</v>
+      </c>
+      <c r="U6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>104</v>
       </c>
@@ -3003,26 +3306,29 @@
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G7" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地损星的那些小故事</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>224</v>
+        <v>235</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds1-loc1-jlr</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds1-loc2-jlr</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds1-loc3-jlr</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>159</v>
@@ -3033,8 +3339,17 @@
       <c r="N7" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S7" t="s">
+        <v>275</v>
+      </c>
+      <c r="T7" t="s">
+        <v>276</v>
+      </c>
+      <c r="U7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>105</v>
       </c>
@@ -3048,26 +3363,29 @@
         <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地贼星的那些小故事</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>224</v>
+        <v>235</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds1-loc1-jlr</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds1-loc2-jlr</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds1-loc3-jlr</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>159</v>
@@ -3078,8 +3396,17 @@
       <c r="N8" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S8" t="s">
+        <v>278</v>
+      </c>
+      <c r="T8" t="s">
+        <v>279</v>
+      </c>
+      <c r="U8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>201</v>
       </c>
@@ -3093,26 +3420,29 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G9" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地短星的那些小故事</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>225</v>
+        <v>235</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds2-loc1-jlr</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds2-loc2-jlr</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds2-loc3-jlr</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>161</v>
@@ -3123,8 +3453,17 @@
       <c r="N9" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S9" t="s">
+        <v>281</v>
+      </c>
+      <c r="T9" t="s">
+        <v>282</v>
+      </c>
+      <c r="U9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>202</v>
       </c>
@@ -3138,26 +3477,29 @@
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地囚星的那些小故事</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>225</v>
+        <v>235</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds2-loc1-jlr</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds2-loc2-jlr</v>
+      </c>
+      <c r="K10" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds2-loc3-jlr</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>161</v>
@@ -3168,8 +3510,17 @@
       <c r="N10" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S10" t="s">
+        <v>284</v>
+      </c>
+      <c r="T10" t="s">
+        <v>285</v>
+      </c>
+      <c r="U10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>203</v>
       </c>
@@ -3183,26 +3534,29 @@
         <v>3</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G11" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地微星的那些小故事</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>225</v>
+        <v>235</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds2-loc1-jlr</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds2-loc2-jlr</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds2-loc3-jlr</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>161</v>
@@ -3213,8 +3567,17 @@
       <c r="N11" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S11" t="s">
+        <v>287</v>
+      </c>
+      <c r="T11" t="s">
+        <v>288</v>
+      </c>
+      <c r="U11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>204</v>
       </c>
@@ -3228,26 +3591,29 @@
         <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G12" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地退星的那些小故事</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>225</v>
+        <v>235</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds2-loc1-jlr</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds2-loc2-jlr</v>
+      </c>
+      <c r="K12" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds2-loc3-jlr</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>161</v>
@@ -3258,8 +3624,17 @@
       <c r="N12" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S12" t="s">
+        <v>290</v>
+      </c>
+      <c r="T12" t="s">
+        <v>291</v>
+      </c>
+      <c r="U12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>205</v>
       </c>
@@ -3273,26 +3648,29 @@
         <v>5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G13" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地猖星的那些小故事</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>225</v>
+        <v>235</v>
+      </c>
+      <c r="I13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds2-loc1-jlr</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds2-loc2-jlr</v>
+      </c>
+      <c r="K13" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds2-loc3-jlr</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>161</v>
@@ -3303,8 +3681,17 @@
       <c r="N13" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S13" t="s">
+        <v>293</v>
+      </c>
+      <c r="T13" t="s">
+        <v>294</v>
+      </c>
+      <c r="U13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>301</v>
       </c>
@@ -3318,26 +3705,29 @@
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G14" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地僻星的那些小故事</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>226</v>
+        <v>235</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds3-loc1-jlr</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds3-loc2-jlr</v>
+      </c>
+      <c r="K14" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds3-loc3-jlr</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>163</v>
@@ -3348,8 +3738,17 @@
       <c r="N14" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S14" t="s">
+        <v>296</v>
+      </c>
+      <c r="T14" t="s">
+        <v>297</v>
+      </c>
+      <c r="U14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>302</v>
       </c>
@@ -3363,26 +3762,29 @@
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G15" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地空星的那些小故事</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>226</v>
+        <v>235</v>
+      </c>
+      <c r="I15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds3-loc1-jlr</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds3-loc2-jlr</v>
+      </c>
+      <c r="K15" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds3-loc3-jlr</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>163</v>
@@ -3393,8 +3795,17 @@
       <c r="N15" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S15" t="s">
+        <v>299</v>
+      </c>
+      <c r="T15" t="s">
+        <v>300</v>
+      </c>
+      <c r="U15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>303</v>
       </c>
@@ -3408,26 +3819,29 @@
         <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地恶星的那些小故事</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>226</v>
+        <v>235</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds3-loc1-jlr</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds3-loc2-jlr</v>
+      </c>
+      <c r="K16" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds3-loc3-jlr</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>163</v>
@@ -3438,8 +3852,17 @@
       <c r="N16" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S16" t="s">
+        <v>302</v>
+      </c>
+      <c r="T16" t="s">
+        <v>303</v>
+      </c>
+      <c r="U16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>304</v>
       </c>
@@ -3453,26 +3876,29 @@
         <v>4</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G17" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地走星的那些小故事</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>226</v>
+        <v>235</v>
+      </c>
+      <c r="I17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds3-loc1-jlr</v>
+      </c>
+      <c r="J17" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds3-loc2-jlr</v>
+      </c>
+      <c r="K17" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds3-loc3-jlr</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>163</v>
@@ -3483,8 +3909,17 @@
       <c r="N17" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S17" t="s">
+        <v>305</v>
+      </c>
+      <c r="T17" t="s">
+        <v>306</v>
+      </c>
+      <c r="U17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>305</v>
       </c>
@@ -3498,26 +3933,29 @@
         <v>5</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地伏星的那些小故事</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>226</v>
+        <v>235</v>
+      </c>
+      <c r="I18" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds3-loc1-jlr</v>
+      </c>
+      <c r="J18" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds3-loc2-jlr</v>
+      </c>
+      <c r="K18" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds3-loc3-jlr</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>163</v>
@@ -3528,8 +3966,17 @@
       <c r="N18" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S18" t="s">
+        <v>308</v>
+      </c>
+      <c r="T18" t="s">
+        <v>309</v>
+      </c>
+      <c r="U18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>401</v>
       </c>
@@ -3543,26 +3990,29 @@
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G19" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地孤星的那些小故事</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
+      </c>
+      <c r="I19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds4-loc1-jlr</v>
+      </c>
+      <c r="J19" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds4-loc2-jlr</v>
+      </c>
+      <c r="K19" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds4-loc3-jlr</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>165</v>
@@ -3573,8 +4023,17 @@
       <c r="N19" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S19" t="s">
+        <v>311</v>
+      </c>
+      <c r="T19" t="s">
+        <v>312</v>
+      </c>
+      <c r="U19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>402</v>
       </c>
@@ -3588,26 +4047,29 @@
         <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G20" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地刑星的那些小故事</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
+      </c>
+      <c r="I20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds4-loc1-jlr</v>
+      </c>
+      <c r="J20" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds4-loc2-jlr</v>
+      </c>
+      <c r="K20" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds4-loc3-jlr</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>165</v>
@@ -3619,7 +4081,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>403</v>
       </c>
@@ -3633,26 +4095,29 @@
         <v>3</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G21" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地妖星的那些小故事</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
+      </c>
+      <c r="I21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds4-loc1-jlr</v>
+      </c>
+      <c r="J21" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds4-loc2-jlr</v>
+      </c>
+      <c r="K21" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds4-loc3-jlr</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>165</v>
@@ -3664,7 +4129,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>404</v>
       </c>
@@ -3678,26 +4143,29 @@
         <v>4</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G22" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地角星的那些小故事</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
+      </c>
+      <c r="I22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds4-loc1-jlr</v>
+      </c>
+      <c r="J22" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds4-loc2-jlr</v>
+      </c>
+      <c r="K22" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds4-loc3-jlr</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>165</v>
@@ -3709,7 +4177,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>405</v>
       </c>
@@ -3723,26 +4191,29 @@
         <v>5</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G23" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地兽星的那些小故事</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
+      </c>
+      <c r="I23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds4-loc1-jlr</v>
+      </c>
+      <c r="J23" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds4-loc2-jlr</v>
+      </c>
+      <c r="K23" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds4-loc3-jlr</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>165</v>
@@ -3754,7 +4225,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>501</v>
       </c>
@@ -3768,26 +4239,29 @@
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G24" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地异星的那些小故事</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
+      </c>
+      <c r="I24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds5-loc1-jlr</v>
+      </c>
+      <c r="J24" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds5-loc2-jlr</v>
+      </c>
+      <c r="K24" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds5-loc3-jlr</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>167</v>
@@ -3799,7 +4273,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>502</v>
       </c>
@@ -3813,26 +4287,29 @@
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G25" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地暗星的那些小故事</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
+      </c>
+      <c r="I25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds5-loc1-jlr</v>
+      </c>
+      <c r="J25" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds5-loc2-jlr</v>
+      </c>
+      <c r="K25" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds5-loc3-jlr</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>167</v>
@@ -3844,7 +4321,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>503</v>
       </c>
@@ -3858,26 +4335,29 @@
         <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>64</v>
       </c>
       <c r="G26" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地隧星的那些小故事</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
+      </c>
+      <c r="I26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds5-loc1-jlr</v>
+      </c>
+      <c r="J26" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds5-loc2-jlr</v>
+      </c>
+      <c r="K26" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds5-loc3-jlr</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>167</v>
@@ -3889,7 +4369,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>504</v>
       </c>
@@ -3903,26 +4383,29 @@
         <v>4</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>65</v>
       </c>
       <c r="G27" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地戚星的那些小故事</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
+      </c>
+      <c r="I27" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds5-loc1-jlr</v>
+      </c>
+      <c r="J27" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds5-loc2-jlr</v>
+      </c>
+      <c r="K27" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds5-loc3-jlr</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>167</v>
@@ -3934,7 +4417,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>505</v>
       </c>
@@ -3948,26 +4431,29 @@
         <v>5</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>66</v>
       </c>
       <c r="G28" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地默星的那些小故事</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
+      </c>
+      <c r="I28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds5-loc1-jlr</v>
+      </c>
+      <c r="J28" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds5-loc2-jlr</v>
+      </c>
+      <c r="K28" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds5-loc3-jlr</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>167</v>
@@ -3979,7 +4465,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>601</v>
       </c>
@@ -3993,26 +4479,29 @@
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>67</v>
       </c>
       <c r="G29" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地文星的那些小故事</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
+      </c>
+      <c r="I29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds6-loc1-jlr</v>
+      </c>
+      <c r="J29" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds6-loc2-jlr</v>
+      </c>
+      <c r="K29" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds6-loc3-jlr</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>169</v>
@@ -4024,7 +4513,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>602</v>
       </c>
@@ -4038,26 +4527,29 @@
         <v>2</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>68</v>
       </c>
       <c r="G30" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地巧星的那些小故事</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
+      </c>
+      <c r="I30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds6-loc1-jlr</v>
+      </c>
+      <c r="J30" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds6-loc2-jlr</v>
+      </c>
+      <c r="K30" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds6-loc3-jlr</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>169</v>
@@ -4069,7 +4561,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>603</v>
       </c>
@@ -4083,26 +4575,29 @@
         <v>3</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>69</v>
       </c>
       <c r="G31" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地健星的那些小故事</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
+      </c>
+      <c r="I31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds6-loc1-jlr</v>
+      </c>
+      <c r="J31" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds6-loc2-jlr</v>
+      </c>
+      <c r="K31" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds6-loc3-jlr</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>169</v>
@@ -4114,7 +4609,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>604</v>
       </c>
@@ -4128,26 +4623,29 @@
         <v>4</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>70</v>
       </c>
       <c r="G32" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地壮星的那些小故事</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
+      </c>
+      <c r="I32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds6-loc1-jlr</v>
+      </c>
+      <c r="J32" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds6-loc2-jlr</v>
+      </c>
+      <c r="K32" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds6-loc3-jlr</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>169</v>
@@ -4173,26 +4671,29 @@
         <v>5</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G33" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地飞星的那些小故事</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
+      </c>
+      <c r="I33" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds6-loc1-jlr</v>
+      </c>
+      <c r="J33" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds6-loc2-jlr</v>
+      </c>
+      <c r="K33" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds6-loc3-jlr</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>169</v>
@@ -4218,26 +4719,29 @@
         <v>1</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>72</v>
       </c>
       <c r="G34" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地阴星的那些小故事</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
+      </c>
+      <c r="I34" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds7-loc1-jlr</v>
+      </c>
+      <c r="J34" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds7-loc2-jlr</v>
+      </c>
+      <c r="K34" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds7-loc3-jlr</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>171</v>
@@ -4263,26 +4767,29 @@
         <v>2</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>73</v>
       </c>
       <c r="G35" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地幽星的那些小故事</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
+      </c>
+      <c r="I35" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds7-loc1-jlr</v>
+      </c>
+      <c r="J35" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds7-loc2-jlr</v>
+      </c>
+      <c r="K35" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds7-loc3-jlr</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>171</v>
@@ -4308,26 +4815,29 @@
         <v>3</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G36" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地羁星的那些小故事</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
+      </c>
+      <c r="I36" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds7-loc1-jlr</v>
+      </c>
+      <c r="J36" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds7-loc2-jlr</v>
+      </c>
+      <c r="K36" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds7-loc3-jlr</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>171</v>
@@ -4353,26 +4863,29 @@
         <v>4</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>75</v>
       </c>
       <c r="G37" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地魂星的那些小故事</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
+      </c>
+      <c r="I37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds7-loc1-jlr</v>
+      </c>
+      <c r="J37" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds7-loc2-jlr</v>
+      </c>
+      <c r="K37" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds7-loc3-jlr</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>171</v>
@@ -4398,26 +4911,29 @@
         <v>5</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>76</v>
       </c>
       <c r="G38" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地魔星的那些小故事</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
+      </c>
+      <c r="I38" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds7-loc1-jlr</v>
+      </c>
+      <c r="J38" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds7-loc2-jlr</v>
+      </c>
+      <c r="K38" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds7-loc3-jlr</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>171</v>
@@ -4443,26 +4959,29 @@
         <v>1</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G39" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地猛星的那些小故事</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
+      </c>
+      <c r="I39" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds8-loc1-jlr</v>
+      </c>
+      <c r="J39" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds8-loc2-jlr</v>
+      </c>
+      <c r="K39" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds8-loc3-jlr</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>173</v>
@@ -4488,26 +5007,29 @@
         <v>2</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G40" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地俊星的那些小故事</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
+      </c>
+      <c r="I40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds8-loc1-jlr</v>
+      </c>
+      <c r="J40" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds8-loc2-jlr</v>
+      </c>
+      <c r="K40" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds8-loc3-jlr</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>173</v>
@@ -4533,26 +5055,29 @@
         <v>3</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>79</v>
       </c>
       <c r="G41" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地勇星的那些小故事</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
+      </c>
+      <c r="I41" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds8-loc1-jlr</v>
+      </c>
+      <c r="J41" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds8-loc2-jlr</v>
+      </c>
+      <c r="K41" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds8-loc3-jlr</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>173</v>
@@ -4578,26 +5103,29 @@
         <v>4</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>80</v>
       </c>
       <c r="G42" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地全星的那些小故事</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
+      </c>
+      <c r="I42" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds8-loc1-jlr</v>
+      </c>
+      <c r="J42" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds8-loc2-jlr</v>
+      </c>
+      <c r="K42" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds8-loc3-jlr</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>173</v>
@@ -4623,26 +5151,29 @@
         <v>5</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>81</v>
       </c>
       <c r="G43" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地正星的那些小故事</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
+      </c>
+      <c r="I43" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds8-loc1-jlr</v>
+      </c>
+      <c r="J43" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds8-loc2-jlr</v>
+      </c>
+      <c r="K43" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds8-loc3-jlr</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>173</v>
@@ -4668,26 +5199,29 @@
         <v>1</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>82</v>
       </c>
       <c r="G44" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地魁星的那些小故事</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
+      </c>
+      <c r="I44" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds9-loc1-jlr</v>
+      </c>
+      <c r="J44" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds9-loc2-jlr</v>
+      </c>
+      <c r="K44" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds9-loc3-jlr</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>175</v>
@@ -4713,26 +5247,29 @@
         <v>2</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G45" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地杰星的那些小故事</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
+      </c>
+      <c r="I45" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds9-loc1-jlr</v>
+      </c>
+      <c r="J45" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds9-loc2-jlr</v>
+      </c>
+      <c r="K45" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds9-loc3-jlr</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>175</v>
@@ -4758,26 +5295,29 @@
         <v>3</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>84</v>
       </c>
       <c r="G46" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地雄星的那些小故事</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
+      </c>
+      <c r="I46" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds9-loc1-jlr</v>
+      </c>
+      <c r="J46" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds9-loc2-jlr</v>
+      </c>
+      <c r="K46" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds9-loc3-jlr</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>175</v>
@@ -4803,26 +5343,29 @@
         <v>4</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>85</v>
       </c>
       <c r="G47" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地英星的那些小故事</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
+      </c>
+      <c r="I47" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds9-loc1-jlr</v>
+      </c>
+      <c r="J47" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds9-loc2-jlr</v>
+      </c>
+      <c r="K47" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds9-loc3-jlr</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>175</v>
@@ -4848,26 +5391,29 @@
         <v>5</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>86</v>
       </c>
       <c r="G48" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>地威星的那些小故事</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
+      </c>
+      <c r="I48" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ds9-loc1-jlr</v>
+      </c>
+      <c r="J48" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ds9-loc2-jlr</v>
+      </c>
+      <c r="K48" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ds9-loc3-jlr</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>175</v>
@@ -4893,26 +5439,29 @@
         <v>1</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>87</v>
       </c>
       <c r="G49" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>天巧星的那些小故事</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
+      </c>
+      <c r="I49" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tg1-loc1-jlr</v>
+      </c>
+      <c r="J49" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>tg1-loc2-jlr</v>
+      </c>
+      <c r="K49" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>tg1-loc3-jlr</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>177</v>
@@ -4938,26 +5487,29 @@
         <v>2</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>88</v>
       </c>
       <c r="G50" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>天暴星的那些小故事</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
+      </c>
+      <c r="I50" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tg1-loc1-jlr</v>
+      </c>
+      <c r="J50" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>tg1-loc2-jlr</v>
+      </c>
+      <c r="K50" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>tg1-loc3-jlr</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>177</v>
@@ -4983,26 +5535,29 @@
         <v>3</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>89</v>
       </c>
       <c r="G51" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>天牢星的那些小故事</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
+      </c>
+      <c r="I51" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tg1-loc1-jlr</v>
+      </c>
+      <c r="J51" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>tg1-loc2-jlr</v>
+      </c>
+      <c r="K51" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>tg1-loc3-jlr</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>177</v>
@@ -5028,26 +5583,29 @@
         <v>4</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>90</v>
       </c>
       <c r="G52" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>天慧星的那些小故事</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
+      </c>
+      <c r="I52" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tg1-loc1-jlr</v>
+      </c>
+      <c r="J52" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>tg1-loc2-jlr</v>
+      </c>
+      <c r="K52" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>tg1-loc3-jlr</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>177</v>
@@ -5073,26 +5631,29 @@
         <v>5</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>91</v>
       </c>
       <c r="G53" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>天哭星的那些小故事</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
+      </c>
+      <c r="I53" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tg1-loc1-jlr</v>
+      </c>
+      <c r="J53" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>tg1-loc2-jlr</v>
+      </c>
+      <c r="K53" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>tg1-loc3-jlr</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>177</v>
@@ -5118,26 +5679,29 @@
         <v>1</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G54" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>天败星的那些小故事</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="I54" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tg2-loc1-jlr</v>
+      </c>
+      <c r="J54" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>tg2-loc2-jlr</v>
+      </c>
+      <c r="K54" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>tg2-loc3-jlr</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>179</v>
@@ -5163,26 +5727,29 @@
         <v>2</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>93</v>
       </c>
       <c r="G55" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>天罪星的那些小故事</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="I55" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tg2-loc1-jlr</v>
+      </c>
+      <c r="J55" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>tg2-loc2-jlr</v>
+      </c>
+      <c r="K55" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>tg2-loc3-jlr</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>179</v>
@@ -5208,26 +5775,29 @@
         <v>3</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G56" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>天剑星的那些小故事</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="I56" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tg2-loc1-jlr</v>
+      </c>
+      <c r="J56" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>tg2-loc2-jlr</v>
+      </c>
+      <c r="K56" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>tg2-loc3-jlr</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>179</v>
@@ -5253,26 +5823,29 @@
         <v>4</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>95</v>
       </c>
       <c r="G57" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>天平星的那些小故事</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="I57" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tg2-loc1-jlr</v>
+      </c>
+      <c r="J57" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>tg2-loc2-jlr</v>
+      </c>
+      <c r="K57" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>tg2-loc3-jlr</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>179</v>
@@ -5298,26 +5871,29 @@
         <v>5</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>96</v>
       </c>
       <c r="G58" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>天损星的那些小故事</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="I58" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tg2-loc1-jlr</v>
+      </c>
+      <c r="J58" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>tg2-loc2-jlr</v>
+      </c>
+      <c r="K58" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>tg2-loc3-jlr</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>179</v>
@@ -5343,26 +5919,29 @@
         <v>1</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>97</v>
       </c>
       <c r="G59" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>天寿星的那些小故事</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>235</v>
+        <v>235</v>
+      </c>
+      <c r="I59" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tg3-loc1-jlr</v>
+      </c>
+      <c r="J59" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>tg3-loc2-jlr</v>
+      </c>
+      <c r="K59" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>tg3-loc3-jlr</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>181</v>
@@ -5388,26 +5967,29 @@
         <v>2</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>98</v>
       </c>
       <c r="G60" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>天究星的那些小故事</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>235</v>
+        <v>235</v>
+      </c>
+      <c r="I60" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tg3-loc1-jlr</v>
+      </c>
+      <c r="J60" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>tg3-loc2-jlr</v>
+      </c>
+      <c r="K60" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>tg3-loc3-jlr</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>181</v>
@@ -5433,26 +6015,29 @@
         <v>3</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G61" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>天杀星的那些小故事</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>235</v>
+        <v>235</v>
+      </c>
+      <c r="I61" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tg3-loc1-jlr</v>
+      </c>
+      <c r="J61" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>tg3-loc2-jlr</v>
+      </c>
+      <c r="K61" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>tg3-loc3-jlr</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>181</v>
@@ -5478,26 +6063,29 @@
         <v>4</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>100</v>
       </c>
       <c r="G62" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>天微星的那些小故事</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>235</v>
+        <v>235</v>
+      </c>
+      <c r="I62" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tg3-loc1-jlr</v>
+      </c>
+      <c r="J62" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>tg3-loc2-jlr</v>
+      </c>
+      <c r="K62" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>tg3-loc3-jlr</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>181</v>
@@ -5523,26 +6111,29 @@
         <v>5</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>101</v>
       </c>
       <c r="G63" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>天退星的那些小故事</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>235</v>
+        <v>235</v>
+      </c>
+      <c r="I63" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tg3-loc1-jlr</v>
+      </c>
+      <c r="J63" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>tg3-loc2-jlr</v>
+      </c>
+      <c r="K63" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>tg3-loc3-jlr</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>181</v>
@@ -5568,26 +6159,29 @@
         <v>1</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>102</v>
       </c>
       <c r="G64" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>天异星的那些小故事</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="I64" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tg4-loc1-jlr</v>
+      </c>
+      <c r="J64" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>tg4-loc2-jlr</v>
+      </c>
+      <c r="K64" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>tg4-loc3-jlr</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>183</v>
@@ -5613,26 +6207,29 @@
         <v>2</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>103</v>
       </c>
       <c r="G65" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>天空星的那些小故事</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="I65" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tg4-loc1-jlr</v>
+      </c>
+      <c r="J65" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>tg4-loc2-jlr</v>
+      </c>
+      <c r="K65" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>tg4-loc3-jlr</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>183</v>
@@ -5658,26 +6255,29 @@
         <v>3</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>104</v>
       </c>
       <c r="G66" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>天暗星的那些小故事</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="I66" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tg4-loc1-jlr</v>
+      </c>
+      <c r="J66" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>tg4-loc2-jlr</v>
+      </c>
+      <c r="K66" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>tg4-loc3-jlr</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>183</v>
@@ -5703,26 +6303,29 @@
         <v>4</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>105</v>
       </c>
       <c r="G67" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>天佑星的那些小故事</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="I67" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tg4-loc1-jlr</v>
+      </c>
+      <c r="J67" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>tg4-loc2-jlr</v>
+      </c>
+      <c r="K67" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>tg4-loc3-jlr</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>183</v>
@@ -5748,26 +6351,29 @@
         <v>5</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>106</v>
       </c>
       <c r="G68" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>天速星的那些小故事</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="I68" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tg4-loc1-jlr</v>
+      </c>
+      <c r="J68" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>tg4-loc2-jlr</v>
+      </c>
+      <c r="K68" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>tg4-loc3-jlr</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>183</v>
@@ -5793,26 +6399,29 @@
         <v>1</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>107</v>
       </c>
       <c r="G69" s="3" t="str">
-        <f t="shared" ref="G69:G82" si="1">F69&amp;"的那些小故事"</f>
+        <f t="shared" ref="G69:G82" si="5">F69&amp;"的那些小故事"</f>
         <v>天捷星的那些小故事</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
+      </c>
+      <c r="I69" s="2" t="str">
+        <f t="shared" ref="I69:I82" si="6">INDEX(S$4:S$19,$B69)</f>
+        <v>tg5-loc1-jlr</v>
+      </c>
+      <c r="J69" s="2" t="str">
+        <f t="shared" ref="J69:J82" si="7">INDEX(T$4:T$19,$B69)</f>
+        <v>tg5-loc2-jlr</v>
+      </c>
+      <c r="K69" s="2" t="str">
+        <f t="shared" ref="K69:K82" si="8">INDEX(U$4:U$19,$B69)</f>
+        <v>tg5-loc3-jlr</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>185</v>
@@ -5838,26 +6447,29 @@
         <v>2</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>108</v>
       </c>
       <c r="G70" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>天伤星的那些小故事</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
+      </c>
+      <c r="I70" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>tg5-loc1-jlr</v>
+      </c>
+      <c r="J70" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>tg5-loc2-jlr</v>
+      </c>
+      <c r="K70" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>tg5-loc3-jlr</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>185</v>
@@ -5883,26 +6495,29 @@
         <v>3</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>109</v>
       </c>
       <c r="G71" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>天满星的那些小故事</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
+      </c>
+      <c r="I71" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>tg5-loc1-jlr</v>
+      </c>
+      <c r="J71" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>tg5-loc2-jlr</v>
+      </c>
+      <c r="K71" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>tg5-loc3-jlr</v>
       </c>
       <c r="L71" s="3" t="s">
         <v>185</v>
@@ -5928,26 +6543,29 @@
         <v>4</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>110</v>
       </c>
       <c r="G72" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>天孤星的那些小故事</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
+      </c>
+      <c r="I72" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>tg5-loc1-jlr</v>
+      </c>
+      <c r="J72" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>tg5-loc2-jlr</v>
+      </c>
+      <c r="K72" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>tg5-loc3-jlr</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>185</v>
@@ -5973,26 +6591,29 @@
         <v>5</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>111</v>
       </c>
       <c r="G73" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>天立星的那些小故事</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
+      </c>
+      <c r="I73" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>tg5-loc1-jlr</v>
+      </c>
+      <c r="J73" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>tg5-loc2-jlr</v>
+      </c>
+      <c r="K73" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>tg5-loc3-jlr</v>
       </c>
       <c r="L73" s="3" t="s">
         <v>185</v>
@@ -6018,26 +6639,29 @@
         <v>1</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>112</v>
       </c>
       <c r="G74" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>天富星的那些小故事</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
+      </c>
+      <c r="I74" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>tg6-loc1-jlr</v>
+      </c>
+      <c r="J74" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>tg6-loc2-jlr</v>
+      </c>
+      <c r="K74" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>tg6-loc3-jlr</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>187</v>
@@ -6063,26 +6687,29 @@
         <v>2</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>113</v>
       </c>
       <c r="G75" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>天勇星的那些小故事</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
+      </c>
+      <c r="I75" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>tg6-loc1-jlr</v>
+      </c>
+      <c r="J75" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>tg6-loc2-jlr</v>
+      </c>
+      <c r="K75" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>tg6-loc3-jlr</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>187</v>
@@ -6108,26 +6735,29 @@
         <v>3</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>114</v>
       </c>
       <c r="G76" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>天魁星的那些小故事</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
+      </c>
+      <c r="I76" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>tg6-loc1-jlr</v>
+      </c>
+      <c r="J76" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>tg6-loc2-jlr</v>
+      </c>
+      <c r="K76" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>tg6-loc3-jlr</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>187</v>
@@ -6153,26 +6783,29 @@
         <v>4</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>115</v>
       </c>
       <c r="G77" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>天机星的那些小故事</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
+      </c>
+      <c r="I77" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>tg6-loc1-jlr</v>
+      </c>
+      <c r="J77" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>tg6-loc2-jlr</v>
+      </c>
+      <c r="K77" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>tg6-loc3-jlr</v>
       </c>
       <c r="L77" s="3" t="s">
         <v>187</v>
@@ -6198,26 +6831,29 @@
         <v>5</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>116</v>
       </c>
       <c r="G78" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>天雄星的那些小故事</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
+      </c>
+      <c r="I78" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>tg6-loc1-jlr</v>
+      </c>
+      <c r="J78" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>tg6-loc2-jlr</v>
+      </c>
+      <c r="K78" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>tg6-loc3-jlr</v>
       </c>
       <c r="L78" s="3" t="s">
         <v>187</v>
@@ -6243,26 +6879,29 @@
         <v>1</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>117</v>
       </c>
       <c r="G79" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>七杀星的那些小故事</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
+      </c>
+      <c r="I79" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>xy-loc1-jlr</v>
+      </c>
+      <c r="J79" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>xy-loc2-jlr</v>
+      </c>
+      <c r="K79" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>xy-loc3-jlr</v>
       </c>
       <c r="L79" s="3" t="s">
         <v>189</v>
@@ -6288,26 +6927,29 @@
         <v>2</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>118</v>
       </c>
       <c r="G80" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>破军星的那些小故事</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
+      </c>
+      <c r="I80" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>xy-loc1-jlr</v>
+      </c>
+      <c r="J80" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>xy-loc2-jlr</v>
+      </c>
+      <c r="K80" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>xy-loc3-jlr</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>189</v>
@@ -6333,26 +6975,29 @@
         <v>3</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>119</v>
       </c>
       <c r="G81" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>太白星的那些小故事</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
+      </c>
+      <c r="I81" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>xy-loc1-jlr</v>
+      </c>
+      <c r="J81" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>xy-loc2-jlr</v>
+      </c>
+      <c r="K81" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>xy-loc3-jlr</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>189</v>
@@ -6378,26 +7023,29 @@
         <v>4</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>120</v>
       </c>
       <c r="G82" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>荧惑星的那些小故事</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
+      </c>
+      <c r="I82" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>xy-loc1-jlr</v>
+      </c>
+      <c r="J82" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>xy-loc2-jlr</v>
+      </c>
+      <c r="K82" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>xy-loc3-jlr</v>
       </c>
       <c r="L82" s="3" t="s">
         <v>189</v>

--- a/Excel/镇魂街/wBoss.世界BOSS.xlsx
+++ b/Excel/镇魂街/wBoss.世界BOSS.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="世界BOSS章节" sheetId="34" r:id="rId2"/>
     <sheet name="世界BOSS" sheetId="33" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="307">
   <si>
     <t>sheet名</t>
   </si>
@@ -1107,33 +1107,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ui_dtex_Background_101</t>
-  </si>
-  <si>
-    <t>ui_dtex_Background_102</t>
-  </si>
-  <si>
-    <t>ui_dtex_Background_103</t>
-  </si>
-  <si>
-    <t>ui_dtex_Background_104</t>
-  </si>
-  <si>
-    <t>ui_dtex_Background_105</t>
-  </si>
-  <si>
-    <t>ui_dtex_Background_106</t>
-  </si>
-  <si>
-    <t>ui_dtex_Background_107</t>
-  </si>
-  <si>
-    <t>ui_dtex_Background_108</t>
-  </si>
-  <si>
-    <t>ui_dtex_Background_109</t>
-  </si>
-  <si>
     <t>Scene</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1302,12 +1275,20 @@
   </si>
   <si>
     <t>xy-loc3-jlr</t>
+  </si>
+  <si>
+    <t>ui_dtex_Elingruqin_002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Elingruqin_003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1800,7 +1781,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1998,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2037,7 +2018,7 @@
         <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>249</v>
@@ -2087,10 +2068,10 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="G2" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -2137,7 +2118,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
@@ -2185,10 +2166,10 @@
         <v>35</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -2231,10 +2212,10 @@
         <v>40</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G5" s="2" t="s">
         <v>251</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>13</v>
@@ -2277,10 +2258,10 @@
         <v>45</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>13</v>
@@ -2323,10 +2304,10 @@
         <v>50</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>13</v>
@@ -2369,10 +2350,10 @@
         <v>60</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>13</v>
@@ -2419,10 +2400,10 @@
         <v>70</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>13</v>
@@ -2469,10 +2450,10 @@
         <v>70</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>13</v>
@@ -2519,10 +2500,10 @@
         <v>70</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>13</v>
@@ -2569,10 +2550,10 @@
         <v>80</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>13</v>
@@ -2619,10 +2600,10 @@
         <v>100</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>13</v>
@@ -2669,10 +2650,10 @@
         <v>100</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>13</v>
@@ -2719,10 +2700,10 @@
         <v>100</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>13</v>
@@ -2769,10 +2750,10 @@
         <v>110</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>13</v>
@@ -2819,10 +2800,10 @@
         <v>120</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>13</v>
@@ -2869,10 +2850,10 @@
         <v>130</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>13</v>
@@ -2919,10 +2900,10 @@
         <v>140</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>13</v>
@@ -2971,8 +2952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3169,13 +3150,13 @@
         <v>193</v>
       </c>
       <c r="S4" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="T4" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="U4" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -3226,13 +3207,13 @@
         <v>193</v>
       </c>
       <c r="S5" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="T5" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="U5" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -3283,13 +3264,13 @@
         <v>193</v>
       </c>
       <c r="S6" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="T6" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="U6" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -3340,13 +3321,13 @@
         <v>193</v>
       </c>
       <c r="S7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="T7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="U7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -3397,13 +3378,13 @@
         <v>193</v>
       </c>
       <c r="S8" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="T8" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="U8" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -3454,13 +3435,13 @@
         <v>193</v>
       </c>
       <c r="S9" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="T9" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="U9" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -3511,13 +3492,13 @@
         <v>193</v>
       </c>
       <c r="S10" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="T10" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="U10" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -3568,13 +3549,13 @@
         <v>193</v>
       </c>
       <c r="S11" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="T11" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="U11" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -3625,13 +3606,13 @@
         <v>193</v>
       </c>
       <c r="S12" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="T12" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="U12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -3682,13 +3663,13 @@
         <v>193</v>
       </c>
       <c r="S13" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T13" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="U13" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -3739,13 +3720,13 @@
         <v>193</v>
       </c>
       <c r="S14" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="T14" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="U14" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -3796,13 +3777,13 @@
         <v>193</v>
       </c>
       <c r="S15" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="T15" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="U15" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -3853,13 +3834,13 @@
         <v>193</v>
       </c>
       <c r="S16" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="T16" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="U16" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -3910,13 +3891,13 @@
         <v>193</v>
       </c>
       <c r="S17" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="T17" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="U17" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -3967,13 +3948,13 @@
         <v>193</v>
       </c>
       <c r="S18" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="T18" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="U18" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -4024,13 +4005,13 @@
         <v>193</v>
       </c>
       <c r="S19" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="T19" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="U19" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">

--- a/Excel/镇魂街/wBoss.世界BOSS.xlsx
+++ b/Excel/镇魂街/wBoss.世界BOSS.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="世界BOSS章节" sheetId="34" r:id="rId2"/>
     <sheet name="世界BOSS" sheetId="33" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="309">
   <si>
     <t>sheet名</t>
   </si>
@@ -1284,11 +1284,19 @@
     <t>ui_dtex_Elingruqin_003</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>int:e</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChaIdx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1781,7 +1789,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1979,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2154,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>501</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>123</v>
@@ -2200,7 +2208,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>502</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>124</v>
@@ -2246,7 +2254,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>3</v>
+        <v>503</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>125</v>
@@ -2292,7 +2300,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>4</v>
+        <v>504</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>126</v>
@@ -2338,7 +2346,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>5</v>
+        <v>505</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>127</v>
@@ -2388,7 +2396,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>6</v>
+        <v>506</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>128</v>
@@ -2438,7 +2446,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>7</v>
+        <v>507</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>129</v>
@@ -2488,7 +2496,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>8</v>
+        <v>508</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>130</v>
@@ -2538,7 +2546,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2">
-        <v>9</v>
+        <v>509</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>131</v>
@@ -2588,7 +2596,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>10</v>
+        <v>510</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>132</v>
@@ -2638,7 +2646,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2">
-        <v>11</v>
+        <v>511</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>133</v>
@@ -2688,7 +2696,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="2">
-        <v>12</v>
+        <v>512</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>134</v>
@@ -2738,7 +2746,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="2">
-        <v>13</v>
+        <v>513</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>135</v>
@@ -2788,7 +2796,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="2">
-        <v>14</v>
+        <v>514</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>136</v>
@@ -2838,7 +2846,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="2">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>137</v>
@@ -2888,7 +2896,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2">
-        <v>16</v>
+        <v>516</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>138</v>
@@ -2950,115 +2958,124 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U82"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="32.875" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="9" max="10" width="16.625" customWidth="1"/>
-    <col min="11" max="11" width="15.875" customWidth="1"/>
-    <col min="12" max="12" width="17.5" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="8.75" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="26.625" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="11" width="16.625" customWidth="1"/>
+    <col min="12" max="12" width="15.875" customWidth="1"/>
+    <col min="13" max="13" width="17.5" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>248</v>
       </c>
       <c r="B2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" t="s">
         <v>197</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>200</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>204</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>243</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
       </c>
       <c r="G2" t="s">
         <v>31</v>
       </c>
       <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
         <v>237</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
       </c>
       <c r="K2" t="s">
         <v>27</v>
       </c>
       <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
         <v>157</v>
-      </c>
-      <c r="M2" t="s">
-        <v>158</v>
       </c>
       <c r="N2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -3066,3975 +3083,4057 @@
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>101</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="2">
+        <f>B4+500</f>
+        <v>501</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="3" t="str">
-        <f>F4&amp;"的那些小故事"</f>
+      <c r="H4" s="3" t="str">
+        <f>G4&amp;"的那些小故事"</f>
         <v>地狗星的那些小故事</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I4" s="2" t="str">
-        <f>INDEX(S$4:S$19,$B4)</f>
-        <v>ds1-loc1-jlr</v>
-      </c>
-      <c r="J4" s="2" t="str">
-        <f t="shared" ref="J4:K4" si="0">INDEX(T$4:T$19,$B4)</f>
-        <v>ds1-loc2-jlr</v>
-      </c>
-      <c r="K4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ds1-loc3-jlr</v>
+      <c r="I4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="O4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T4" t="s">
         <v>257</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>258</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>102</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:C68" si="0">B5+500</f>
+        <v>501</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" ref="G5:G68" si="1">F5&amp;"的那些小故事"</f>
+      <c r="H5" s="3" t="str">
+        <f t="shared" ref="H5:H68" si="1">G5&amp;"的那些小故事"</f>
         <v>地劣星的那些小故事</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f t="shared" ref="I5:I68" si="2">INDEX(S$4:S$19,$B5)</f>
-        <v>ds1-loc1-jlr</v>
-      </c>
-      <c r="J5" s="2" t="str">
-        <f t="shared" ref="J5:J68" si="3">INDEX(T$4:T$19,$B5)</f>
-        <v>ds1-loc2-jlr</v>
-      </c>
-      <c r="K5" s="2" t="str">
-        <f t="shared" ref="K5:K68" si="4">INDEX(U$4:U$19,$B5)</f>
-        <v>ds1-loc3-jlr</v>
+      <c r="I5" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="O5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T5" t="s">
         <v>260</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>261</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>103</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>501</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="3" t="str">
+      <c r="H6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地奴星的那些小故事</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I6" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds1-loc1-jlr</v>
-      </c>
-      <c r="J6" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds1-loc2-jlr</v>
-      </c>
-      <c r="K6" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds1-loc3-jlr</v>
+      <c r="I6" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="O6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T6" t="s">
         <v>263</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>264</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>104</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>501</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="3" t="str">
+      <c r="H7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地损星的那些小故事</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I7" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds1-loc1-jlr</v>
-      </c>
-      <c r="J7" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds1-loc2-jlr</v>
-      </c>
-      <c r="K7" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds1-loc3-jlr</v>
+      <c r="I7" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="O7" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T7" t="s">
         <v>266</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>267</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>105</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>501</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="3">
         <v>5</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="3" t="str">
+      <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地贼星的那些小故事</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I8" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds1-loc1-jlr</v>
-      </c>
-      <c r="J8" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds1-loc2-jlr</v>
-      </c>
-      <c r="K8" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds1-loc3-jlr</v>
+      <c r="I8" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="O8" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T8" t="s">
         <v>269</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>270</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>201</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>502</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="3" t="str">
+      <c r="H9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地短星的那些小故事</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I9" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds2-loc1-jlr</v>
-      </c>
-      <c r="J9" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds2-loc2-jlr</v>
-      </c>
-      <c r="K9" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds2-loc3-jlr</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="I9" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="O9" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T9" t="s">
         <v>272</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>273</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>202</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>502</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="3">
         <v>2</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="3" t="str">
+      <c r="H10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地囚星的那些小故事</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds2-loc1-jlr</v>
-      </c>
-      <c r="J10" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds2-loc2-jlr</v>
-      </c>
-      <c r="K10" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds2-loc3-jlr</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="I10" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="O10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T10" t="s">
         <v>275</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>276</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>203</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>502</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="3">
         <v>3</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="3" t="str">
+      <c r="H11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地微星的那些小故事</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds2-loc1-jlr</v>
-      </c>
-      <c r="J11" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds2-loc2-jlr</v>
-      </c>
-      <c r="K11" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds2-loc3-jlr</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="I11" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="N11" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="O11" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T11" t="s">
         <v>278</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>279</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>204</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>502</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="3">
         <v>4</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="3" t="str">
+      <c r="H12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地退星的那些小故事</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds2-loc1-jlr</v>
-      </c>
-      <c r="J12" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds2-loc2-jlr</v>
-      </c>
-      <c r="K12" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds2-loc3-jlr</v>
-      </c>
-      <c r="L12" s="3" t="s">
+      <c r="I12" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="O12" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T12" t="s">
         <v>281</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>282</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>205</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>502</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="3">
         <v>5</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="3" t="str">
+      <c r="H13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地猖星的那些小故事</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I13" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds2-loc1-jlr</v>
-      </c>
-      <c r="J13" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds2-loc2-jlr</v>
-      </c>
-      <c r="K13" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds2-loc3-jlr</v>
-      </c>
-      <c r="L13" s="3" t="s">
+      <c r="I13" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="N13" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="O13" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T13" t="s">
         <v>284</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>285</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>301</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>503</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="3" t="str">
+      <c r="H14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地僻星的那些小故事</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds3-loc1-jlr</v>
-      </c>
-      <c r="J14" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds3-loc2-jlr</v>
-      </c>
-      <c r="K14" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds3-loc3-jlr</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="I14" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="O14" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T14" t="s">
         <v>287</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>288</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>302</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>503</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="3" t="str">
+      <c r="H15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地空星的那些小故事</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I15" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds3-loc1-jlr</v>
-      </c>
-      <c r="J15" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds3-loc2-jlr</v>
-      </c>
-      <c r="K15" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds3-loc3-jlr</v>
-      </c>
-      <c r="L15" s="3" t="s">
+      <c r="I15" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="O15" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T15" t="s">
         <v>290</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>291</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>303</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>503</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="3">
         <v>3</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="3" t="str">
+      <c r="H16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地恶星的那些小故事</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds3-loc1-jlr</v>
-      </c>
-      <c r="J16" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds3-loc2-jlr</v>
-      </c>
-      <c r="K16" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds3-loc3-jlr</v>
-      </c>
-      <c r="L16" s="3" t="s">
+      <c r="I16" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="O16" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T16" t="s">
         <v>293</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>294</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>304</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>503</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="3">
         <v>4</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="3" t="str">
+      <c r="H17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地走星的那些小故事</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds3-loc1-jlr</v>
-      </c>
-      <c r="J17" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds3-loc2-jlr</v>
-      </c>
-      <c r="K17" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds3-loc3-jlr</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="I17" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="O17" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T17" t="s">
         <v>296</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>297</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>305</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>503</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="3">
         <v>5</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="3" t="str">
+      <c r="H18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地伏星的那些小故事</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I18" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds3-loc1-jlr</v>
-      </c>
-      <c r="J18" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds3-loc2-jlr</v>
-      </c>
-      <c r="K18" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds3-loc3-jlr</v>
-      </c>
-      <c r="L18" s="3" t="s">
+      <c r="I18" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="O18" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T18" t="s">
         <v>299</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>300</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>401</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>504</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="3" t="str">
+      <c r="H19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地孤星的那些小故事</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I19" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds4-loc1-jlr</v>
-      </c>
-      <c r="J19" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds4-loc2-jlr</v>
-      </c>
-      <c r="K19" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds4-loc3-jlr</v>
-      </c>
-      <c r="L19" s="3" t="s">
+      <c r="I19" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="N19" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="O19" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T19" t="s">
         <v>302</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>303</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>402</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>504</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="3">
         <v>2</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="3" t="str">
+      <c r="H20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地刑星的那些小故事</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds4-loc1-jlr</v>
-      </c>
-      <c r="J20" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds4-loc2-jlr</v>
-      </c>
-      <c r="K20" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds4-loc3-jlr</v>
-      </c>
-      <c r="L20" s="3" t="s">
+      <c r="I20" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>403</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>504</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="3">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="3" t="str">
+      <c r="H21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地妖星的那些小故事</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds4-loc1-jlr</v>
-      </c>
-      <c r="J21" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds4-loc2-jlr</v>
-      </c>
-      <c r="K21" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds4-loc3-jlr</v>
-      </c>
-      <c r="L21" s="3" t="s">
+      <c r="I21" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>404</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>504</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="3">
         <v>4</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="3" t="str">
+      <c r="H22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地角星的那些小故事</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I22" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds4-loc1-jlr</v>
-      </c>
-      <c r="J22" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds4-loc2-jlr</v>
-      </c>
-      <c r="K22" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds4-loc3-jlr</v>
-      </c>
-      <c r="L22" s="3" t="s">
+      <c r="I22" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>405</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>504</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" s="3">
         <v>5</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="3" t="str">
+      <c r="H23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地兽星的那些小故事</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I23" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds4-loc1-jlr</v>
-      </c>
-      <c r="J23" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds4-loc2-jlr</v>
-      </c>
-      <c r="K23" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds4-loc3-jlr</v>
-      </c>
-      <c r="L23" s="3" t="s">
+      <c r="I23" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>501</v>
       </c>
       <c r="B24" s="2">
         <v>5</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>505</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="3">
         <v>1</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="3" t="str">
+      <c r="H24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地异星的那些小故事</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I24" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds5-loc1-jlr</v>
-      </c>
-      <c r="J24" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds5-loc2-jlr</v>
-      </c>
-      <c r="K24" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds5-loc3-jlr</v>
-      </c>
-      <c r="L24" s="3" t="s">
+      <c r="I24" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>502</v>
       </c>
       <c r="B25" s="2">
         <v>5</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>505</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" s="3">
         <v>2</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="3" t="str">
+      <c r="H25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地暗星的那些小故事</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I25" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds5-loc1-jlr</v>
-      </c>
-      <c r="J25" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds5-loc2-jlr</v>
-      </c>
-      <c r="K25" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds5-loc3-jlr</v>
-      </c>
-      <c r="L25" s="3" t="s">
+      <c r="I25" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="N25" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O25" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>503</v>
       </c>
       <c r="B26" s="2">
         <v>5</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>505</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="3">
         <v>3</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="3" t="str">
+      <c r="H26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地隧星的那些小故事</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I26" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds5-loc1-jlr</v>
-      </c>
-      <c r="J26" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds5-loc2-jlr</v>
-      </c>
-      <c r="K26" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds5-loc3-jlr</v>
-      </c>
-      <c r="L26" s="3" t="s">
+      <c r="I26" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>504</v>
       </c>
       <c r="B27" s="2">
         <v>5</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>505</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" s="3">
         <v>4</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="3" t="str">
+      <c r="H27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地戚星的那些小故事</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I27" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds5-loc1-jlr</v>
-      </c>
-      <c r="J27" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds5-loc2-jlr</v>
-      </c>
-      <c r="K27" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds5-loc3-jlr</v>
-      </c>
-      <c r="L27" s="3" t="s">
+      <c r="I27" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>505</v>
       </c>
       <c r="B28" s="2">
         <v>5</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>505</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="3">
         <v>5</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="3" t="str">
+      <c r="H28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地默星的那些小故事</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I28" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds5-loc1-jlr</v>
-      </c>
-      <c r="J28" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds5-loc2-jlr</v>
-      </c>
-      <c r="K28" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds5-loc3-jlr</v>
-      </c>
-      <c r="L28" s="3" t="s">
+      <c r="I28" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="M28" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="N28" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O28" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>601</v>
       </c>
       <c r="B29" s="2">
         <v>6</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>506</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29" s="3">
         <v>1</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="3" t="str">
+      <c r="H29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地文星的那些小故事</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I29" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds6-loc1-jlr</v>
-      </c>
-      <c r="J29" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds6-loc2-jlr</v>
-      </c>
-      <c r="K29" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds6-loc3-jlr</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="I29" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>602</v>
       </c>
       <c r="B30" s="2">
         <v>6</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>506</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30" s="3">
         <v>2</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G30" s="3" t="str">
+      <c r="H30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地巧星的那些小故事</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I30" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds6-loc1-jlr</v>
-      </c>
-      <c r="J30" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds6-loc2-jlr</v>
-      </c>
-      <c r="K30" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds6-loc3-jlr</v>
-      </c>
-      <c r="L30" s="3" t="s">
+      <c r="I30" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="M30" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N30" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O30" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>603</v>
       </c>
       <c r="B31" s="2">
         <v>6</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>506</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E31" s="3">
         <v>3</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="3" t="str">
+      <c r="H31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地健星的那些小故事</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I31" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds6-loc1-jlr</v>
-      </c>
-      <c r="J31" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds6-loc2-jlr</v>
-      </c>
-      <c r="K31" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds6-loc3-jlr</v>
-      </c>
-      <c r="L31" s="3" t="s">
+      <c r="I31" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="M31" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N31" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O31" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>604</v>
       </c>
       <c r="B32" s="2">
         <v>6</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>506</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E32" s="3">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="3" t="str">
+      <c r="H32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地壮星的那些小故事</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I32" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds6-loc1-jlr</v>
-      </c>
-      <c r="J32" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds6-loc2-jlr</v>
-      </c>
-      <c r="K32" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds6-loc3-jlr</v>
-      </c>
-      <c r="L32" s="3" t="s">
+      <c r="I32" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="M32" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>605</v>
       </c>
       <c r="B33" s="2">
         <v>6</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>506</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" s="3">
         <v>5</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="3" t="str">
+      <c r="H33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地飞星的那些小故事</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I33" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds6-loc1-jlr</v>
-      </c>
-      <c r="J33" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds6-loc2-jlr</v>
-      </c>
-      <c r="K33" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds6-loc3-jlr</v>
-      </c>
-      <c r="L33" s="3" t="s">
+      <c r="I33" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="M33" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>701</v>
       </c>
       <c r="B34" s="2">
         <v>7</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>507</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E34" s="3">
         <v>1</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G34" s="3" t="str">
+      <c r="H34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地阴星的那些小故事</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I34" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds7-loc1-jlr</v>
-      </c>
-      <c r="J34" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds7-loc2-jlr</v>
-      </c>
-      <c r="K34" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds7-loc3-jlr</v>
-      </c>
-      <c r="L34" s="3" t="s">
+      <c r="I34" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M34" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="N34" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O34" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>702</v>
       </c>
       <c r="B35" s="2">
         <v>7</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>507</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E35" s="3">
         <v>2</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G35" s="3" t="str">
+      <c r="H35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地幽星的那些小故事</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I35" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds7-loc1-jlr</v>
-      </c>
-      <c r="J35" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds7-loc2-jlr</v>
-      </c>
-      <c r="K35" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds7-loc3-jlr</v>
-      </c>
-      <c r="L35" s="3" t="s">
+      <c r="I35" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M35" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>703</v>
       </c>
       <c r="B36" s="2">
         <v>7</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>507</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" s="3">
         <v>3</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G36" s="3" t="str">
+      <c r="H36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地羁星的那些小故事</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I36" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds7-loc1-jlr</v>
-      </c>
-      <c r="J36" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds7-loc2-jlr</v>
-      </c>
-      <c r="K36" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds7-loc3-jlr</v>
-      </c>
-      <c r="L36" s="3" t="s">
+      <c r="I36" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M36" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="N36" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O36" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>704</v>
       </c>
       <c r="B37" s="2">
         <v>7</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>507</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E37" s="3">
         <v>4</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="3" t="str">
+      <c r="H37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地魂星的那些小故事</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I37" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds7-loc1-jlr</v>
-      </c>
-      <c r="J37" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds7-loc2-jlr</v>
-      </c>
-      <c r="K37" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds7-loc3-jlr</v>
-      </c>
-      <c r="L37" s="3" t="s">
+      <c r="I37" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M37" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="N37" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O37" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>705</v>
       </c>
       <c r="B38" s="2">
         <v>7</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>507</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E38" s="3">
         <v>5</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G38" s="3" t="str">
+      <c r="H38" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地魔星的那些小故事</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I38" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds7-loc1-jlr</v>
-      </c>
-      <c r="J38" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds7-loc2-jlr</v>
-      </c>
-      <c r="K38" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds7-loc3-jlr</v>
-      </c>
-      <c r="L38" s="3" t="s">
+      <c r="I38" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M38" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="N38" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O38" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>801</v>
       </c>
       <c r="B39" s="2">
         <v>8</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>508</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E39" s="3">
         <v>1</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G39" s="3" t="str">
+      <c r="H39" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地猛星的那些小故事</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I39" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds8-loc1-jlr</v>
-      </c>
-      <c r="J39" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds8-loc2-jlr</v>
-      </c>
-      <c r="K39" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds8-loc3-jlr</v>
-      </c>
-      <c r="L39" s="3" t="s">
+      <c r="I39" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M39" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="N39" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O39" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>802</v>
       </c>
       <c r="B40" s="2">
         <v>8</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>508</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E40" s="3">
         <v>2</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G40" s="3" t="str">
+      <c r="H40" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地俊星的那些小故事</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I40" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds8-loc1-jlr</v>
-      </c>
-      <c r="J40" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds8-loc2-jlr</v>
-      </c>
-      <c r="K40" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds8-loc3-jlr</v>
-      </c>
-      <c r="L40" s="3" t="s">
+      <c r="I40" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M40" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="N40" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O40" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>803</v>
       </c>
       <c r="B41" s="2">
         <v>8</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>508</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E41" s="3">
         <v>3</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="3" t="str">
+      <c r="H41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地勇星的那些小故事</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I41" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds8-loc1-jlr</v>
-      </c>
-      <c r="J41" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds8-loc2-jlr</v>
-      </c>
-      <c r="K41" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds8-loc3-jlr</v>
-      </c>
-      <c r="L41" s="3" t="s">
+      <c r="I41" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M41" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>804</v>
       </c>
       <c r="B42" s="2">
         <v>8</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D42" s="3">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>508</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E42" s="3">
         <v>4</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G42" s="3" t="str">
+      <c r="H42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地全星的那些小故事</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I42" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds8-loc1-jlr</v>
-      </c>
-      <c r="J42" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds8-loc2-jlr</v>
-      </c>
-      <c r="K42" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds8-loc3-jlr</v>
-      </c>
-      <c r="L42" s="3" t="s">
+      <c r="I42" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M42" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>805</v>
       </c>
       <c r="B43" s="2">
         <v>8</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>508</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E43" s="3">
         <v>5</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G43" s="3" t="str">
+      <c r="H43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地正星的那些小故事</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I43" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds8-loc1-jlr</v>
-      </c>
-      <c r="J43" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds8-loc2-jlr</v>
-      </c>
-      <c r="K43" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds8-loc3-jlr</v>
-      </c>
-      <c r="L43" s="3" t="s">
+      <c r="I43" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M43" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="N43" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>901</v>
       </c>
       <c r="B44" s="2">
         <v>9</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D44" s="3">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>509</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" s="3">
         <v>1</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G44" s="3" t="str">
+      <c r="H44" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地魁星的那些小故事</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I44" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds9-loc1-jlr</v>
-      </c>
-      <c r="J44" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds9-loc2-jlr</v>
-      </c>
-      <c r="K44" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds9-loc3-jlr</v>
-      </c>
-      <c r="L44" s="3" t="s">
+      <c r="I44" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="M44" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="N44" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>902</v>
       </c>
       <c r="B45" s="2">
         <v>9</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D45" s="3">
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>509</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E45" s="3">
         <v>2</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G45" s="3" t="str">
+      <c r="H45" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地杰星的那些小故事</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I45" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds9-loc1-jlr</v>
-      </c>
-      <c r="J45" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds9-loc2-jlr</v>
-      </c>
-      <c r="K45" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds9-loc3-jlr</v>
-      </c>
-      <c r="L45" s="3" t="s">
+      <c r="I45" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="M45" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>903</v>
       </c>
       <c r="B46" s="2">
         <v>9</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D46" s="3">
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>509</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46" s="3">
         <v>3</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G46" s="3" t="str">
+      <c r="H46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地雄星的那些小故事</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I46" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds9-loc1-jlr</v>
-      </c>
-      <c r="J46" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds9-loc2-jlr</v>
-      </c>
-      <c r="K46" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds9-loc3-jlr</v>
-      </c>
-      <c r="L46" s="3" t="s">
+      <c r="I46" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="M46" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="N46" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>904</v>
       </c>
       <c r="B47" s="2">
         <v>9</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D47" s="3">
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>509</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" s="3">
         <v>4</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G47" s="3" t="str">
+      <c r="H47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地英星的那些小故事</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I47" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds9-loc1-jlr</v>
-      </c>
-      <c r="J47" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds9-loc2-jlr</v>
-      </c>
-      <c r="K47" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds9-loc3-jlr</v>
-      </c>
-      <c r="L47" s="3" t="s">
+      <c r="I47" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="M47" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>905</v>
       </c>
       <c r="B48" s="2">
         <v>9</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D48" s="3">
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>509</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" s="3">
         <v>5</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G48" s="3" t="str">
+      <c r="H48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地威星的那些小故事</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I48" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ds9-loc1-jlr</v>
-      </c>
-      <c r="J48" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ds9-loc2-jlr</v>
-      </c>
-      <c r="K48" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ds9-loc3-jlr</v>
-      </c>
-      <c r="L48" s="3" t="s">
+      <c r="I48" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="M48" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>1001</v>
       </c>
       <c r="B49" s="2">
         <v>10</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D49" s="3">
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E49" s="3">
         <v>1</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G49" s="3" t="str">
+      <c r="H49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天巧星的那些小故事</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I49" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>tg1-loc1-jlr</v>
-      </c>
-      <c r="J49" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>tg1-loc2-jlr</v>
-      </c>
-      <c r="K49" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>tg1-loc3-jlr</v>
-      </c>
-      <c r="L49" s="3" t="s">
+      <c r="I49" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M49" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="N49" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>1002</v>
       </c>
       <c r="B50" s="2">
         <v>10</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D50" s="3">
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E50" s="3">
         <v>2</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G50" s="3" t="str">
+      <c r="H50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天暴星的那些小故事</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I50" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>tg1-loc1-jlr</v>
-      </c>
-      <c r="J50" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>tg1-loc2-jlr</v>
-      </c>
-      <c r="K50" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>tg1-loc3-jlr</v>
-      </c>
-      <c r="L50" s="3" t="s">
+      <c r="I50" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M50" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="N50" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="N50" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O50" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>1003</v>
       </c>
       <c r="B51" s="2">
         <v>10</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D51" s="3">
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E51" s="3">
         <v>3</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G51" s="3" t="str">
+      <c r="H51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天牢星的那些小故事</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I51" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>tg1-loc1-jlr</v>
-      </c>
-      <c r="J51" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>tg1-loc2-jlr</v>
-      </c>
-      <c r="K51" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>tg1-loc3-jlr</v>
-      </c>
-      <c r="L51" s="3" t="s">
+      <c r="I51" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M51" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="M51" s="3" t="s">
+      <c r="N51" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="N51" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O51" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>1004</v>
       </c>
       <c r="B52" s="2">
         <v>10</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D52" s="3">
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E52" s="3">
         <v>4</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G52" s="3" t="str">
+      <c r="H52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天慧星的那些小故事</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I52" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>tg1-loc1-jlr</v>
-      </c>
-      <c r="J52" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>tg1-loc2-jlr</v>
-      </c>
-      <c r="K52" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>tg1-loc3-jlr</v>
-      </c>
-      <c r="L52" s="3" t="s">
+      <c r="I52" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M52" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="N52" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>1005</v>
       </c>
       <c r="B53" s="2">
         <v>10</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D53" s="3">
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E53" s="3">
         <v>5</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G53" s="3" t="str">
+      <c r="H53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天哭星的那些小故事</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I53" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>tg1-loc1-jlr</v>
-      </c>
-      <c r="J53" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>tg1-loc2-jlr</v>
-      </c>
-      <c r="K53" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>tg1-loc3-jlr</v>
-      </c>
-      <c r="L53" s="3" t="s">
+      <c r="I53" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M53" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="M53" s="3" t="s">
+      <c r="N53" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="N53" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O53" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>1101</v>
       </c>
       <c r="B54" s="2">
         <v>11</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D54" s="3">
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>511</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E54" s="3">
         <v>1</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G54" s="3" t="str">
+      <c r="H54" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天败星的那些小故事</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I54" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>tg2-loc1-jlr</v>
-      </c>
-      <c r="J54" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>tg2-loc2-jlr</v>
-      </c>
-      <c r="K54" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>tg2-loc3-jlr</v>
-      </c>
-      <c r="L54" s="3" t="s">
+      <c r="I54" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M54" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="M54" s="3" t="s">
+      <c r="N54" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>1102</v>
       </c>
       <c r="B55" s="2">
         <v>11</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D55" s="3">
+      <c r="C55" s="2">
+        <f t="shared" si="0"/>
+        <v>511</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" s="3">
         <v>2</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="F55" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G55" s="3" t="str">
+      <c r="H55" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天罪星的那些小故事</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I55" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>tg2-loc1-jlr</v>
-      </c>
-      <c r="J55" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>tg2-loc2-jlr</v>
-      </c>
-      <c r="K55" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>tg2-loc3-jlr</v>
-      </c>
-      <c r="L55" s="3" t="s">
+      <c r="I55" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M55" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="M55" s="3" t="s">
+      <c r="N55" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N55" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O55" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>1103</v>
       </c>
       <c r="B56" s="2">
         <v>11</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D56" s="3">
+      <c r="C56" s="2">
+        <f t="shared" si="0"/>
+        <v>511</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E56" s="3">
         <v>3</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="F56" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G56" s="3" t="str">
+      <c r="H56" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天剑星的那些小故事</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I56" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>tg2-loc1-jlr</v>
-      </c>
-      <c r="J56" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>tg2-loc2-jlr</v>
-      </c>
-      <c r="K56" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>tg2-loc3-jlr</v>
-      </c>
-      <c r="L56" s="3" t="s">
+      <c r="I56" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M56" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="M56" s="3" t="s">
+      <c r="N56" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N56" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O56" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>1104</v>
       </c>
       <c r="B57" s="2">
         <v>11</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D57" s="3">
+      <c r="C57" s="2">
+        <f t="shared" si="0"/>
+        <v>511</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E57" s="3">
         <v>4</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="F57" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G57" s="3" t="str">
+      <c r="H57" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天平星的那些小故事</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I57" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>tg2-loc1-jlr</v>
-      </c>
-      <c r="J57" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>tg2-loc2-jlr</v>
-      </c>
-      <c r="K57" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>tg2-loc3-jlr</v>
-      </c>
-      <c r="L57" s="3" t="s">
+      <c r="I57" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M57" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="M57" s="3" t="s">
+      <c r="N57" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>1105</v>
       </c>
       <c r="B58" s="2">
         <v>11</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D58" s="3">
+      <c r="C58" s="2">
+        <f t="shared" si="0"/>
+        <v>511</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E58" s="3">
         <v>5</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G58" s="3" t="str">
+      <c r="H58" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天损星的那些小故事</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I58" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>tg2-loc1-jlr</v>
-      </c>
-      <c r="J58" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>tg2-loc2-jlr</v>
-      </c>
-      <c r="K58" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>tg2-loc3-jlr</v>
-      </c>
-      <c r="L58" s="3" t="s">
+      <c r="I58" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="N58" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>1201</v>
       </c>
       <c r="B59" s="2">
         <v>12</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D59" s="3">
+      <c r="C59" s="2">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E59" s="3">
         <v>1</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G59" s="3" t="str">
+      <c r="H59" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天寿星的那些小故事</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I59" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>tg3-loc1-jlr</v>
-      </c>
-      <c r="J59" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>tg3-loc2-jlr</v>
-      </c>
-      <c r="K59" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>tg3-loc3-jlr</v>
-      </c>
-      <c r="L59" s="3" t="s">
+      <c r="I59" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="M59" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="M59" s="3" t="s">
+      <c r="N59" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>1202</v>
       </c>
       <c r="B60" s="2">
         <v>12</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D60" s="3">
+      <c r="C60" s="2">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E60" s="3">
         <v>2</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G60" s="3" t="str">
+      <c r="H60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天究星的那些小故事</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I60" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>tg3-loc1-jlr</v>
-      </c>
-      <c r="J60" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>tg3-loc2-jlr</v>
-      </c>
-      <c r="K60" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>tg3-loc3-jlr</v>
-      </c>
-      <c r="L60" s="3" t="s">
+      <c r="I60" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="M60" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="M60" s="3" t="s">
+      <c r="N60" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>1203</v>
       </c>
       <c r="B61" s="2">
         <v>12</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D61" s="3">
+      <c r="C61" s="2">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E61" s="3">
         <v>3</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G61" s="3" t="str">
+      <c r="H61" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天杀星的那些小故事</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I61" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>tg3-loc1-jlr</v>
-      </c>
-      <c r="J61" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>tg3-loc2-jlr</v>
-      </c>
-      <c r="K61" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>tg3-loc3-jlr</v>
-      </c>
-      <c r="L61" s="3" t="s">
+      <c r="I61" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="M61" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="M61" s="3" t="s">
+      <c r="N61" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="N61" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O61" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>1204</v>
       </c>
       <c r="B62" s="2">
         <v>12</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D62" s="3">
+      <c r="C62" s="2">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E62" s="3">
         <v>4</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="str">
+      <c r="H62" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天微星的那些小故事</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I62" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>tg3-loc1-jlr</v>
-      </c>
-      <c r="J62" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>tg3-loc2-jlr</v>
-      </c>
-      <c r="K62" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>tg3-loc3-jlr</v>
-      </c>
-      <c r="L62" s="3" t="s">
+      <c r="I62" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="M62" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="M62" s="3" t="s">
+      <c r="N62" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>1205</v>
       </c>
       <c r="B63" s="2">
         <v>12</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D63" s="3">
+      <c r="C63" s="2">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E63" s="3">
         <v>5</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="G63" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G63" s="3" t="str">
+      <c r="H63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天退星的那些小故事</v>
       </c>
-      <c r="H63" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I63" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>tg3-loc1-jlr</v>
-      </c>
-      <c r="J63" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>tg3-loc2-jlr</v>
-      </c>
-      <c r="K63" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>tg3-loc3-jlr</v>
-      </c>
-      <c r="L63" s="3" t="s">
+      <c r="I63" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="M63" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="M63" s="3" t="s">
+      <c r="N63" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="N63" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O63" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>1301</v>
       </c>
       <c r="B64" s="2">
         <v>13</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D64" s="3">
+      <c r="C64" s="2">
+        <f t="shared" si="0"/>
+        <v>513</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E64" s="3">
         <v>1</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G64" s="3" t="str">
+      <c r="H64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天异星的那些小故事</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I64" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>tg4-loc1-jlr</v>
-      </c>
-      <c r="J64" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>tg4-loc2-jlr</v>
-      </c>
-      <c r="K64" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>tg4-loc3-jlr</v>
-      </c>
-      <c r="L64" s="3" t="s">
+      <c r="I64" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="M64" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="M64" s="3" t="s">
+      <c r="N64" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="N64" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O64" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>1302</v>
       </c>
       <c r="B65" s="2">
         <v>13</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D65" s="3">
+      <c r="C65" s="2">
+        <f t="shared" si="0"/>
+        <v>513</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E65" s="3">
         <v>2</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G65" s="3" t="str">
+      <c r="H65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天空星的那些小故事</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I65" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>tg4-loc1-jlr</v>
-      </c>
-      <c r="J65" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>tg4-loc2-jlr</v>
-      </c>
-      <c r="K65" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>tg4-loc3-jlr</v>
-      </c>
-      <c r="L65" s="3" t="s">
+      <c r="I65" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="M65" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="M65" s="3" t="s">
+      <c r="N65" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="N65" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O65" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>1303</v>
       </c>
       <c r="B66" s="2">
         <v>13</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D66" s="3">
+      <c r="C66" s="2">
+        <f t="shared" si="0"/>
+        <v>513</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" s="3">
         <v>3</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="G66" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G66" s="3" t="str">
+      <c r="H66" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天暗星的那些小故事</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I66" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>tg4-loc1-jlr</v>
-      </c>
-      <c r="J66" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>tg4-loc2-jlr</v>
-      </c>
-      <c r="K66" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>tg4-loc3-jlr</v>
-      </c>
-      <c r="L66" s="3" t="s">
+      <c r="I66" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="M66" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="M66" s="3" t="s">
+      <c r="N66" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>1304</v>
       </c>
       <c r="B67" s="2">
         <v>13</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D67" s="3">
+      <c r="C67" s="2">
+        <f t="shared" si="0"/>
+        <v>513</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E67" s="3">
         <v>4</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="F67" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="G67" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G67" s="3" t="str">
+      <c r="H67" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天佑星的那些小故事</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I67" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>tg4-loc1-jlr</v>
-      </c>
-      <c r="J67" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>tg4-loc2-jlr</v>
-      </c>
-      <c r="K67" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>tg4-loc3-jlr</v>
-      </c>
-      <c r="L67" s="3" t="s">
+      <c r="I67" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="M67" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="M67" s="3" t="s">
+      <c r="N67" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="N67" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O67" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>1305</v>
       </c>
       <c r="B68" s="2">
         <v>13</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D68" s="3">
+      <c r="C68" s="2">
+        <f t="shared" si="0"/>
+        <v>513</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E68" s="3">
         <v>5</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="F68" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="G68" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G68" s="3" t="str">
+      <c r="H68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天速星的那些小故事</v>
       </c>
-      <c r="H68" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I68" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>tg4-loc1-jlr</v>
-      </c>
-      <c r="J68" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>tg4-loc2-jlr</v>
-      </c>
-      <c r="K68" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>tg4-loc3-jlr</v>
-      </c>
-      <c r="L68" s="3" t="s">
+      <c r="I68" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="M68" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="M68" s="3" t="s">
+      <c r="N68" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="N68" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O68" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>1401</v>
       </c>
       <c r="B69" s="2">
         <v>14</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D69" s="3">
+      <c r="C69" s="2">
+        <f t="shared" ref="C69:C82" si="2">B69+500</f>
+        <v>514</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E69" s="3">
         <v>1</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="F69" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="G69" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G69" s="3" t="str">
-        <f t="shared" ref="G69:G82" si="5">F69&amp;"的那些小故事"</f>
+      <c r="H69" s="3" t="str">
+        <f t="shared" ref="H69:H82" si="3">G69&amp;"的那些小故事"</f>
         <v>天捷星的那些小故事</v>
       </c>
-      <c r="H69" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I69" s="2" t="str">
-        <f t="shared" ref="I69:I82" si="6">INDEX(S$4:S$19,$B69)</f>
-        <v>tg5-loc1-jlr</v>
-      </c>
-      <c r="J69" s="2" t="str">
-        <f t="shared" ref="J69:J82" si="7">INDEX(T$4:T$19,$B69)</f>
-        <v>tg5-loc2-jlr</v>
-      </c>
-      <c r="K69" s="2" t="str">
-        <f t="shared" ref="K69:K82" si="8">INDEX(U$4:U$19,$B69)</f>
-        <v>tg5-loc3-jlr</v>
-      </c>
-      <c r="L69" s="3" t="s">
+      <c r="I69" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="M69" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="M69" s="3" t="s">
+      <c r="N69" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="N69" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O69" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>1402</v>
       </c>
       <c r="B70" s="2">
         <v>14</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D70" s="3">
+      <c r="C70" s="2">
+        <f t="shared" si="2"/>
+        <v>514</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E70" s="3">
         <v>2</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="F70" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="G70" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G70" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="H70" s="3" t="str">
+        <f t="shared" si="3"/>
         <v>天伤星的那些小故事</v>
       </c>
-      <c r="H70" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I70" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>tg5-loc1-jlr</v>
-      </c>
-      <c r="J70" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>tg5-loc2-jlr</v>
-      </c>
-      <c r="K70" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>tg5-loc3-jlr</v>
-      </c>
-      <c r="L70" s="3" t="s">
+      <c r="I70" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="M70" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="M70" s="3" t="s">
+      <c r="N70" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="N70" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O70" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>1403</v>
       </c>
       <c r="B71" s="2">
         <v>14</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D71" s="3">
+      <c r="C71" s="2">
+        <f t="shared" si="2"/>
+        <v>514</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E71" s="3">
         <v>3</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="F71" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="G71" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G71" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="H71" s="3" t="str">
+        <f t="shared" si="3"/>
         <v>天满星的那些小故事</v>
       </c>
-      <c r="H71" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I71" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>tg5-loc1-jlr</v>
-      </c>
-      <c r="J71" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>tg5-loc2-jlr</v>
-      </c>
-      <c r="K71" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>tg5-loc3-jlr</v>
-      </c>
-      <c r="L71" s="3" t="s">
+      <c r="I71" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="M71" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="M71" s="3" t="s">
+      <c r="N71" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="N71" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O71" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>1404</v>
       </c>
       <c r="B72" s="2">
         <v>14</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D72" s="3">
+      <c r="C72" s="2">
+        <f t="shared" si="2"/>
+        <v>514</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E72" s="3">
         <v>4</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="G72" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G72" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="H72" s="3" t="str">
+        <f t="shared" si="3"/>
         <v>天孤星的那些小故事</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I72" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>tg5-loc1-jlr</v>
-      </c>
-      <c r="J72" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>tg5-loc2-jlr</v>
-      </c>
-      <c r="K72" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>tg5-loc3-jlr</v>
-      </c>
-      <c r="L72" s="3" t="s">
+      <c r="I72" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="M72" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="M72" s="3" t="s">
+      <c r="N72" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>1405</v>
       </c>
       <c r="B73" s="2">
         <v>14</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D73" s="3">
+      <c r="C73" s="2">
+        <f t="shared" si="2"/>
+        <v>514</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E73" s="3">
         <v>5</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="G73" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G73" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="H73" s="3" t="str">
+        <f t="shared" si="3"/>
         <v>天立星的那些小故事</v>
       </c>
-      <c r="H73" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I73" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>tg5-loc1-jlr</v>
-      </c>
-      <c r="J73" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>tg5-loc2-jlr</v>
-      </c>
-      <c r="K73" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>tg5-loc3-jlr</v>
-      </c>
-      <c r="L73" s="3" t="s">
+      <c r="I73" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="M73" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="M73" s="3" t="s">
+      <c r="N73" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="N73" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O73" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>1501</v>
       </c>
       <c r="B74" s="2">
         <v>15</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D74" s="3">
+      <c r="C74" s="2">
+        <f t="shared" si="2"/>
+        <v>515</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E74" s="3">
         <v>1</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="F74" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="G74" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G74" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="H74" s="3" t="str">
+        <f t="shared" si="3"/>
         <v>天富星的那些小故事</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I74" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>tg6-loc1-jlr</v>
-      </c>
-      <c r="J74" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>tg6-loc2-jlr</v>
-      </c>
-      <c r="K74" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>tg6-loc3-jlr</v>
-      </c>
-      <c r="L74" s="3" t="s">
+      <c r="I74" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M74" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="M74" s="3" t="s">
+      <c r="N74" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="N74" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O74" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>1502</v>
       </c>
       <c r="B75" s="2">
         <v>15</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D75" s="3">
+      <c r="C75" s="2">
+        <f t="shared" si="2"/>
+        <v>515</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E75" s="3">
         <v>2</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G75" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="H75" s="3" t="str">
+        <f t="shared" si="3"/>
         <v>天勇星的那些小故事</v>
       </c>
-      <c r="H75" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I75" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>tg6-loc1-jlr</v>
-      </c>
-      <c r="J75" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>tg6-loc2-jlr</v>
-      </c>
-      <c r="K75" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>tg6-loc3-jlr</v>
-      </c>
-      <c r="L75" s="3" t="s">
+      <c r="I75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M75" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="M75" s="3" t="s">
+      <c r="N75" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="N75" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O75" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>1503</v>
       </c>
       <c r="B76" s="2">
         <v>15</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D76" s="3">
+      <c r="C76" s="2">
+        <f t="shared" si="2"/>
+        <v>515</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E76" s="3">
         <v>3</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="F76" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="G76" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G76" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="H76" s="3" t="str">
+        <f t="shared" si="3"/>
         <v>天魁星的那些小故事</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I76" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>tg6-loc1-jlr</v>
-      </c>
-      <c r="J76" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>tg6-loc2-jlr</v>
-      </c>
-      <c r="K76" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>tg6-loc3-jlr</v>
-      </c>
-      <c r="L76" s="3" t="s">
+      <c r="I76" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M76" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="M76" s="3" t="s">
+      <c r="N76" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>1504</v>
       </c>
       <c r="B77" s="2">
         <v>15</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D77" s="3">
+      <c r="C77" s="2">
+        <f t="shared" si="2"/>
+        <v>515</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E77" s="3">
         <v>4</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="F77" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="G77" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G77" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="H77" s="3" t="str">
+        <f t="shared" si="3"/>
         <v>天机星的那些小故事</v>
       </c>
-      <c r="H77" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I77" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>tg6-loc1-jlr</v>
-      </c>
-      <c r="J77" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>tg6-loc2-jlr</v>
-      </c>
-      <c r="K77" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>tg6-loc3-jlr</v>
-      </c>
-      <c r="L77" s="3" t="s">
+      <c r="I77" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M77" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="M77" s="3" t="s">
+      <c r="N77" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="N77" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O77" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>1505</v>
       </c>
       <c r="B78" s="2">
         <v>15</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D78" s="3">
+      <c r="C78" s="2">
+        <f t="shared" si="2"/>
+        <v>515</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E78" s="3">
         <v>5</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="F78" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="G78" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G78" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="H78" s="3" t="str">
+        <f t="shared" si="3"/>
         <v>天雄星的那些小故事</v>
       </c>
-      <c r="H78" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I78" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>tg6-loc1-jlr</v>
-      </c>
-      <c r="J78" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>tg6-loc2-jlr</v>
-      </c>
-      <c r="K78" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>tg6-loc3-jlr</v>
-      </c>
-      <c r="L78" s="3" t="s">
+      <c r="I78" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M78" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="M78" s="3" t="s">
+      <c r="N78" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="N78" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O78" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>1601</v>
       </c>
       <c r="B79" s="2">
         <v>16</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D79" s="3">
+      <c r="C79" s="2">
+        <f t="shared" si="2"/>
+        <v>516</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E79" s="3">
         <v>1</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="F79" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="G79" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G79" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="H79" s="3" t="str">
+        <f t="shared" si="3"/>
         <v>七杀星的那些小故事</v>
       </c>
-      <c r="H79" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I79" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>xy-loc1-jlr</v>
-      </c>
-      <c r="J79" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>xy-loc2-jlr</v>
-      </c>
-      <c r="K79" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>xy-loc3-jlr</v>
-      </c>
-      <c r="L79" s="3" t="s">
+      <c r="I79" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="M79" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="M79" s="3" t="s">
+      <c r="N79" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="N79" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O79" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>1602</v>
       </c>
       <c r="B80" s="2">
         <v>16</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D80" s="3">
+      <c r="C80" s="2">
+        <f t="shared" si="2"/>
+        <v>516</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E80" s="3">
         <v>2</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="F80" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="G80" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G80" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="H80" s="3" t="str">
+        <f t="shared" si="3"/>
         <v>破军星的那些小故事</v>
       </c>
-      <c r="H80" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I80" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>xy-loc1-jlr</v>
-      </c>
-      <c r="J80" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>xy-loc2-jlr</v>
-      </c>
-      <c r="K80" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>xy-loc3-jlr</v>
-      </c>
-      <c r="L80" s="3" t="s">
+      <c r="I80" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="M80" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="M80" s="3" t="s">
+      <c r="N80" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="N80" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O80" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>1603</v>
       </c>
       <c r="B81" s="2">
         <v>16</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D81" s="3">
+      <c r="C81" s="2">
+        <f t="shared" si="2"/>
+        <v>516</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E81" s="3">
         <v>3</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="F81" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="G81" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G81" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="H81" s="3" t="str">
+        <f t="shared" si="3"/>
         <v>太白星的那些小故事</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I81" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>xy-loc1-jlr</v>
-      </c>
-      <c r="J81" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>xy-loc2-jlr</v>
-      </c>
-      <c r="K81" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>xy-loc3-jlr</v>
-      </c>
-      <c r="L81" s="3" t="s">
+      <c r="I81" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="M81" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="M81" s="3" t="s">
+      <c r="N81" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>1604</v>
       </c>
       <c r="B82" s="2">
         <v>16</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D82" s="3">
+      <c r="C82" s="2">
+        <f t="shared" si="2"/>
+        <v>516</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E82" s="3">
         <v>4</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="F82" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="G82" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G82" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="H82" s="3" t="str">
+        <f t="shared" si="3"/>
         <v>荧惑星的那些小故事</v>
       </c>
-      <c r="H82" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I82" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>xy-loc1-jlr</v>
-      </c>
-      <c r="J82" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>xy-loc2-jlr</v>
-      </c>
-      <c r="K82" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>xy-loc3-jlr</v>
-      </c>
-      <c r="L82" s="3" t="s">
+      <c r="I82" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="M82" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="M82" s="3" t="s">
+      <c r="N82" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="N82" s="3" t="s">
+      <c r="O82" s="3" t="s">
         <v>193</v>
       </c>
     </row>

--- a/Excel/镇魂街/wBoss.世界BOSS.xlsx
+++ b/Excel/镇魂街/wBoss.世界BOSS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="332">
   <si>
     <t>sheet名</t>
   </si>
@@ -173,18 +173,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>掉落展示2ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>掉落展示2描述</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>掉落展示3ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>掉落展示3描述</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -577,134 +569,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>中级专属强化石</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -718,10 +582,6 @@
   </si>
   <si>
     <t>掉落展示4ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落展示4描述</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -957,46 +817,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>中级神器1配件1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级神器2配件1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级神器1配件1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级神器2配件1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器1配件1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器1配件1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器2配件1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器3配件1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级神器1配件1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级神器2配件1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>低级专属强化石</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1017,10 +837,336 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项羽技能</t>
+  </si>
+  <si>
+    <t>KeySkill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_id:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardface_lftl_1102021</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>res:&lt;||Art\UI\DynamicTex\#png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_gjj2_1201005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_shx_1102019</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_dw_1102003</t>
+  </si>
+  <si>
+    <t>head_xzz_1201010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BgPic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_chilianjie_4-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_chilianjie_4-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_chilianjie_4-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+  </si>
+  <si>
+    <t>场景名</t>
+  </si>
+  <si>
+    <t>string:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ds1-loc1-jlr</t>
+  </si>
+  <si>
+    <t>ds1-loc2-jlr</t>
+  </si>
+  <si>
+    <t>ds1-loc3-jlr</t>
+  </si>
+  <si>
+    <t>ds2-loc1-jlr</t>
+  </si>
+  <si>
+    <t>ds2-loc2-jlr</t>
+  </si>
+  <si>
+    <t>ds2-loc3-jlr</t>
+  </si>
+  <si>
+    <t>ds3-loc1-jlr</t>
+  </si>
+  <si>
+    <t>ds3-loc2-jlr</t>
+  </si>
+  <si>
+    <t>ds3-loc3-jlr</t>
+  </si>
+  <si>
+    <t>ds4-loc1-jlr</t>
+  </si>
+  <si>
+    <t>ds4-loc2-jlr</t>
+  </si>
+  <si>
+    <t>ds4-loc3-jlr</t>
+  </si>
+  <si>
+    <t>ds5-loc1-jlr</t>
+  </si>
+  <si>
+    <t>ds5-loc2-jlr</t>
+  </si>
+  <si>
+    <t>ds5-loc3-jlr</t>
+  </si>
+  <si>
+    <t>ds6-loc1-jlr</t>
+  </si>
+  <si>
+    <t>ds6-loc2-jlr</t>
+  </si>
+  <si>
+    <t>ds6-loc3-jlr</t>
+  </si>
+  <si>
+    <t>ds7-loc1-jlr</t>
+  </si>
+  <si>
+    <t>ds7-loc2-jlr</t>
+  </si>
+  <si>
+    <t>ds7-loc3-jlr</t>
+  </si>
+  <si>
+    <t>ds8-loc1-jlr</t>
+  </si>
+  <si>
+    <t>ds8-loc2-jlr</t>
+  </si>
+  <si>
+    <t>ds8-loc3-jlr</t>
+  </si>
+  <si>
+    <t>ds9-loc1-jlr</t>
+  </si>
+  <si>
+    <t>ds9-loc2-jlr</t>
+  </si>
+  <si>
+    <t>ds9-loc3-jlr</t>
+  </si>
+  <si>
+    <t>tg1-loc1-jlr</t>
+  </si>
+  <si>
+    <t>tg1-loc2-jlr</t>
+  </si>
+  <si>
+    <t>tg1-loc3-jlr</t>
+  </si>
+  <si>
+    <t>tg2-loc1-jlr</t>
+  </si>
+  <si>
+    <t>tg2-loc2-jlr</t>
+  </si>
+  <si>
+    <t>tg2-loc3-jlr</t>
+  </si>
+  <si>
+    <t>tg3-loc1-jlr</t>
+  </si>
+  <si>
+    <t>tg3-loc2-jlr</t>
+  </si>
+  <si>
+    <t>tg3-loc3-jlr</t>
+  </si>
+  <si>
+    <t>tg4-loc1-jlr</t>
+  </si>
+  <si>
+    <t>tg4-loc2-jlr</t>
+  </si>
+  <si>
+    <t>tg4-loc3-jlr</t>
+  </si>
+  <si>
+    <t>tg5-loc1-jlr</t>
+  </si>
+  <si>
+    <t>tg5-loc2-jlr</t>
+  </si>
+  <si>
+    <t>tg5-loc3-jlr</t>
+  </si>
+  <si>
+    <t>tg6-loc1-jlr</t>
+  </si>
+  <si>
+    <t>tg6-loc2-jlr</t>
+  </si>
+  <si>
+    <t>tg6-loc3-jlr</t>
+  </si>
+  <si>
+    <t>xy-loc1-jlr</t>
+  </si>
+  <si>
+    <t>xy-loc2-jlr</t>
+  </si>
+  <si>
+    <t>xy-loc3-jlr</t>
+  </si>
+  <si>
+    <t>ui_dtex_Elingruqin_002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Elingruqin_003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChaIdx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrystallRcvFirst[1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrystallRcvFirst[2]</t>
+  </si>
+  <si>
+    <t>CrystallRcvFirst[3]</t>
+  </si>
+  <si>
+    <t>CrystallRcvFirst[4]</t>
+  </si>
+  <si>
+    <t>CrystallRcv[1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrystallRcv[2]</t>
+  </si>
+  <si>
+    <t>CrystallRcv[3]</t>
+  </si>
+  <si>
+    <t>CrystallRcv[4]</t>
+  </si>
+  <si>
+    <t>首回合红水晶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首回合黄水晶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首回合蓝水晶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他回合随机水晶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他回合红水晶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他回合黄水晶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他回合蓝水晶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;e|4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;e|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首回合随机水晶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器1-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>DropShow[2].Id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>掉落展示2ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>DropShow[2].Desc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1029,6 +1175,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>掉落展示3ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>DropShow[3].Desc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1041,255 +1191,119 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项羽技能</t>
-  </si>
-  <si>
-    <t>KeySkill</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_id:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心技能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>故事</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cardface_lftl_1102021</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>res:&lt;||Art\UI\DynamicTex\#png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_gjj2_1201005</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_shx_1102019</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_dw_1102003</t>
-  </si>
-  <si>
-    <t>head_xzz_1201010</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BgPic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scene</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map_chilianjie_4-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map_chilianjie_4-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map_chilianjie_4-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:&lt;</t>
-  </si>
-  <si>
-    <t>场景名</t>
-  </si>
-  <si>
-    <t>string:e&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ds1-loc1-jlr</t>
-  </si>
-  <si>
-    <t>ds1-loc2-jlr</t>
-  </si>
-  <si>
-    <t>ds1-loc3-jlr</t>
-  </si>
-  <si>
-    <t>ds2-loc1-jlr</t>
-  </si>
-  <si>
-    <t>ds2-loc2-jlr</t>
-  </si>
-  <si>
-    <t>ds2-loc3-jlr</t>
-  </si>
-  <si>
-    <t>ds3-loc1-jlr</t>
-  </si>
-  <si>
-    <t>ds3-loc2-jlr</t>
-  </si>
-  <si>
-    <t>ds3-loc3-jlr</t>
-  </si>
-  <si>
-    <t>ds4-loc1-jlr</t>
-  </si>
-  <si>
-    <t>ds4-loc2-jlr</t>
-  </si>
-  <si>
-    <t>ds4-loc3-jlr</t>
-  </si>
-  <si>
-    <t>ds5-loc1-jlr</t>
-  </si>
-  <si>
-    <t>ds5-loc2-jlr</t>
-  </si>
-  <si>
-    <t>ds5-loc3-jlr</t>
-  </si>
-  <si>
-    <t>ds6-loc1-jlr</t>
-  </si>
-  <si>
-    <t>ds6-loc2-jlr</t>
-  </si>
-  <si>
-    <t>ds6-loc3-jlr</t>
-  </si>
-  <si>
-    <t>ds7-loc1-jlr</t>
-  </si>
-  <si>
-    <t>ds7-loc2-jlr</t>
-  </si>
-  <si>
-    <t>ds7-loc3-jlr</t>
-  </si>
-  <si>
-    <t>ds8-loc1-jlr</t>
-  </si>
-  <si>
-    <t>ds8-loc2-jlr</t>
-  </si>
-  <si>
-    <t>ds8-loc3-jlr</t>
-  </si>
-  <si>
-    <t>ds9-loc1-jlr</t>
-  </si>
-  <si>
-    <t>ds9-loc2-jlr</t>
-  </si>
-  <si>
-    <t>ds9-loc3-jlr</t>
-  </si>
-  <si>
-    <t>tg1-loc1-jlr</t>
-  </si>
-  <si>
-    <t>tg1-loc2-jlr</t>
-  </si>
-  <si>
-    <t>tg1-loc3-jlr</t>
-  </si>
-  <si>
-    <t>tg2-loc1-jlr</t>
-  </si>
-  <si>
-    <t>tg2-loc2-jlr</t>
-  </si>
-  <si>
-    <t>tg2-loc3-jlr</t>
-  </si>
-  <si>
-    <t>tg3-loc1-jlr</t>
-  </si>
-  <si>
-    <t>tg3-loc2-jlr</t>
-  </si>
-  <si>
-    <t>tg3-loc3-jlr</t>
-  </si>
-  <si>
-    <t>tg4-loc1-jlr</t>
-  </si>
-  <si>
-    <t>tg4-loc2-jlr</t>
-  </si>
-  <si>
-    <t>tg4-loc3-jlr</t>
-  </si>
-  <si>
-    <t>tg5-loc1-jlr</t>
-  </si>
-  <si>
-    <t>tg5-loc2-jlr</t>
-  </si>
-  <si>
-    <t>tg5-loc3-jlr</t>
-  </si>
-  <si>
-    <t>tg6-loc1-jlr</t>
-  </si>
-  <si>
-    <t>tg6-loc2-jlr</t>
-  </si>
-  <si>
-    <t>tg6-loc3-jlr</t>
-  </si>
-  <si>
-    <t>xy-loc1-jlr</t>
-  </si>
-  <si>
-    <t>xy-loc2-jlr</t>
-  </si>
-  <si>
-    <t>xy-loc3-jlr</t>
-  </si>
-  <si>
-    <t>ui_dtex_Elingruqin_002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_dtex_Elingruqin_003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChaIdx</t>
+    <t>DropShow[5].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[5].Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[6].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[6].Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落展示4描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落展示5ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落展示5描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落展示6ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落展示6描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>神器1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>神器2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器3-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器3-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器3-6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器5-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器6-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器6-4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器6-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器6-4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器6-8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1842,18 +1856,18 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="G2" s="2" t="b">
         <v>1</v>
@@ -1862,18 +1876,18 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G3" s="2" t="b">
         <v>1</v>
@@ -1882,14 +1896,14 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2"/>
@@ -1900,14 +1914,14 @@
     </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1985,10 +1999,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1131"/>
+  <dimension ref="A1:T1131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2000,24 +2014,24 @@
     <col min="7" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="60.875" customWidth="1"/>
     <col min="9" max="9" width="17.375" customWidth="1"/>
-    <col min="10" max="10" width="21.25" customWidth="1"/>
-    <col min="11" max="11" width="19.125" customWidth="1"/>
-    <col min="12" max="12" width="19.75" customWidth="1"/>
-    <col min="13" max="13" width="19.875" customWidth="1"/>
-    <col min="14" max="14" width="19.75" customWidth="1"/>
-    <col min="15" max="15" width="18.125" customWidth="1"/>
-    <col min="16" max="16" width="21.375" customWidth="1"/>
+    <col min="10" max="14" width="21.25" customWidth="1"/>
+    <col min="15" max="15" width="19.125" customWidth="1"/>
+    <col min="16" max="16" width="19.75" customWidth="1"/>
+    <col min="17" max="17" width="19.875" customWidth="1"/>
+    <col min="18" max="18" width="19.75" customWidth="1"/>
+    <col min="19" max="19" width="18.125" customWidth="1"/>
+    <col min="20" max="20" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>8</v>
@@ -2026,45 +2040,57 @@
         <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>227</v>
+        <v>301</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>230</v>
+        <v>306</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -2076,10 +2102,10 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="G2" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -2088,28 +2114,40 @@
         <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="K2" t="s">
         <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="M2" t="s">
         <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="O2" t="s">
         <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>202</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -2117,7 +2155,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -2126,7 +2164,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
@@ -2139,25 +2177,37 @@
         <v>37</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="O3" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2165,7 +2215,7 @@
         <v>501</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
@@ -2174,36 +2224,48 @@
         <v>35</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
+        <v>300</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="L4" s="2">
+        <v>319</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P4" s="2">
         <v>5</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="Q4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R4" s="2">
         <v>3000</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2211,7 +2273,7 @@
         <v>502</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
@@ -2220,36 +2282,48 @@
         <v>40</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
+        <v>300</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="L5" s="2">
+        <v>319</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P5" s="2">
         <v>10</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="N5" s="2">
+      <c r="Q5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R5" s="2">
         <v>3750</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2257,7 +2331,7 @@
         <v>503</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -2266,36 +2340,48 @@
         <v>45</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="J6" s="2">
-        <v>2</v>
+        <v>323</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="L6" s="2">
+        <v>324</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P6" s="2">
         <v>15</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="N6" s="2">
+      <c r="Q6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R6" s="2">
         <v>4800</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2303,7 +2389,7 @@
         <v>504</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
@@ -2312,36 +2398,48 @@
         <v>50</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2</v>
+        <v>323</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="L7" s="2">
+        <v>324</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P7" s="2">
         <v>20</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R7" s="2">
         <v>6000</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2349,7 +2447,7 @@
         <v>505</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
@@ -2358,40 +2456,52 @@
         <v>60</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
+        <v>323</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="L8" s="2">
+        <v>324</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P8" s="2">
         <v>20</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="N8" s="2">
+      <c r="Q8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="R8" s="2">
         <v>3</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="P8" s="2">
+      <c r="S8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="T8" s="2">
         <v>7500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2399,7 +2509,7 @@
         <v>506</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
@@ -2408,40 +2518,52 @@
         <v>70</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>217</v>
+        <v>326</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>139</v>
+        <v>318</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="L9" s="2">
+        <v>327</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P9" s="2">
         <v>20</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="N9" s="2">
+      <c r="Q9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="R9" s="2">
         <v>5</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="P9" s="2">
+      <c r="S9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="T9" s="2">
         <v>9000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2449,7 +2571,7 @@
         <v>507</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2">
         <v>5</v>
@@ -2458,40 +2580,52 @@
         <v>70</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>218</v>
+        <v>326</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>139</v>
+        <v>318</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="L10" s="2">
+        <v>327</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P10" s="2">
         <v>20</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="N10" s="2">
+      <c r="Q10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="R10" s="2">
         <v>5</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="P10" s="2">
+      <c r="S10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="T10" s="2">
         <v>9000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2499,7 +2633,7 @@
         <v>508</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
@@ -2508,40 +2642,52 @@
         <v>70</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>219</v>
+        <v>326</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>139</v>
+        <v>318</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="L11" s="2">
+        <v>327</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P11" s="2">
         <v>20</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="N11" s="2">
+      <c r="Q11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="R11" s="2">
         <v>5</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="P11" s="2">
+      <c r="S11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="T11" s="2">
         <v>9000</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2549,7 +2695,7 @@
         <v>509</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D12" s="2">
         <v>5</v>
@@ -2558,40 +2704,52 @@
         <v>80</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>216</v>
+        <v>326</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>140</v>
+        <v>318</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="L12" s="2">
+        <v>327</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P12" s="2">
         <v>20</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="Q12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="R12" s="2">
         <v>7</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="P12" s="2">
+      <c r="S12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="T12" s="2">
         <v>10800</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2599,7 +2757,7 @@
         <v>510</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D13" s="2">
         <v>5</v>
@@ -2608,40 +2766,52 @@
         <v>100</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>220</v>
+        <v>329</v>
       </c>
       <c r="J13" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P13" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="R13" s="2">
+        <v>10</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="L13" s="2">
-        <v>20</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="N13" s="2">
-        <v>10</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="P13" s="2">
+      <c r="T13" s="2">
         <v>13500</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2649,7 +2819,7 @@
         <v>511</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D14" s="2">
         <v>5</v>
@@ -2658,40 +2828,52 @@
         <v>100</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>221</v>
+        <v>329</v>
       </c>
       <c r="J14" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P14" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="R14" s="2">
+        <v>10</v>
+      </c>
+      <c r="S14" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="L14" s="2">
-        <v>20</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="N14" s="2">
-        <v>10</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="P14" s="2">
+      <c r="T14" s="2">
         <v>13500</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2699,7 +2881,7 @@
         <v>512</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D15" s="2">
         <v>5</v>
@@ -2708,40 +2890,52 @@
         <v>100</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>217</v>
+        <v>329</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>142</v>
+        <v>318</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="L15" s="2">
+        <v>330</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P15" s="2">
         <v>20</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="N15" s="2">
+      <c r="Q15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="R15" s="2">
         <v>10</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="P15" s="2">
+      <c r="S15" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="T15" s="2">
         <v>13500</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2749,7 +2943,7 @@
         <v>513</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D16" s="2">
         <v>5</v>
@@ -2758,40 +2952,52 @@
         <v>110</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>218</v>
+        <v>329</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>143</v>
+        <v>318</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="L16" s="2">
+        <v>330</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="P16" s="2">
         <v>5</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="N16" s="2">
+      <c r="Q16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R16" s="2">
         <v>3</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="P16" s="2">
+      <c r="S16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="T16" s="2">
         <v>16500</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2799,7 +3005,7 @@
         <v>514</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D17" s="2">
         <v>5</v>
@@ -2808,40 +3014,52 @@
         <v>120</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>144</v>
+        <v>318</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="L17" s="2">
+        <v>330</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="P17" s="2">
         <v>5</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="N17" s="2">
+      <c r="Q17" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R17" s="2">
         <v>5</v>
       </c>
-      <c r="O17" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="P17" s="2">
+      <c r="S17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="T17" s="2">
         <v>19500</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2849,7 +3067,7 @@
         <v>515</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D18" s="2">
         <v>5</v>
@@ -2858,40 +3076,52 @@
         <v>130</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>145</v>
+        <v>318</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="L18" s="2">
+        <v>330</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="P18" s="2">
         <v>5</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="N18" s="2">
+      <c r="Q18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R18" s="2">
         <v>7</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="P18" s="2">
+      <c r="S18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="T18" s="2">
         <v>22500</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2899,7 +3129,7 @@
         <v>516</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D19" s="2">
         <v>4</v>
@@ -2908,36 +3138,48 @@
         <v>140</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>146</v>
+        <v>318</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="L19" s="2">
+        <v>330</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="2">
         <v>5</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="N19" s="2">
+      <c r="Q19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R19" s="2">
         <v>10</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="P19" s="2">
+      <c r="S19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="T19" s="2">
         <v>26250</v>
       </c>
     </row>
@@ -2958,10 +3200,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:AD82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2973,79 +3215,103 @@
     <col min="6" max="6" width="26.625" customWidth="1"/>
     <col min="7" max="7" width="12.25" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
-    <col min="10" max="11" width="16.625" customWidth="1"/>
-    <col min="12" max="12" width="15.875" customWidth="1"/>
-    <col min="13" max="13" width="17.5" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="18.125" customWidth="1"/>
+    <col min="9" max="17" width="12.25" customWidth="1"/>
+    <col min="18" max="19" width="16.625" customWidth="1"/>
+    <col min="20" max="20" width="15.875" customWidth="1"/>
+    <col min="21" max="21" width="17.5" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F2" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="G2" t="s">
         <v>31</v>
@@ -3054,28 +3320,52 @@
         <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="J2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L2" t="s">
+        <v>298</v>
+      </c>
+      <c r="M2" t="s">
+        <v>298</v>
+      </c>
+      <c r="N2" t="s">
+        <v>297</v>
+      </c>
+      <c r="O2" t="s">
+        <v>298</v>
+      </c>
+      <c r="P2" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>298</v>
+      </c>
+      <c r="R2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="S2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="T2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="U2" t="s">
+        <v>146</v>
+      </c>
+      <c r="V2" t="s">
+        <v>147</v>
+      </c>
+      <c r="W2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -3086,43 +3376,67 @@
         <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>101</v>
       </c>
@@ -3134,53 +3448,61 @@
         <v>501</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4" s="3" t="str">
         <f>G4&amp;"的那些小故事"</f>
         <v>地狗星的那些小故事</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="T4" t="s">
-        <v>257</v>
-      </c>
-      <c r="U4" t="s">
-        <v>258</v>
-      </c>
-      <c r="V4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>102</v>
       </c>
@@ -3192,53 +3514,61 @@
         <v>501</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" ref="H5:H68" si="1">G5&amp;"的那些小故事"</f>
         <v>地劣星的那些小故事</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD5" t="s">
         <v>235</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="T5" t="s">
-        <v>260</v>
-      </c>
-      <c r="U5" t="s">
-        <v>261</v>
-      </c>
-      <c r="V5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>103</v>
       </c>
@@ -3250,53 +3580,61 @@
         <v>501</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地奴星的那些小故事</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="T6" t="s">
-        <v>263</v>
-      </c>
-      <c r="U6" t="s">
-        <v>264</v>
-      </c>
-      <c r="V6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>104</v>
       </c>
@@ -3308,53 +3646,61 @@
         <v>501</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E7" s="3">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地损星的那些小故事</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="T7" t="s">
-        <v>266</v>
-      </c>
-      <c r="U7" t="s">
-        <v>267</v>
-      </c>
-      <c r="V7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>105</v>
       </c>
@@ -3366,53 +3712,61 @@
         <v>501</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E8" s="3">
         <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地贼星的那些小故事</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="T8" t="s">
-        <v>269</v>
-      </c>
-      <c r="U8" t="s">
-        <v>270</v>
-      </c>
-      <c r="V8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>201</v>
       </c>
@@ -3424,53 +3778,61 @@
         <v>502</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地短星的那些小故事</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="T9" t="s">
-        <v>272</v>
-      </c>
-      <c r="U9" t="s">
-        <v>273</v>
-      </c>
-      <c r="V9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>202</v>
       </c>
@@ -3482,53 +3844,61 @@
         <v>502</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地囚星的那些小故事</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="T10" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="T10" t="s">
-        <v>275</v>
-      </c>
-      <c r="U10" t="s">
-        <v>276</v>
-      </c>
-      <c r="V10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>203</v>
       </c>
@@ -3540,53 +3910,61 @@
         <v>502</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E11" s="3">
         <v>3</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地微星的那些小故事</v>
       </c>
       <c r="I11" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="T11" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="T11" t="s">
-        <v>278</v>
-      </c>
-      <c r="U11" t="s">
-        <v>279</v>
-      </c>
-      <c r="V11" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U11" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>204</v>
       </c>
@@ -3598,53 +3976,61 @@
         <v>502</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E12" s="3">
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地退星的那些小故事</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="T12" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="T12" t="s">
-        <v>281</v>
-      </c>
-      <c r="U12" t="s">
-        <v>282</v>
-      </c>
-      <c r="V12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>254</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>205</v>
       </c>
@@ -3656,53 +4042,61 @@
         <v>502</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地猖星的那些小故事</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="T13" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="T13" t="s">
-        <v>284</v>
-      </c>
-      <c r="U13" t="s">
-        <v>285</v>
-      </c>
-      <c r="V13" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U13" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>301</v>
       </c>
@@ -3714,53 +4108,61 @@
         <v>503</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地僻星的那些小故事</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="T14" t="s">
-        <v>287</v>
-      </c>
-      <c r="U14" t="s">
-        <v>288</v>
-      </c>
-      <c r="V14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>302</v>
       </c>
@@ -3772,53 +4174,61 @@
         <v>503</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地空星的那些小故事</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J15" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB15" t="s">
         <v>263</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="AC15" t="s">
         <v>264</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="AD15" t="s">
         <v>265</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="T15" t="s">
-        <v>290</v>
-      </c>
-      <c r="U15" t="s">
-        <v>291</v>
-      </c>
-      <c r="V15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>303</v>
       </c>
@@ -3830,53 +4240,61 @@
         <v>503</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地恶星的那些小故事</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="T16" t="s">
-        <v>293</v>
-      </c>
-      <c r="U16" t="s">
-        <v>294</v>
-      </c>
-      <c r="V16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>304</v>
       </c>
@@ -3888,53 +4306,61 @@
         <v>503</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E17" s="3">
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地走星的那些小故事</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="T17" t="s">
-        <v>296</v>
-      </c>
-      <c r="U17" t="s">
-        <v>297</v>
-      </c>
-      <c r="V17" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>270</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>305</v>
       </c>
@@ -3946,53 +4372,61 @@
         <v>503</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E18" s="3">
         <v>5</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地伏星的那些小故事</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="T18" t="s">
-        <v>299</v>
-      </c>
-      <c r="U18" t="s">
-        <v>300</v>
-      </c>
-      <c r="V18" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>401</v>
       </c>
@@ -4004,53 +4438,61 @@
         <v>504</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地孤星的那些小故事</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="T19" t="s">
-        <v>302</v>
-      </c>
-      <c r="U19" t="s">
-        <v>303</v>
-      </c>
-      <c r="V19" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>402</v>
       </c>
@@ -4062,44 +4504,52 @@
         <v>504</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地刑星的那些小故事</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>403</v>
       </c>
@@ -4111,44 +4561,52 @@
         <v>504</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地妖星的那些小故事</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>404</v>
       </c>
@@ -4160,44 +4618,52 @@
         <v>504</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E22" s="3">
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地角星的那些小故事</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>405</v>
       </c>
@@ -4209,44 +4675,52 @@
         <v>504</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E23" s="3">
         <v>5</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地兽星的那些小故事</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>501</v>
       </c>
@@ -4258,44 +4732,52 @@
         <v>505</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地异星的那些小故事</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>502</v>
       </c>
@@ -4307,44 +4789,52 @@
         <v>505</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E25" s="3">
         <v>2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地暗星的那些小故事</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>503</v>
       </c>
@@ -4356,44 +4846,52 @@
         <v>505</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地隧星的那些小故事</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>504</v>
       </c>
@@ -4405,44 +4903,52 @@
         <v>505</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E27" s="3">
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地戚星的那些小故事</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>505</v>
       </c>
@@ -4454,44 +4960,52 @@
         <v>505</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E28" s="3">
         <v>5</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地默星的那些小故事</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>601</v>
       </c>
@@ -4503,44 +5017,52 @@
         <v>506</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地文星的那些小故事</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>602</v>
       </c>
@@ -4552,44 +5074,52 @@
         <v>506</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E30" s="3">
         <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地巧星的那些小故事</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>603</v>
       </c>
@@ -4601,44 +5131,52 @@
         <v>506</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E31" s="3">
         <v>3</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地健星的那些小故事</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>604</v>
       </c>
@@ -4650,44 +5188,52 @@
         <v>506</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E32" s="3">
         <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地壮星的那些小故事</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>605</v>
       </c>
@@ -4699,44 +5245,52 @@
         <v>506</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E33" s="3">
         <v>5</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地飞星的那些小故事</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>701</v>
       </c>
@@ -4748,44 +5302,52 @@
         <v>507</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地阴星的那些小故事</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>702</v>
       </c>
@@ -4797,44 +5359,52 @@
         <v>507</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E35" s="3">
         <v>2</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地幽星的那些小故事</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>703</v>
       </c>
@@ -4846,44 +5416,52 @@
         <v>507</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E36" s="3">
         <v>3</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地羁星的那些小故事</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="W36" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>704</v>
       </c>
@@ -4895,44 +5473,52 @@
         <v>507</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E37" s="3">
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地魂星的那些小故事</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>705</v>
       </c>
@@ -4944,44 +5530,52 @@
         <v>507</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E38" s="3">
         <v>5</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H38" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地魔星的那些小故事</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="W38" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>801</v>
       </c>
@@ -4993,44 +5587,52 @@
         <v>508</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H39" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地猛星的那些小故事</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="W39" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>802</v>
       </c>
@@ -5042,44 +5644,52 @@
         <v>508</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H40" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地俊星的那些小故事</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="W40" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>803</v>
       </c>
@@ -5091,44 +5701,52 @@
         <v>508</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E41" s="3">
         <v>3</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地勇星的那些小故事</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>804</v>
       </c>
@@ -5140,44 +5758,52 @@
         <v>508</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E42" s="3">
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地全星的那些小故事</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>805</v>
       </c>
@@ -5189,44 +5815,52 @@
         <v>508</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E43" s="3">
         <v>5</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地正星的那些小故事</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>901</v>
       </c>
@@ -5238,44 +5872,52 @@
         <v>509</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E44" s="3">
         <v>1</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H44" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地魁星的那些小故事</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>902</v>
       </c>
@@ -5287,44 +5929,52 @@
         <v>509</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H45" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地杰星的那些小故事</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>903</v>
       </c>
@@ -5336,44 +5986,52 @@
         <v>509</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E46" s="3">
         <v>3</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地雄星的那些小故事</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>904</v>
       </c>
@@ -5385,44 +6043,52 @@
         <v>509</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E47" s="3">
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地英星的那些小故事</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>905</v>
       </c>
@@ -5434,44 +6100,52 @@
         <v>509</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E48" s="3">
         <v>5</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地威星的那些小故事</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>1001</v>
       </c>
@@ -5483,44 +6157,52 @@
         <v>510</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E49" s="3">
         <v>1</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天巧星的那些小故事</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>1002</v>
       </c>
@@ -5532,44 +6214,52 @@
         <v>510</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E50" s="3">
         <v>2</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天暴星的那些小故事</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="O50" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="U50" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="V50" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="W50" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>1003</v>
       </c>
@@ -5581,44 +6271,52 @@
         <v>510</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E51" s="3">
         <v>3</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天牢星的那些小故事</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="O51" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="U51" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="V51" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="W51" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>1004</v>
       </c>
@@ -5630,44 +6328,52 @@
         <v>510</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E52" s="3">
         <v>4</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天慧星的那些小故事</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>1005</v>
       </c>
@@ -5679,44 +6385,52 @@
         <v>510</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E53" s="3">
         <v>5</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天哭星的那些小故事</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="O53" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="U53" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="V53" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="W53" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>1101</v>
       </c>
@@ -5728,44 +6442,52 @@
         <v>511</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H54" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天败星的那些小故事</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>1102</v>
       </c>
@@ -5777,44 +6499,52 @@
         <v>511</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H55" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天罪星的那些小故事</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="O55" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U55" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="V55" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="W55" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>1103</v>
       </c>
@@ -5826,44 +6556,52 @@
         <v>511</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E56" s="3">
         <v>3</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H56" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天剑星的那些小故事</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="O56" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U56" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="V56" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="W56" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>1104</v>
       </c>
@@ -5875,44 +6613,52 @@
         <v>511</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E57" s="3">
         <v>4</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H57" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天平星的那些小故事</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>1105</v>
       </c>
@@ -5924,44 +6670,52 @@
         <v>511</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E58" s="3">
         <v>5</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H58" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天损星的那些小故事</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>1201</v>
       </c>
@@ -5973,44 +6727,52 @@
         <v>512</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E59" s="3">
         <v>1</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H59" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天寿星的那些小故事</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N59" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="W59" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>1202</v>
       </c>
@@ -6022,44 +6784,52 @@
         <v>512</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E60" s="3">
         <v>2</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天究星的那些小故事</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N60" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="W60" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>1203</v>
       </c>
@@ -6071,44 +6841,52 @@
         <v>512</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E61" s="3">
         <v>3</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H61" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天杀星的那些小故事</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N61" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="U61" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="V61" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="W61" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="O61" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>1204</v>
       </c>
@@ -6120,44 +6898,52 @@
         <v>512</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E62" s="3">
         <v>4</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H62" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天微星的那些小故事</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N62" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="W62" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>1205</v>
       </c>
@@ -6169,44 +6955,52 @@
         <v>512</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E63" s="3">
         <v>5</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天退星的那些小故事</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N63" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="U63" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="V63" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="W63" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="O63" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>1301</v>
       </c>
@@ -6218,44 +7012,52 @@
         <v>513</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天异星的那些小故事</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="O64" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="U64" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="V64" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="W64" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>1302</v>
       </c>
@@ -6267,44 +7069,52 @@
         <v>513</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E65" s="3">
         <v>2</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天空星的那些小故事</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="N65" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="O65" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="S65" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="T65" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="U65" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="V65" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="W65" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>1303</v>
       </c>
@@ -6316,44 +7126,52 @@
         <v>513</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E66" s="3">
         <v>3</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H66" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天暗星的那些小故事</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>1304</v>
       </c>
@@ -6365,44 +7183,52 @@
         <v>513</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E67" s="3">
         <v>4</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H67" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天佑星的那些小故事</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="N67" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="O67" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="U67" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="V67" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="W67" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>1305</v>
       </c>
@@ -6414,44 +7240,52 @@
         <v>513</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E68" s="3">
         <v>5</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天速星的那些小故事</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="M68" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="O68" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="U68" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="V68" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="W68" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>1401</v>
       </c>
@@ -6463,44 +7297,52 @@
         <v>514</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H69" s="3" t="str">
         <f t="shared" ref="H69:H82" si="3">G69&amp;"的那些小故事"</f>
         <v>天捷星的那些小故事</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="N69" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O69" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="S69" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="U69" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="V69" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="W69" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>1402</v>
       </c>
@@ -6512,44 +7354,52 @@
         <v>514</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E70" s="3">
         <v>2</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H70" s="3" t="str">
         <f t="shared" si="3"/>
         <v>天伤星的那些小故事</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="M70" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="N70" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O70" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="S70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="U70" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="V70" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="W70" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>1403</v>
       </c>
@@ -6561,44 +7411,52 @@
         <v>514</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E71" s="3">
         <v>3</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H71" s="3" t="str">
         <f t="shared" si="3"/>
         <v>天满星的那些小故事</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="M71" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="N71" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O71" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="U71" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="V71" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="W71" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>1404</v>
       </c>
@@ -6610,44 +7468,52 @@
         <v>514</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E72" s="3">
         <v>4</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H72" s="3" t="str">
         <f t="shared" si="3"/>
         <v>天孤星的那些小故事</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>1405</v>
       </c>
@@ -6659,44 +7525,52 @@
         <v>514</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E73" s="3">
         <v>5</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H73" s="3" t="str">
         <f t="shared" si="3"/>
         <v>天立星的那些小故事</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="M73" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="N73" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O73" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="S73" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="T73" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="U73" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="V73" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="W73" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>1501</v>
       </c>
@@ -6708,44 +7582,52 @@
         <v>515</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E74" s="3">
         <v>1</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H74" s="3" t="str">
         <f t="shared" si="3"/>
         <v>天富星的那些小故事</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="N74" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O74" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="S74" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="U74" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="V74" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="W74" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>1502</v>
       </c>
@@ -6757,44 +7639,52 @@
         <v>515</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E75" s="3">
         <v>2</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H75" s="3" t="str">
         <f t="shared" si="3"/>
         <v>天勇星的那些小故事</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="M75" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="N75" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O75" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="S75" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="U75" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="V75" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="W75" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>1503</v>
       </c>
@@ -6806,44 +7696,52 @@
         <v>515</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E76" s="3">
         <v>3</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H76" s="3" t="str">
         <f t="shared" si="3"/>
         <v>天魁星的那些小故事</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>1504</v>
       </c>
@@ -6855,44 +7753,52 @@
         <v>515</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E77" s="3">
         <v>4</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H77" s="3" t="str">
         <f t="shared" si="3"/>
         <v>天机星的那些小故事</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="M77" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="N77" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O77" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="S77" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="U77" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="V77" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="W77" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>1505</v>
       </c>
@@ -6904,44 +7810,52 @@
         <v>515</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E78" s="3">
         <v>5</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H78" s="3" t="str">
         <f t="shared" si="3"/>
         <v>天雄星的那些小故事</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="M78" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="N78" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O78" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="U78" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="V78" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="W78" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>1601</v>
       </c>
@@ -6953,44 +7867,52 @@
         <v>516</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E79" s="3">
         <v>1</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H79" s="3" t="str">
         <f t="shared" si="3"/>
         <v>七杀星的那些小故事</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="M79" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="N79" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="O79" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="S79" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="U79" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="V79" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="W79" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>1602</v>
       </c>
@@ -7002,44 +7924,52 @@
         <v>516</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E80" s="3">
         <v>2</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H80" s="3" t="str">
         <f t="shared" si="3"/>
         <v>破军星的那些小故事</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="M80" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="N80" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="O80" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="U80" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="V80" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="W80" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>1603</v>
       </c>
@@ -7051,44 +7981,52 @@
         <v>516</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E81" s="3">
         <v>3</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H81" s="3" t="str">
         <f t="shared" si="3"/>
         <v>太白星的那些小故事</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="W81" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>1604</v>
       </c>
@@ -7100,41 +8038,49 @@
         <v>516</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E82" s="3">
         <v>4</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H82" s="3" t="str">
         <f t="shared" si="3"/>
         <v>荧惑星的那些小故事</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="M82" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="N82" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="O82" s="3" t="s">
-        <v>193</v>
+        <v>208</v>
+      </c>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="S82" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="U82" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="V82" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="W82" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/wBoss.世界BOSS.xlsx
+++ b/Excel/镇魂街/wBoss.世界BOSS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="336">
   <si>
     <t>sheet名</t>
   </si>
@@ -142,10 +142,6 @@
   </si>
   <si>
     <t>怪物[3].寄灵人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:&lt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1304,6 +1300,26 @@
   </si>
   <si>
     <t>神器6-8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cstring:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cstring:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cstring:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cstring:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cstring:&lt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1856,18 +1872,18 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G2" s="2" t="b">
         <v>1</v>
@@ -1876,18 +1892,18 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G3" s="2" t="b">
         <v>1</v>
@@ -1896,14 +1912,14 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2"/>
@@ -1914,14 +1930,14 @@
     </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2001,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2025,13 +2041,13 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>8</v>
@@ -2040,60 +2056,60 @@
         <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>304</v>
-      </c>
       <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>334</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -2102,49 +2118,49 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>202</v>
+        <v>331</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>202</v>
+        <v>332</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>202</v>
+        <v>333</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.2">
@@ -2155,7 +2171,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -2164,47 +2180,47 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="O3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P3" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -2215,7 +2231,7 @@
         <v>501</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
@@ -2224,40 +2240,40 @@
         <v>35</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>322</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P4" s="2">
         <v>5</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R4" s="2">
         <v>3000</v>
@@ -2273,7 +2289,7 @@
         <v>502</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
@@ -2282,40 +2298,40 @@
         <v>40</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>322</v>
-      </c>
       <c r="O5" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P5" s="2">
         <v>10</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R5" s="2">
         <v>3750</v>
@@ -2331,7 +2347,7 @@
         <v>503</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -2340,40 +2356,40 @@
         <v>45</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="N6" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P6" s="2">
         <v>15</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R6" s="2">
         <v>4800</v>
@@ -2389,7 +2405,7 @@
         <v>504</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
@@ -2398,40 +2414,40 @@
         <v>50</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="N7" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P7" s="2">
         <v>20</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R7" s="2">
         <v>6000</v>
@@ -2447,7 +2463,7 @@
         <v>505</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
@@ -2456,46 +2472,46 @@
         <v>60</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="N8" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P8" s="2">
         <v>20</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R8" s="2">
         <v>3</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T8" s="2">
         <v>7500</v>
@@ -2509,7 +2525,7 @@
         <v>506</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
@@ -2518,46 +2534,46 @@
         <v>70</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>328</v>
-      </c>
       <c r="N9" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P9" s="2">
         <v>20</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R9" s="2">
         <v>5</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T9" s="2">
         <v>9000</v>
@@ -2571,7 +2587,7 @@
         <v>507</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" s="2">
         <v>5</v>
@@ -2580,46 +2596,46 @@
         <v>70</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>328</v>
-      </c>
       <c r="N10" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P10" s="2">
         <v>20</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R10" s="2">
         <v>5</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T10" s="2">
         <v>9000</v>
@@ -2633,7 +2649,7 @@
         <v>508</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
@@ -2642,46 +2658,46 @@
         <v>70</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>328</v>
-      </c>
       <c r="N11" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P11" s="2">
         <v>20</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R11" s="2">
         <v>5</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T11" s="2">
         <v>9000</v>
@@ -2695,7 +2711,7 @@
         <v>509</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="2">
         <v>5</v>
@@ -2704,46 +2720,46 @@
         <v>80</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>328</v>
-      </c>
       <c r="N12" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P12" s="2">
         <v>20</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R12" s="2">
         <v>7</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T12" s="2">
         <v>10800</v>
@@ -2757,7 +2773,7 @@
         <v>510</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="2">
         <v>5</v>
@@ -2766,46 +2782,46 @@
         <v>100</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="N13" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P13" s="2">
         <v>20</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R13" s="2">
         <v>10</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T13" s="2">
         <v>13500</v>
@@ -2819,7 +2835,7 @@
         <v>511</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D14" s="2">
         <v>5</v>
@@ -2828,46 +2844,46 @@
         <v>100</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="N14" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P14" s="2">
         <v>20</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R14" s="2">
         <v>10</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T14" s="2">
         <v>13500</v>
@@ -2881,7 +2897,7 @@
         <v>512</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15" s="2">
         <v>5</v>
@@ -2890,46 +2906,46 @@
         <v>100</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="N15" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P15" s="2">
         <v>20</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R15" s="2">
         <v>10</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T15" s="2">
         <v>13500</v>
@@ -2943,7 +2959,7 @@
         <v>513</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" s="2">
         <v>5</v>
@@ -2952,46 +2968,46 @@
         <v>110</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="N16" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P16" s="2">
         <v>5</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R16" s="2">
         <v>3</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T16" s="2">
         <v>16500</v>
@@ -3005,7 +3021,7 @@
         <v>514</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D17" s="2">
         <v>5</v>
@@ -3014,46 +3030,46 @@
         <v>120</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I17" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="N17" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P17" s="2">
         <v>5</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R17" s="2">
         <v>5</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T17" s="2">
         <v>19500</v>
@@ -3067,7 +3083,7 @@
         <v>515</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D18" s="2">
         <v>5</v>
@@ -3076,46 +3092,46 @@
         <v>130</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="N18" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P18" s="2">
         <v>5</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R18" s="2">
         <v>7</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T18" s="2">
         <v>22500</v>
@@ -3129,7 +3145,7 @@
         <v>516</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D19" s="2">
         <v>4</v>
@@ -3138,46 +3154,46 @@
         <v>140</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I19" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="N19" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P19" s="2">
         <v>5</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R19" s="2">
         <v>10</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T19" s="2">
         <v>26250</v>
@@ -3202,8 +3218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3228,52 +3244,52 @@
         <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>23</v>
@@ -3285,66 +3301,66 @@
         <v>25</v>
       </c>
       <c r="U1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="V1" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="W1" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>334</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>335</v>
       </c>
       <c r="I2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K2" t="s">
         <v>297</v>
       </c>
-      <c r="K2" t="s">
-        <v>298</v>
-      </c>
       <c r="L2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N2" t="s">
+        <v>296</v>
+      </c>
+      <c r="O2" t="s">
         <v>297</v>
       </c>
-      <c r="O2" t="s">
-        <v>298</v>
-      </c>
       <c r="P2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R2" t="s">
         <v>26</v>
@@ -3356,66 +3372,66 @@
         <v>27</v>
       </c>
       <c r="U2" t="s">
+        <v>145</v>
+      </c>
+      <c r="V2" t="s">
         <v>146</v>
       </c>
-      <c r="V2" t="s">
-        <v>147</v>
-      </c>
       <c r="W2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>28</v>
@@ -3427,13 +3443,13 @@
         <v>30</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="W3" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -3448,23 +3464,23 @@
         <v>501</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="3" t="str">
         <f>G4&amp;"的那些小故事"</f>
         <v>地狗星的那些小故事</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -3475,31 +3491,31 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="U4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="V4" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="W4" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC4" t="s">
         <v>230</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>231</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -3514,23 +3530,23 @@
         <v>501</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" ref="H5:H68" si="1">G5&amp;"的那些小故事"</f>
         <v>地劣星的那些小故事</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -3541,31 +3557,31 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB5" t="s">
         <v>232</v>
       </c>
-      <c r="U5" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>233</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>234</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -3580,23 +3596,23 @@
         <v>501</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地奴星的那些小故事</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -3607,31 +3623,31 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="U6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="V6" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="V6" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="W6" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC6" t="s">
         <v>236</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>237</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -3646,23 +3662,23 @@
         <v>501</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E7" s="3">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地损星的那些小故事</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -3673,31 +3689,31 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="U7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="V7" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="V7" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="W7" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB7" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC7" t="s">
         <v>239</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>240</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -3712,23 +3728,23 @@
         <v>501</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E8" s="3">
         <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地贼星的那些小故事</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -3739,31 +3755,31 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S8" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="T8" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="U8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="V8" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="W8" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB8" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC8" t="s">
         <v>242</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>243</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -3778,23 +3794,23 @@
         <v>502</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地短星的那些小故事</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -3805,31 +3821,31 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="T9" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="U9" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="W9" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB9" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC9" t="s">
         <v>245</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>246</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -3844,23 +3860,23 @@
         <v>502</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地囚星的那些小故事</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -3871,31 +3887,31 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="S10" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="T10" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="U10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="V10" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="W10" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB10" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC10" t="s">
         <v>248</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>249</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -3910,23 +3926,23 @@
         <v>502</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E11" s="3">
         <v>3</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地微星的那些小故事</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -3937,31 +3953,31 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="T11" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="U11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="V11" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="V11" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="W11" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB11" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC11" t="s">
         <v>251</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>252</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -3976,23 +3992,23 @@
         <v>502</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E12" s="3">
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地退星的那些小故事</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -4003,31 +4019,31 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="S12" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="T12" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="T12" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="U12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="V12" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="W12" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB12" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC12" t="s">
         <v>254</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>255</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -4042,23 +4058,23 @@
         <v>502</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地猖星的那些小故事</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -4069,31 +4085,31 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="T13" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="U13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="V13" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="V13" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="W13" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB13" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC13" t="s">
         <v>257</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>258</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -4108,23 +4124,23 @@
         <v>503</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地僻星的那些小故事</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -4135,31 +4151,31 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="S14" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="T14" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="T14" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="U14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="W14" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB14" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC14" t="s">
         <v>260</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>261</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -4174,23 +4190,23 @@
         <v>503</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地空星的那些小故事</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -4201,31 +4217,31 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="S15" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="T15" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="T15" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="U15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="V15" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="W15" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC15" t="s">
         <v>263</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>264</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -4240,23 +4256,23 @@
         <v>503</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地恶星的那些小故事</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -4267,31 +4283,31 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="S16" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="T16" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="T16" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="U16" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="V16" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="V16" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="W16" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB16" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC16" t="s">
         <v>266</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>267</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -4306,23 +4322,23 @@
         <v>503</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E17" s="3">
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地走星的那些小故事</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -4333,31 +4349,31 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="S17" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="T17" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="T17" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="U17" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="V17" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="W17" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB17" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC17" t="s">
         <v>269</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>270</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -4372,23 +4388,23 @@
         <v>503</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E18" s="3">
         <v>5</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地伏星的那些小故事</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -4399,31 +4415,31 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="S18" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="T18" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="T18" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="U18" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="V18" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="W18" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB18" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC18" t="s">
         <v>272</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>273</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -4438,23 +4454,23 @@
         <v>504</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地孤星的那些小故事</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -4465,31 +4481,31 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S19" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="T19" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="T19" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="U19" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="V19" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="V19" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="W19" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB19" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC19" t="s">
         <v>275</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>276</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -4504,23 +4520,23 @@
         <v>504</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地刑星的那些小故事</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -4531,22 +4547,22 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S20" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="T20" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="T20" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="U20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="V20" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="W20" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -4561,23 +4577,23 @@
         <v>504</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地妖星的那些小故事</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -4588,22 +4604,22 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S21" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="T21" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="T21" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="U21" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="V21" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="W21" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -4618,23 +4634,23 @@
         <v>504</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E22" s="3">
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地角星的那些小故事</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -4645,22 +4661,22 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S22" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="T22" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="T22" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="U22" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="W22" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -4675,23 +4691,23 @@
         <v>504</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E23" s="3">
         <v>5</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地兽星的那些小故事</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -4702,22 +4718,22 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S23" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="T23" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="T23" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="U23" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="V23" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="W23" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -4732,23 +4748,23 @@
         <v>505</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地异星的那些小故事</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -4759,22 +4775,22 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="S24" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="S24" s="2" t="s">
+      <c r="T24" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="T24" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="U24" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="V24" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="W24" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -4789,23 +4805,23 @@
         <v>505</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E25" s="3">
         <v>2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地暗星的那些小故事</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -4816,22 +4832,22 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="S25" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="T25" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="T25" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="U25" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="V25" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="V25" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="W25" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -4846,23 +4862,23 @@
         <v>505</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地隧星的那些小故事</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -4873,22 +4889,22 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="S26" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="S26" s="2" t="s">
+      <c r="T26" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="T26" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="U26" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="V26" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="W26" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -4903,23 +4919,23 @@
         <v>505</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E27" s="3">
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地戚星的那些小故事</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -4930,22 +4946,22 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="S27" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="T27" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="T27" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="U27" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="V27" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="W27" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -4960,23 +4976,23 @@
         <v>505</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E28" s="3">
         <v>5</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地默星的那些小故事</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -4987,22 +5003,22 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="S28" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="T28" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="T28" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="U28" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="V28" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="V28" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="W28" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -5017,23 +5033,23 @@
         <v>506</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地文星的那些小故事</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -5044,22 +5060,22 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="S29" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="S29" s="2" t="s">
+      <c r="T29" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="T29" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="U29" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="V29" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="W29" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -5074,23 +5090,23 @@
         <v>506</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E30" s="3">
         <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地巧星的那些小故事</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -5101,22 +5117,22 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="S30" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="S30" s="2" t="s">
+      <c r="T30" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="T30" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="U30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="V30" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="V30" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="W30" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -5131,23 +5147,23 @@
         <v>506</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E31" s="3">
         <v>3</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地健星的那些小故事</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -5158,22 +5174,22 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="S31" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="T31" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="T31" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="U31" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="V31" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="V31" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="W31" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
@@ -5188,23 +5204,23 @@
         <v>506</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E32" s="3">
         <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地壮星的那些小故事</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -5215,22 +5231,22 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="S32" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="S32" s="2" t="s">
+      <c r="T32" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="T32" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="U32" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="V32" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="W32" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5245,23 +5261,23 @@
         <v>506</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E33" s="3">
         <v>5</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地飞星的那些小故事</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -5272,22 +5288,22 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="S33" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="S33" s="2" t="s">
+      <c r="T33" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="T33" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="U33" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="V33" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="W33" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5302,23 +5318,23 @@
         <v>507</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地阴星的那些小故事</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -5329,22 +5345,22 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="S34" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="S34" s="2" t="s">
+      <c r="T34" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="T34" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="U34" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="V34" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="V34" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="W34" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5359,23 +5375,23 @@
         <v>507</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E35" s="3">
         <v>2</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地幽星的那些小故事</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -5386,22 +5402,22 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="S35" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="S35" s="2" t="s">
+      <c r="T35" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="T35" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="U35" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="V35" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="W35" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5416,23 +5432,23 @@
         <v>507</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E36" s="3">
         <v>3</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地羁星的那些小故事</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -5443,22 +5459,22 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="S36" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="S36" s="2" t="s">
+      <c r="T36" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="T36" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="U36" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="V36" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="V36" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="W36" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5473,23 +5489,23 @@
         <v>507</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E37" s="3">
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地魂星的那些小故事</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -5500,22 +5516,22 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="S37" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="S37" s="2" t="s">
+      <c r="T37" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="T37" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="U37" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="V37" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="V37" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="W37" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5530,23 +5546,23 @@
         <v>507</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E38" s="3">
         <v>5</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H38" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地魔星的那些小故事</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -5557,22 +5573,22 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="S38" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="S38" s="2" t="s">
+      <c r="T38" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="U38" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="V38" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="V38" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="W38" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5587,23 +5603,23 @@
         <v>508</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H39" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地猛星的那些小故事</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -5614,22 +5630,22 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="S39" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="S39" s="2" t="s">
+      <c r="T39" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="T39" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="U39" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="V39" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="V39" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="W39" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5644,23 +5660,23 @@
         <v>508</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H40" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地俊星的那些小故事</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -5671,22 +5687,22 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="S40" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="S40" s="2" t="s">
+      <c r="T40" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="T40" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="U40" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="V40" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="V40" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="W40" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5701,23 +5717,23 @@
         <v>508</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E41" s="3">
         <v>3</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地勇星的那些小故事</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -5728,22 +5744,22 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="S41" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="S41" s="2" t="s">
+      <c r="T41" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="T41" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="U41" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="V41" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="W41" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5758,23 +5774,23 @@
         <v>508</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E42" s="3">
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地全星的那些小故事</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -5785,22 +5801,22 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="S42" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="S42" s="2" t="s">
+      <c r="T42" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="T42" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="U42" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="V42" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="W42" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5815,23 +5831,23 @@
         <v>508</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E43" s="3">
         <v>5</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地正星的那些小故事</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -5842,22 +5858,22 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="S43" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="S43" s="2" t="s">
+      <c r="T43" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="T43" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="U43" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="V43" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="W43" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5872,23 +5888,23 @@
         <v>509</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E44" s="3">
         <v>1</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H44" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地魁星的那些小故事</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -5899,22 +5915,22 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="S44" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="S44" s="2" t="s">
+      <c r="T44" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="T44" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="U44" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="V44" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="W44" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5929,23 +5945,23 @@
         <v>509</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地杰星的那些小故事</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -5956,22 +5972,22 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="S45" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="S45" s="2" t="s">
+      <c r="T45" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="T45" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="U45" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="V45" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="W45" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5986,23 +6002,23 @@
         <v>509</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E46" s="3">
         <v>3</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地雄星的那些小故事</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -6013,22 +6029,22 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="S46" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="S46" s="2" t="s">
+      <c r="T46" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="T46" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="U46" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="V46" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="W46" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6043,23 +6059,23 @@
         <v>509</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E47" s="3">
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地英星的那些小故事</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -6070,22 +6086,22 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="S47" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="S47" s="2" t="s">
+      <c r="T47" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="T47" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="U47" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="V47" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="W47" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6100,23 +6116,23 @@
         <v>509</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E48" s="3">
         <v>5</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>地威星的那些小故事</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -6127,22 +6143,22 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="S48" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="S48" s="2" t="s">
+      <c r="T48" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="T48" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="U48" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="V48" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="W48" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6157,23 +6173,23 @@
         <v>510</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E49" s="3">
         <v>1</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天巧星的那些小故事</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -6184,22 +6200,22 @@
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="S49" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="S49" s="2" t="s">
+      <c r="T49" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="T49" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="U49" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="V49" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="W49" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6214,23 +6230,23 @@
         <v>510</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E50" s="3">
         <v>2</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天暴星的那些小故事</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -6241,22 +6257,22 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="S50" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="S50" s="2" t="s">
+      <c r="T50" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="T50" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="U50" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="V50" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="V50" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="W50" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6271,23 +6287,23 @@
         <v>510</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E51" s="3">
         <v>3</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天牢星的那些小故事</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -6298,22 +6314,22 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="S51" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="S51" s="2" t="s">
+      <c r="T51" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="T51" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="U51" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="V51" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="V51" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="W51" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6328,23 +6344,23 @@
         <v>510</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E52" s="3">
         <v>4</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天慧星的那些小故事</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -6355,22 +6371,22 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="S52" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="S52" s="2" t="s">
+      <c r="T52" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="T52" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="U52" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="V52" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="W52" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6385,23 +6401,23 @@
         <v>510</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E53" s="3">
         <v>5</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天哭星的那些小故事</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -6412,22 +6428,22 @@
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="S53" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="S53" s="2" t="s">
+      <c r="T53" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="T53" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="U53" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="V53" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="V53" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="W53" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6442,23 +6458,23 @@
         <v>511</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H54" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天败星的那些小故事</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -6469,22 +6485,22 @@
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="S54" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="S54" s="2" t="s">
+      <c r="T54" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="T54" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="U54" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="V54" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="W54" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6499,23 +6515,23 @@
         <v>511</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H55" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天罪星的那些小故事</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -6526,22 +6542,22 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="S55" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="S55" s="2" t="s">
+      <c r="T55" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="T55" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="U55" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="V55" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="V55" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="W55" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6556,23 +6572,23 @@
         <v>511</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E56" s="3">
         <v>3</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天剑星的那些小故事</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -6583,22 +6599,22 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="S56" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="S56" s="2" t="s">
+      <c r="T56" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="T56" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="U56" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="V56" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="V56" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="W56" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6613,23 +6629,23 @@
         <v>511</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E57" s="3">
         <v>4</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H57" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天平星的那些小故事</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -6640,22 +6656,22 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="S57" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="S57" s="2" t="s">
+      <c r="T57" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="T57" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="U57" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="V57" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="W57" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6670,23 +6686,23 @@
         <v>511</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E58" s="3">
         <v>5</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H58" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天损星的那些小故事</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -6697,22 +6713,22 @@
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="S58" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="S58" s="2" t="s">
+      <c r="T58" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="T58" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="U58" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="V58" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="W58" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6727,23 +6743,23 @@
         <v>512</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E59" s="3">
         <v>1</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H59" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天寿星的那些小故事</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -6754,22 +6770,22 @@
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="S59" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="S59" s="2" t="s">
+      <c r="T59" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="T59" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="U59" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="V59" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="W59" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6784,23 +6800,23 @@
         <v>512</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E60" s="3">
         <v>2</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天究星的那些小故事</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -6811,22 +6827,22 @@
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="S60" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="S60" s="2" t="s">
+      <c r="T60" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="T60" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="U60" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="V60" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="W60" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6841,23 +6857,23 @@
         <v>512</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E61" s="3">
         <v>3</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H61" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天杀星的那些小故事</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -6868,22 +6884,22 @@
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
       <c r="R61" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="S61" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="S61" s="2" t="s">
+      <c r="T61" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="T61" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="U61" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="V61" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="V61" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="W61" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6898,23 +6914,23 @@
         <v>512</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E62" s="3">
         <v>4</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H62" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天微星的那些小故事</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -6925,22 +6941,22 @@
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="S62" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="S62" s="2" t="s">
+      <c r="T62" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="T62" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="U62" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="V62" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="W62" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6955,23 +6971,23 @@
         <v>512</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E63" s="3">
         <v>5</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天退星的那些小故事</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -6982,22 +6998,22 @@
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="S63" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="S63" s="2" t="s">
+      <c r="T63" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="T63" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="U63" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="V63" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="V63" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="W63" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7012,23 +7028,23 @@
         <v>513</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天异星的那些小故事</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -7039,22 +7055,22 @@
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="S64" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="S64" s="2" t="s">
+      <c r="T64" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="T64" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="U64" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="V64" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="V64" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="W64" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7069,23 +7085,23 @@
         <v>513</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E65" s="3">
         <v>2</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天空星的那些小故事</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -7096,22 +7112,22 @@
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
       <c r="R65" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="S65" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="S65" s="2" t="s">
+      <c r="T65" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="T65" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="U65" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="V65" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="V65" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="W65" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7126,23 +7142,23 @@
         <v>513</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E66" s="3">
         <v>3</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H66" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天暗星的那些小故事</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -7153,22 +7169,22 @@
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="S66" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="S66" s="2" t="s">
+      <c r="T66" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="T66" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="U66" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="V66" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="W66" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7183,23 +7199,23 @@
         <v>513</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E67" s="3">
         <v>4</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H67" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天佑星的那些小故事</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -7210,22 +7226,22 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="S67" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="S67" s="2" t="s">
+      <c r="T67" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="T67" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="U67" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="V67" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="V67" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="W67" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7240,23 +7256,23 @@
         <v>513</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E68" s="3">
         <v>5</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>天速星的那些小故事</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
@@ -7267,22 +7283,22 @@
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="S68" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="S68" s="2" t="s">
+      <c r="T68" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="T68" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="U68" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="V68" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="V68" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="W68" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7297,23 +7313,23 @@
         <v>514</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H69" s="3" t="str">
         <f t="shared" ref="H69:H82" si="3">G69&amp;"的那些小故事"</f>
         <v>天捷星的那些小故事</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
@@ -7324,22 +7340,22 @@
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
       <c r="R69" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="S69" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="S69" s="2" t="s">
+      <c r="T69" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="T69" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="U69" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="V69" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="V69" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="W69" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7354,23 +7370,23 @@
         <v>514</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E70" s="3">
         <v>2</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H70" s="3" t="str">
         <f t="shared" si="3"/>
         <v>天伤星的那些小故事</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
@@ -7381,22 +7397,22 @@
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="S70" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="S70" s="2" t="s">
+      <c r="T70" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="T70" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="U70" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="V70" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="V70" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="W70" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7411,23 +7427,23 @@
         <v>514</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E71" s="3">
         <v>3</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H71" s="3" t="str">
         <f t="shared" si="3"/>
         <v>天满星的那些小故事</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -7438,22 +7454,22 @@
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
       <c r="R71" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="S71" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="S71" s="2" t="s">
+      <c r="T71" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="T71" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="U71" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="V71" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="V71" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="W71" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7468,23 +7484,23 @@
         <v>514</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E72" s="3">
         <v>4</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H72" s="3" t="str">
         <f t="shared" si="3"/>
         <v>天孤星的那些小故事</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -7495,22 +7511,22 @@
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="S72" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="S72" s="2" t="s">
+      <c r="T72" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="T72" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="U72" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="V72" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="W72" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7525,23 +7541,23 @@
         <v>514</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E73" s="3">
         <v>5</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H73" s="3" t="str">
         <f t="shared" si="3"/>
         <v>天立星的那些小故事</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
@@ -7552,22 +7568,22 @@
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
       <c r="R73" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="S73" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="S73" s="2" t="s">
+      <c r="T73" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="T73" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="U73" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="V73" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="V73" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="W73" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7582,23 +7598,23 @@
         <v>515</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E74" s="3">
         <v>1</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H74" s="3" t="str">
         <f t="shared" si="3"/>
         <v>天富星的那些小故事</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
@@ -7609,22 +7625,22 @@
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="S74" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="S74" s="2" t="s">
+      <c r="T74" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="T74" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="U74" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="V74" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="V74" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="W74" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7639,23 +7655,23 @@
         <v>515</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E75" s="3">
         <v>2</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H75" s="3" t="str">
         <f t="shared" si="3"/>
         <v>天勇星的那些小故事</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
@@ -7666,22 +7682,22 @@
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
       <c r="R75" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="S75" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="S75" s="2" t="s">
+      <c r="T75" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="T75" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="U75" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="V75" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="V75" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="W75" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7696,23 +7712,23 @@
         <v>515</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E76" s="3">
         <v>3</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H76" s="3" t="str">
         <f t="shared" si="3"/>
         <v>天魁星的那些小故事</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
@@ -7723,22 +7739,22 @@
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="S76" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="S76" s="2" t="s">
+      <c r="T76" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="T76" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="U76" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="V76" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="W76" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7753,23 +7769,23 @@
         <v>515</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E77" s="3">
         <v>4</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H77" s="3" t="str">
         <f t="shared" si="3"/>
         <v>天机星的那些小故事</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -7780,22 +7796,22 @@
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
       <c r="R77" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="S77" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="S77" s="2" t="s">
+      <c r="T77" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="T77" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="U77" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="V77" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="V77" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="W77" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7810,23 +7826,23 @@
         <v>515</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E78" s="3">
         <v>5</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H78" s="3" t="str">
         <f t="shared" si="3"/>
         <v>天雄星的那些小故事</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
@@ -7837,22 +7853,22 @@
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="S78" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="S78" s="2" t="s">
+      <c r="T78" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="T78" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="U78" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="V78" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="V78" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="W78" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7867,23 +7883,23 @@
         <v>516</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E79" s="3">
         <v>1</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H79" s="3" t="str">
         <f t="shared" si="3"/>
         <v>七杀星的那些小故事</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -7894,22 +7910,22 @@
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
       <c r="R79" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="S79" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="S79" s="2" t="s">
+      <c r="T79" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="T79" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="U79" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="V79" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="V79" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="W79" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7924,23 +7940,23 @@
         <v>516</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E80" s="3">
         <v>2</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H80" s="3" t="str">
         <f t="shared" si="3"/>
         <v>破军星的那些小故事</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
@@ -7951,22 +7967,22 @@
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="S80" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="S80" s="2" t="s">
+      <c r="T80" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="U80" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="V80" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="V80" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="W80" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7981,23 +7997,23 @@
         <v>516</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E81" s="3">
         <v>3</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H81" s="3" t="str">
         <f t="shared" si="3"/>
         <v>太白星的那些小故事</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
@@ -8008,22 +8024,22 @@
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
       <c r="R81" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="S81" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="S81" s="2" t="s">
+      <c r="T81" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="T81" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="U81" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="V81" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="W81" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8038,23 +8054,23 @@
         <v>516</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E82" s="3">
         <v>4</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H82" s="3" t="str">
         <f t="shared" si="3"/>
         <v>荧惑星的那些小故事</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -8065,22 +8081,22 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="S82" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="S82" s="2" t="s">
+      <c r="T82" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="T82" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="U82" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="V82" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="V82" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="W82" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/wBoss.世界BOSS.xlsx
+++ b/Excel/镇魂街/wBoss.世界BOSS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="333">
   <si>
     <t>sheet名</t>
   </si>
@@ -703,18 +703,6 @@
   </si>
   <si>
     <t>星耀:通用掉落</t>
-  </si>
-  <si>
-    <t>Drop[3]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界BOSS专属武器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>世界BOSS章节</t>
@@ -1872,18 +1860,18 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G2" s="2" t="b">
         <v>1</v>
@@ -1892,18 +1880,18 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G3" s="2" t="b">
         <v>1</v>
@@ -1912,14 +1900,14 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2"/>
@@ -1930,14 +1918,14 @@
     </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2017,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2041,7 +2029,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>20</v>
@@ -2056,60 +2044,60 @@
         <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>308</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -2118,10 +2106,10 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -2130,37 +2118,37 @@
         <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K2" t="s">
         <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M2" t="s">
         <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="O2" t="s">
         <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q2" t="s">
         <v>34</v>
       </c>
       <c r="R2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="S2" t="s">
         <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.2">
@@ -2180,7 +2168,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
@@ -2193,13 +2181,13 @@
         <v>36</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>38</v>
@@ -2208,19 +2196,19 @@
         <v>139</v>
       </c>
       <c r="P3" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -2237,37 +2225,37 @@
         <v>5</v>
       </c>
       <c r="E4" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>321</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P4" s="2">
         <v>5</v>
@@ -2298,34 +2286,34 @@
         <v>40</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>321</v>
-      </c>
       <c r="O5" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P5" s="2">
         <v>10</v>
@@ -2356,34 +2344,34 @@
         <v>45</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P6" s="2">
         <v>15</v>
@@ -2414,34 +2402,34 @@
         <v>50</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P7" s="2">
         <v>20</v>
@@ -2472,34 +2460,34 @@
         <v>60</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P8" s="2">
         <v>20</v>
@@ -2534,34 +2522,34 @@
         <v>70</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P9" s="2">
         <v>20</v>
@@ -2596,34 +2584,34 @@
         <v>70</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P10" s="2">
         <v>20</v>
@@ -2658,34 +2646,34 @@
         <v>70</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P11" s="2">
         <v>20</v>
@@ -2720,34 +2708,34 @@
         <v>80</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P12" s="2">
         <v>20</v>
@@ -2782,34 +2770,34 @@
         <v>100</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P13" s="2">
         <v>20</v>
@@ -2844,34 +2832,34 @@
         <v>100</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P14" s="2">
         <v>20</v>
@@ -2906,34 +2894,34 @@
         <v>100</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P15" s="2">
         <v>20</v>
@@ -2968,31 +2956,31 @@
         <v>110</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>136</v>
@@ -3030,31 +3018,31 @@
         <v>120</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>136</v>
@@ -3092,31 +3080,31 @@
         <v>130</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>136</v>
@@ -3154,31 +3142,31 @@
         <v>140</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>136</v>
@@ -3216,10 +3204,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD82"/>
+  <dimension ref="A1:AC82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3236,60 +3224,59 @@
     <col min="20" max="20" width="15.875" customWidth="1"/>
     <col min="21" max="21" width="17.5" customWidth="1"/>
     <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="23" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>288</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>23</v>
@@ -3306,61 +3293,58 @@
       <c r="V1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
         <v>185</v>
       </c>
-      <c r="D2" t="s">
-        <v>188</v>
-      </c>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="N2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Q2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="R2" t="s">
         <v>26</v>
@@ -3377,11 +3361,8 @@
       <c r="V2" t="s">
         <v>146</v>
       </c>
-      <c r="W2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:29" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -3392,46 +3373,46 @@
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>28</v>
@@ -3448,11 +3429,8 @@
       <c r="V3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>101</v>
       </c>
@@ -3464,13 +3442,13 @@
         <v>501</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>39</v>
@@ -3480,7 +3458,7 @@
         <v>地狗星的那些小故事</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -3491,13 +3469,13 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>147</v>
@@ -3505,20 +3483,17 @@
       <c r="V4" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>181</v>
+      <c r="AA4" t="s">
+        <v>226</v>
       </c>
       <c r="AB4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AC4" t="s">
-        <v>230</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>102</v>
       </c>
@@ -3530,13 +3505,13 @@
         <v>501</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>40</v>
@@ -3546,7 +3521,7 @@
         <v>地劣星的那些小故事</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -3557,13 +3532,13 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>147</v>
@@ -3571,20 +3546,17 @@
       <c r="V5" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="W5" s="3" t="s">
-        <v>181</v>
+      <c r="AA5" t="s">
+        <v>229</v>
       </c>
       <c r="AB5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AC5" t="s">
-        <v>233</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>103</v>
       </c>
@@ -3596,13 +3568,13 @@
         <v>501</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>41</v>
@@ -3612,7 +3584,7 @@
         <v>地奴星的那些小故事</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -3623,13 +3595,13 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>147</v>
@@ -3637,20 +3609,17 @@
       <c r="V6" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="W6" s="3" t="s">
-        <v>181</v>
+      <c r="AA6" t="s">
+        <v>232</v>
       </c>
       <c r="AB6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AC6" t="s">
-        <v>236</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>104</v>
       </c>
@@ -3662,13 +3631,13 @@
         <v>501</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E7" s="3">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>42</v>
@@ -3678,7 +3647,7 @@
         <v>地损星的那些小故事</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -3689,13 +3658,13 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>147</v>
@@ -3703,20 +3672,17 @@
       <c r="V7" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="W7" s="3" t="s">
-        <v>181</v>
+      <c r="AA7" t="s">
+        <v>235</v>
       </c>
       <c r="AB7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AC7" t="s">
-        <v>239</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>105</v>
       </c>
@@ -3728,13 +3694,13 @@
         <v>501</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E8" s="3">
         <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>43</v>
@@ -3744,7 +3710,7 @@
         <v>地贼星的那些小故事</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -3755,13 +3721,13 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>147</v>
@@ -3769,20 +3735,17 @@
       <c r="V8" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>181</v>
+      <c r="AA8" t="s">
+        <v>238</v>
       </c>
       <c r="AB8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AC8" t="s">
-        <v>242</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>201</v>
       </c>
@@ -3794,13 +3757,13 @@
         <v>502</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>44</v>
@@ -3810,7 +3773,7 @@
         <v>地短星的那些小故事</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -3821,13 +3784,13 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>149</v>
@@ -3835,20 +3798,17 @@
       <c r="V9" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>181</v>
+      <c r="AA9" t="s">
+        <v>241</v>
       </c>
       <c r="AB9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AC9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>202</v>
       </c>
@@ -3860,13 +3820,13 @@
         <v>502</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>45</v>
@@ -3876,7 +3836,7 @@
         <v>地囚星的那些小故事</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -3887,13 +3847,13 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>149</v>
@@ -3901,20 +3861,17 @@
       <c r="V10" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>181</v>
+      <c r="AA10" t="s">
+        <v>244</v>
       </c>
       <c r="AB10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AC10" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>203</v>
       </c>
@@ -3926,13 +3883,13 @@
         <v>502</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E11" s="3">
         <v>3</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>46</v>
@@ -3942,7 +3899,7 @@
         <v>地微星的那些小故事</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -3953,13 +3910,13 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="U11" s="3" t="s">
         <v>149</v>
@@ -3967,20 +3924,17 @@
       <c r="V11" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="W11" s="3" t="s">
-        <v>181</v>
+      <c r="AA11" t="s">
+        <v>247</v>
       </c>
       <c r="AB11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC11" t="s">
-        <v>251</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>204</v>
       </c>
@@ -3992,13 +3946,13 @@
         <v>502</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E12" s="3">
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>47</v>
@@ -4008,7 +3962,7 @@
         <v>地退星的那些小故事</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -4019,13 +3973,13 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>149</v>
@@ -4033,20 +3987,17 @@
       <c r="V12" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>181</v>
+      <c r="AA12" t="s">
+        <v>250</v>
       </c>
       <c r="AB12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AC12" t="s">
-        <v>254</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>205</v>
       </c>
@@ -4058,13 +4009,13 @@
         <v>502</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>48</v>
@@ -4074,7 +4025,7 @@
         <v>地猖星的那些小故事</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -4085,13 +4036,13 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="U13" s="3" t="s">
         <v>149</v>
@@ -4099,20 +4050,17 @@
       <c r="V13" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="W13" s="3" t="s">
-        <v>181</v>
+      <c r="AA13" t="s">
+        <v>253</v>
       </c>
       <c r="AB13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AC13" t="s">
-        <v>257</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>301</v>
       </c>
@@ -4124,13 +4072,13 @@
         <v>503</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>49</v>
@@ -4140,7 +4088,7 @@
         <v>地僻星的那些小故事</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -4151,13 +4099,13 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>151</v>
@@ -4165,20 +4113,17 @@
       <c r="V14" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>181</v>
+      <c r="AA14" t="s">
+        <v>256</v>
       </c>
       <c r="AB14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AC14" t="s">
-        <v>260</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>302</v>
       </c>
@@ -4190,13 +4135,13 @@
         <v>503</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>50</v>
@@ -4206,7 +4151,7 @@
         <v>地空星的那些小故事</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -4217,13 +4162,13 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>151</v>
@@ -4231,20 +4176,17 @@
       <c r="V15" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>181</v>
+      <c r="AA15" t="s">
+        <v>259</v>
       </c>
       <c r="AB15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AC15" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>303</v>
       </c>
@@ -4256,13 +4198,13 @@
         <v>503</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>51</v>
@@ -4272,7 +4214,7 @@
         <v>地恶星的那些小故事</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -4283,13 +4225,13 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="U16" s="3" t="s">
         <v>151</v>
@@ -4297,20 +4239,17 @@
       <c r="V16" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="W16" s="3" t="s">
-        <v>181</v>
+      <c r="AA16" t="s">
+        <v>262</v>
       </c>
       <c r="AB16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AC16" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>304</v>
       </c>
@@ -4322,13 +4261,13 @@
         <v>503</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E17" s="3">
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>52</v>
@@ -4338,7 +4277,7 @@
         <v>地走星的那些小故事</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -4349,13 +4288,13 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>151</v>
@@ -4363,20 +4302,17 @@
       <c r="V17" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>181</v>
+      <c r="AA17" t="s">
+        <v>265</v>
       </c>
       <c r="AB17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AC17" t="s">
-        <v>269</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>305</v>
       </c>
@@ -4388,13 +4324,13 @@
         <v>503</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E18" s="3">
         <v>5</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>53</v>
@@ -4404,7 +4340,7 @@
         <v>地伏星的那些小故事</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -4415,13 +4351,13 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>151</v>
@@ -4429,20 +4365,17 @@
       <c r="V18" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>181</v>
+      <c r="AA18" t="s">
+        <v>268</v>
       </c>
       <c r="AB18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AC18" t="s">
-        <v>272</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>401</v>
       </c>
@@ -4454,13 +4387,13 @@
         <v>504</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>54</v>
@@ -4470,7 +4403,7 @@
         <v>地孤星的那些小故事</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -4481,13 +4414,13 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="U19" s="3" t="s">
         <v>153</v>
@@ -4495,20 +4428,17 @@
       <c r="V19" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="W19" s="3" t="s">
-        <v>181</v>
+      <c r="AA19" t="s">
+        <v>271</v>
       </c>
       <c r="AB19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AC19" t="s">
-        <v>275</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>402</v>
       </c>
@@ -4520,13 +4450,13 @@
         <v>504</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>55</v>
@@ -4536,7 +4466,7 @@
         <v>地刑星的那些小故事</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -4547,13 +4477,13 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>153</v>
@@ -4561,11 +4491,8 @@
       <c r="V20" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>403</v>
       </c>
@@ -4577,13 +4504,13 @@
         <v>504</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>56</v>
@@ -4593,7 +4520,7 @@
         <v>地妖星的那些小故事</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -4604,13 +4531,13 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>153</v>
@@ -4618,11 +4545,8 @@
       <c r="V21" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>404</v>
       </c>
@@ -4634,13 +4558,13 @@
         <v>504</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E22" s="3">
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>57</v>
@@ -4650,7 +4574,7 @@
         <v>地角星的那些小故事</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -4661,13 +4585,13 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>153</v>
@@ -4675,11 +4599,8 @@
       <c r="V22" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>405</v>
       </c>
@@ -4691,13 +4612,13 @@
         <v>504</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E23" s="3">
         <v>5</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>58</v>
@@ -4707,7 +4628,7 @@
         <v>地兽星的那些小故事</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -4718,13 +4639,13 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>153</v>
@@ -4732,11 +4653,8 @@
       <c r="V23" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>501</v>
       </c>
@@ -4748,13 +4666,13 @@
         <v>505</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>59</v>
@@ -4764,7 +4682,7 @@
         <v>地异星的那些小故事</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -4775,13 +4693,13 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>155</v>
@@ -4789,11 +4707,8 @@
       <c r="V24" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>502</v>
       </c>
@@ -4805,13 +4720,13 @@
         <v>505</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E25" s="3">
         <v>2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>60</v>
@@ -4821,7 +4736,7 @@
         <v>地暗星的那些小故事</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -4832,13 +4747,13 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="U25" s="3" t="s">
         <v>155</v>
@@ -4846,11 +4761,8 @@
       <c r="V25" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="W25" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>503</v>
       </c>
@@ -4862,13 +4774,13 @@
         <v>505</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>61</v>
@@ -4878,7 +4790,7 @@
         <v>地隧星的那些小故事</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -4889,13 +4801,13 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>155</v>
@@ -4903,11 +4815,8 @@
       <c r="V26" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>504</v>
       </c>
@@ -4919,13 +4828,13 @@
         <v>505</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E27" s="3">
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>62</v>
@@ -4935,7 +4844,7 @@
         <v>地戚星的那些小故事</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -4946,13 +4855,13 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>155</v>
@@ -4960,11 +4869,8 @@
       <c r="V27" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>505</v>
       </c>
@@ -4976,13 +4882,13 @@
         <v>505</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E28" s="3">
         <v>5</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>63</v>
@@ -4992,7 +4898,7 @@
         <v>地默星的那些小故事</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -5003,13 +4909,13 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="U28" s="3" t="s">
         <v>155</v>
@@ -5017,11 +4923,8 @@
       <c r="V28" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="W28" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>601</v>
       </c>
@@ -5033,13 +4936,13 @@
         <v>506</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>64</v>
@@ -5049,7 +4952,7 @@
         <v>地文星的那些小故事</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -5060,13 +4963,13 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>157</v>
@@ -5074,11 +4977,8 @@
       <c r="V29" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>602</v>
       </c>
@@ -5090,13 +4990,13 @@
         <v>506</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E30" s="3">
         <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>65</v>
@@ -5106,7 +5006,7 @@
         <v>地巧星的那些小故事</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -5117,13 +5017,13 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="U30" s="3" t="s">
         <v>157</v>
@@ -5131,11 +5031,8 @@
       <c r="V30" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="W30" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>603</v>
       </c>
@@ -5147,13 +5044,13 @@
         <v>506</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E31" s="3">
         <v>3</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>66</v>
@@ -5163,7 +5060,7 @@
         <v>地健星的那些小故事</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -5174,13 +5071,13 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="U31" s="3" t="s">
         <v>157</v>
@@ -5188,11 +5085,8 @@
       <c r="V31" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="W31" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>604</v>
       </c>
@@ -5204,13 +5098,13 @@
         <v>506</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E32" s="3">
         <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>67</v>
@@ -5220,7 +5114,7 @@
         <v>地壮星的那些小故事</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -5231,13 +5125,13 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>157</v>
@@ -5245,11 +5139,8 @@
       <c r="V32" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>605</v>
       </c>
@@ -5261,13 +5152,13 @@
         <v>506</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E33" s="3">
         <v>5</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>68</v>
@@ -5277,7 +5168,7 @@
         <v>地飞星的那些小故事</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -5288,13 +5179,13 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>157</v>
@@ -5302,11 +5193,8 @@
       <c r="V33" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>701</v>
       </c>
@@ -5318,13 +5206,13 @@
         <v>507</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>69</v>
@@ -5334,7 +5222,7 @@
         <v>地阴星的那些小故事</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -5345,13 +5233,13 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="U34" s="3" t="s">
         <v>159</v>
@@ -5359,11 +5247,8 @@
       <c r="V34" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="W34" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>702</v>
       </c>
@@ -5375,13 +5260,13 @@
         <v>507</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E35" s="3">
         <v>2</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>70</v>
@@ -5391,7 +5276,7 @@
         <v>地幽星的那些小故事</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -5402,13 +5287,13 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>159</v>
@@ -5416,11 +5301,8 @@
       <c r="V35" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>703</v>
       </c>
@@ -5432,13 +5314,13 @@
         <v>507</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E36" s="3">
         <v>3</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>71</v>
@@ -5448,7 +5330,7 @@
         <v>地羁星的那些小故事</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -5459,13 +5341,13 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="U36" s="3" t="s">
         <v>159</v>
@@ -5473,11 +5355,8 @@
       <c r="V36" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="W36" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>704</v>
       </c>
@@ -5489,13 +5368,13 @@
         <v>507</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E37" s="3">
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>72</v>
@@ -5505,7 +5384,7 @@
         <v>地魂星的那些小故事</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -5516,13 +5395,13 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="U37" s="3" t="s">
         <v>159</v>
@@ -5530,11 +5409,8 @@
       <c r="V37" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="W37" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>705</v>
       </c>
@@ -5546,13 +5422,13 @@
         <v>507</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E38" s="3">
         <v>5</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>73</v>
@@ -5562,7 +5438,7 @@
         <v>地魔星的那些小故事</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -5573,13 +5449,13 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="U38" s="3" t="s">
         <v>159</v>
@@ -5587,11 +5463,8 @@
       <c r="V38" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="W38" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>801</v>
       </c>
@@ -5603,13 +5476,13 @@
         <v>508</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>74</v>
@@ -5619,7 +5492,7 @@
         <v>地猛星的那些小故事</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -5630,13 +5503,13 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="U39" s="3" t="s">
         <v>161</v>
@@ -5644,11 +5517,8 @@
       <c r="V39" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="W39" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>802</v>
       </c>
@@ -5660,13 +5530,13 @@
         <v>508</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>75</v>
@@ -5676,7 +5546,7 @@
         <v>地俊星的那些小故事</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -5687,13 +5557,13 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="U40" s="3" t="s">
         <v>161</v>
@@ -5701,11 +5571,8 @@
       <c r="V40" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="W40" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>803</v>
       </c>
@@ -5717,13 +5584,13 @@
         <v>508</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E41" s="3">
         <v>3</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>76</v>
@@ -5733,7 +5600,7 @@
         <v>地勇星的那些小故事</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -5744,13 +5611,13 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>161</v>
@@ -5758,11 +5625,8 @@
       <c r="V41" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>804</v>
       </c>
@@ -5774,13 +5638,13 @@
         <v>508</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E42" s="3">
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>77</v>
@@ -5790,7 +5654,7 @@
         <v>地全星的那些小故事</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -5801,13 +5665,13 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>161</v>
@@ -5815,11 +5679,8 @@
       <c r="V42" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>805</v>
       </c>
@@ -5831,13 +5692,13 @@
         <v>508</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E43" s="3">
         <v>5</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>78</v>
@@ -5847,7 +5708,7 @@
         <v>地正星的那些小故事</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -5858,13 +5719,13 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>161</v>
@@ -5872,11 +5733,8 @@
       <c r="V43" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>901</v>
       </c>
@@ -5888,13 +5746,13 @@
         <v>509</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E44" s="3">
         <v>1</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>79</v>
@@ -5904,7 +5762,7 @@
         <v>地魁星的那些小故事</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -5915,13 +5773,13 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>163</v>
@@ -5929,11 +5787,8 @@
       <c r="V44" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>902</v>
       </c>
@@ -5945,13 +5800,13 @@
         <v>509</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>80</v>
@@ -5961,7 +5816,7 @@
         <v>地杰星的那些小故事</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -5972,13 +5827,13 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>163</v>
@@ -5986,11 +5841,8 @@
       <c r="V45" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>903</v>
       </c>
@@ -6002,13 +5854,13 @@
         <v>509</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E46" s="3">
         <v>3</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>81</v>
@@ -6018,7 +5870,7 @@
         <v>地雄星的那些小故事</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -6029,13 +5881,13 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>163</v>
@@ -6043,11 +5895,8 @@
       <c r="V46" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>904</v>
       </c>
@@ -6059,13 +5908,13 @@
         <v>509</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E47" s="3">
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>82</v>
@@ -6075,7 +5924,7 @@
         <v>地英星的那些小故事</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -6086,13 +5935,13 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>163</v>
@@ -6100,11 +5949,8 @@
       <c r="V47" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>905</v>
       </c>
@@ -6116,13 +5962,13 @@
         <v>509</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E48" s="3">
         <v>5</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>83</v>
@@ -6132,7 +5978,7 @@
         <v>地威星的那些小故事</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -6143,13 +5989,13 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>163</v>
@@ -6157,11 +6003,8 @@
       <c r="V48" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>1001</v>
       </c>
@@ -6173,13 +6016,13 @@
         <v>510</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E49" s="3">
         <v>1</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>84</v>
@@ -6189,7 +6032,7 @@
         <v>天巧星的那些小故事</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -6200,13 +6043,13 @@
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>165</v>
@@ -6214,11 +6057,8 @@
       <c r="V49" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>1002</v>
       </c>
@@ -6230,13 +6070,13 @@
         <v>510</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E50" s="3">
         <v>2</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>85</v>
@@ -6246,7 +6086,7 @@
         <v>天暴星的那些小故事</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -6257,13 +6097,13 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="U50" s="3" t="s">
         <v>165</v>
@@ -6271,11 +6111,8 @@
       <c r="V50" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="W50" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>1003</v>
       </c>
@@ -6287,13 +6124,13 @@
         <v>510</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E51" s="3">
         <v>3</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>86</v>
@@ -6303,7 +6140,7 @@
         <v>天牢星的那些小故事</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -6314,13 +6151,13 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="U51" s="3" t="s">
         <v>165</v>
@@ -6328,11 +6165,8 @@
       <c r="V51" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="W51" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>1004</v>
       </c>
@@ -6344,13 +6178,13 @@
         <v>510</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E52" s="3">
         <v>4</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>87</v>
@@ -6360,7 +6194,7 @@
         <v>天慧星的那些小故事</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -6371,13 +6205,13 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>165</v>
@@ -6385,11 +6219,8 @@
       <c r="V52" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>1005</v>
       </c>
@@ -6401,13 +6232,13 @@
         <v>510</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E53" s="3">
         <v>5</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>88</v>
@@ -6417,7 +6248,7 @@
         <v>天哭星的那些小故事</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -6428,13 +6259,13 @@
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="U53" s="3" t="s">
         <v>165</v>
@@ -6442,11 +6273,8 @@
       <c r="V53" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="W53" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>1101</v>
       </c>
@@ -6458,13 +6286,13 @@
         <v>511</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>89</v>
@@ -6474,7 +6302,7 @@
         <v>天败星的那些小故事</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -6485,13 +6313,13 @@
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>167</v>
@@ -6499,11 +6327,8 @@
       <c r="V54" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>1102</v>
       </c>
@@ -6515,13 +6340,13 @@
         <v>511</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>90</v>
@@ -6531,7 +6356,7 @@
         <v>天罪星的那些小故事</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -6542,13 +6367,13 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="U55" s="3" t="s">
         <v>167</v>
@@ -6556,11 +6381,8 @@
       <c r="V55" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="W55" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>1103</v>
       </c>
@@ -6572,13 +6394,13 @@
         <v>511</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E56" s="3">
         <v>3</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>91</v>
@@ -6588,7 +6410,7 @@
         <v>天剑星的那些小故事</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -6599,13 +6421,13 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="U56" s="3" t="s">
         <v>167</v>
@@ -6613,11 +6435,8 @@
       <c r="V56" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="W56" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>1104</v>
       </c>
@@ -6629,13 +6448,13 @@
         <v>511</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E57" s="3">
         <v>4</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>92</v>
@@ -6645,7 +6464,7 @@
         <v>天平星的那些小故事</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -6656,13 +6475,13 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>167</v>
@@ -6670,11 +6489,8 @@
       <c r="V57" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>1105</v>
       </c>
@@ -6686,13 +6502,13 @@
         <v>511</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E58" s="3">
         <v>5</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>93</v>
@@ -6702,7 +6518,7 @@
         <v>天损星的那些小故事</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -6713,13 +6529,13 @@
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>167</v>
@@ -6727,11 +6543,8 @@
       <c r="V58" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>1201</v>
       </c>
@@ -6743,13 +6556,13 @@
         <v>512</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E59" s="3">
         <v>1</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>94</v>
@@ -6759,7 +6572,7 @@
         <v>天寿星的那些小故事</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -6770,13 +6583,13 @@
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>169</v>
@@ -6784,11 +6597,8 @@
       <c r="V59" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>1202</v>
       </c>
@@ -6800,13 +6610,13 @@
         <v>512</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E60" s="3">
         <v>2</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>95</v>
@@ -6816,7 +6626,7 @@
         <v>天究星的那些小故事</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -6827,13 +6637,13 @@
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>169</v>
@@ -6841,11 +6651,8 @@
       <c r="V60" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>1203</v>
       </c>
@@ -6857,13 +6664,13 @@
         <v>512</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E61" s="3">
         <v>3</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>96</v>
@@ -6873,7 +6680,7 @@
         <v>天杀星的那些小故事</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -6884,13 +6691,13 @@
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
       <c r="R61" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="U61" s="3" t="s">
         <v>169</v>
@@ -6898,11 +6705,8 @@
       <c r="V61" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="W61" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>1204</v>
       </c>
@@ -6914,13 +6718,13 @@
         <v>512</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E62" s="3">
         <v>4</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>97</v>
@@ -6930,7 +6734,7 @@
         <v>天微星的那些小故事</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -6941,13 +6745,13 @@
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>169</v>
@@ -6955,11 +6759,8 @@
       <c r="V62" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>1205</v>
       </c>
@@ -6971,13 +6772,13 @@
         <v>512</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E63" s="3">
         <v>5</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>98</v>
@@ -6987,7 +6788,7 @@
         <v>天退星的那些小故事</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -6998,13 +6799,13 @@
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="U63" s="3" t="s">
         <v>169</v>
@@ -7012,11 +6813,8 @@
       <c r="V63" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="W63" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>1301</v>
       </c>
@@ -7028,13 +6826,13 @@
         <v>513</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>99</v>
@@ -7044,7 +6842,7 @@
         <v>天异星的那些小故事</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -7055,13 +6853,13 @@
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="U64" s="3" t="s">
         <v>171</v>
@@ -7069,11 +6867,8 @@
       <c r="V64" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="W64" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>1302</v>
       </c>
@@ -7085,13 +6880,13 @@
         <v>513</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E65" s="3">
         <v>2</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>100</v>
@@ -7101,7 +6896,7 @@
         <v>天空星的那些小故事</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -7112,13 +6907,13 @@
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
       <c r="R65" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="U65" s="3" t="s">
         <v>171</v>
@@ -7126,11 +6921,8 @@
       <c r="V65" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="W65" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>1303</v>
       </c>
@@ -7142,13 +6934,13 @@
         <v>513</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E66" s="3">
         <v>3</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>101</v>
@@ -7158,7 +6950,7 @@
         <v>天暗星的那些小故事</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -7169,13 +6961,13 @@
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>171</v>
@@ -7183,11 +6975,8 @@
       <c r="V66" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>1304</v>
       </c>
@@ -7199,13 +6988,13 @@
         <v>513</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E67" s="3">
         <v>4</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>102</v>
@@ -7215,7 +7004,7 @@
         <v>天佑星的那些小故事</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -7226,13 +7015,13 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="U67" s="3" t="s">
         <v>171</v>
@@ -7240,11 +7029,8 @@
       <c r="V67" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="W67" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>1305</v>
       </c>
@@ -7256,13 +7042,13 @@
         <v>513</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E68" s="3">
         <v>5</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>103</v>
@@ -7272,7 +7058,7 @@
         <v>天速星的那些小故事</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
@@ -7283,13 +7069,13 @@
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="U68" s="3" t="s">
         <v>171</v>
@@ -7297,11 +7083,8 @@
       <c r="V68" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="W68" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>1401</v>
       </c>
@@ -7313,13 +7096,13 @@
         <v>514</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>104</v>
@@ -7329,7 +7112,7 @@
         <v>天捷星的那些小故事</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
@@ -7340,13 +7123,13 @@
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
       <c r="R69" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="U69" s="3" t="s">
         <v>173</v>
@@ -7354,11 +7137,8 @@
       <c r="V69" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="W69" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>1402</v>
       </c>
@@ -7370,13 +7150,13 @@
         <v>514</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E70" s="3">
         <v>2</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>105</v>
@@ -7386,7 +7166,7 @@
         <v>天伤星的那些小故事</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
@@ -7397,13 +7177,13 @@
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="U70" s="3" t="s">
         <v>173</v>
@@ -7411,11 +7191,8 @@
       <c r="V70" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="W70" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>1403</v>
       </c>
@@ -7427,13 +7204,13 @@
         <v>514</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E71" s="3">
         <v>3</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>106</v>
@@ -7443,7 +7220,7 @@
         <v>天满星的那些小故事</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -7454,13 +7231,13 @@
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
       <c r="R71" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="U71" s="3" t="s">
         <v>173</v>
@@ -7468,11 +7245,8 @@
       <c r="V71" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="W71" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>1404</v>
       </c>
@@ -7484,13 +7258,13 @@
         <v>514</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E72" s="3">
         <v>4</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>107</v>
@@ -7500,7 +7274,7 @@
         <v>天孤星的那些小故事</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -7511,13 +7285,13 @@
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>173</v>
@@ -7525,11 +7299,8 @@
       <c r="V72" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>1405</v>
       </c>
@@ -7541,13 +7312,13 @@
         <v>514</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E73" s="3">
         <v>5</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>108</v>
@@ -7557,7 +7328,7 @@
         <v>天立星的那些小故事</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
@@ -7568,13 +7339,13 @@
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
       <c r="R73" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="U73" s="3" t="s">
         <v>173</v>
@@ -7582,11 +7353,8 @@
       <c r="V73" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="W73" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>1501</v>
       </c>
@@ -7598,13 +7366,13 @@
         <v>515</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E74" s="3">
         <v>1</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>109</v>
@@ -7614,7 +7382,7 @@
         <v>天富星的那些小故事</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
@@ -7625,13 +7393,13 @@
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="U74" s="3" t="s">
         <v>175</v>
@@ -7639,11 +7407,8 @@
       <c r="V74" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="W74" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>1502</v>
       </c>
@@ -7655,13 +7420,13 @@
         <v>515</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E75" s="3">
         <v>2</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>110</v>
@@ -7671,7 +7436,7 @@
         <v>天勇星的那些小故事</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
@@ -7682,13 +7447,13 @@
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
       <c r="R75" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="U75" s="3" t="s">
         <v>175</v>
@@ -7696,11 +7461,8 @@
       <c r="V75" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="W75" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>1503</v>
       </c>
@@ -7712,13 +7474,13 @@
         <v>515</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E76" s="3">
         <v>3</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>111</v>
@@ -7728,7 +7490,7 @@
         <v>天魁星的那些小故事</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
@@ -7739,13 +7501,13 @@
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="U76" s="3" t="s">
         <v>175</v>
@@ -7753,11 +7515,8 @@
       <c r="V76" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>1504</v>
       </c>
@@ -7769,13 +7528,13 @@
         <v>515</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E77" s="3">
         <v>4</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>112</v>
@@ -7785,7 +7544,7 @@
         <v>天机星的那些小故事</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -7796,13 +7555,13 @@
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
       <c r="R77" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="U77" s="3" t="s">
         <v>175</v>
@@ -7810,11 +7569,8 @@
       <c r="V77" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="W77" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>1505</v>
       </c>
@@ -7826,13 +7582,13 @@
         <v>515</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E78" s="3">
         <v>5</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>113</v>
@@ -7842,7 +7598,7 @@
         <v>天雄星的那些小故事</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
@@ -7853,13 +7609,13 @@
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="U78" s="3" t="s">
         <v>175</v>
@@ -7867,11 +7623,8 @@
       <c r="V78" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="W78" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>1601</v>
       </c>
@@ -7883,13 +7636,13 @@
         <v>516</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E79" s="3">
         <v>1</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>114</v>
@@ -7899,7 +7652,7 @@
         <v>七杀星的那些小故事</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -7910,13 +7663,13 @@
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
       <c r="R79" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="U79" s="3" t="s">
         <v>177</v>
@@ -7924,11 +7677,8 @@
       <c r="V79" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="W79" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>1602</v>
       </c>
@@ -7940,13 +7690,13 @@
         <v>516</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E80" s="3">
         <v>2</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>115</v>
@@ -7956,7 +7706,7 @@
         <v>破军星的那些小故事</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
@@ -7967,13 +7717,13 @@
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="U80" s="3" t="s">
         <v>177</v>
@@ -7981,11 +7731,8 @@
       <c r="V80" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="W80" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>1603</v>
       </c>
@@ -7997,13 +7744,13 @@
         <v>516</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E81" s="3">
         <v>3</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>116</v>
@@ -8013,7 +7760,7 @@
         <v>太白星的那些小故事</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
@@ -8024,13 +7771,13 @@
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
       <c r="R81" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>177</v>
@@ -8038,11 +7785,8 @@
       <c r="V81" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>1604</v>
       </c>
@@ -8054,13 +7798,13 @@
         <v>516</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E82" s="3">
         <v>4</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>117</v>
@@ -8070,7 +7814,7 @@
         <v>荧惑星的那些小故事</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -8081,22 +7825,19 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="U82" s="3" t="s">
         <v>177</v>
       </c>
       <c r="V82" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="W82" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
